--- a/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -2202,7 +2202,7 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -2404,8 +2404,8 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2519,7 +2519,7 @@
         <v>48</v>
       </c>
       <c r="H6" s="5">
-        <v>30600</v>
+        <v>30300</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:8">
@@ -2541,7 +2541,7 @@
         <v>50</v>
       </c>
       <c r="H7" s="5">
-        <v>30601</v>
+        <v>30301</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:8">
@@ -2563,7 +2563,7 @@
         <v>51</v>
       </c>
       <c r="H8" s="5">
-        <v>30602</v>
+        <v>30302</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:8">
@@ -2585,7 +2585,7 @@
         <v>52</v>
       </c>
       <c r="H9" s="5">
-        <v>30603</v>
+        <v>30303</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:8">
@@ -2607,7 +2607,7 @@
         <v>53</v>
       </c>
       <c r="H10" s="5">
-        <v>30604</v>
+        <v>30304</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -2202,8 +2202,8 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2372,7 +2372,7 @@
         <v>46</v>
       </c>
       <c r="H9" s="10">
-        <v>20604</v>
+        <v>20800</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="3:7">
@@ -2404,8 +2404,8 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2519,7 +2519,7 @@
         <v>48</v>
       </c>
       <c r="H6" s="5">
-        <v>30300</v>
+        <v>20700</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:8">
@@ -2541,7 +2541,7 @@
         <v>50</v>
       </c>
       <c r="H7" s="5">
-        <v>30301</v>
+        <v>20701</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:8">
@@ -2563,7 +2563,7 @@
         <v>51</v>
       </c>
       <c r="H8" s="5">
-        <v>30302</v>
+        <v>20702</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:8">
@@ -2585,7 +2585,7 @@
         <v>52</v>
       </c>
       <c r="H9" s="5">
-        <v>30303</v>
+        <v>20703</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:8">
@@ -2607,7 +2607,7 @@
         <v>53</v>
       </c>
       <c r="H10" s="5">
-        <v>30304</v>
+        <v>20704</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="53">
   <si>
     <t>Id</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>FubenCenter</t>
-  </si>
-  <si>
-    <t>Battle</t>
   </si>
   <si>
     <t>Map</t>
@@ -1222,10 +1219,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O449"/>
+  <dimension ref="A3:O448"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1331,7 +1328,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="8">
-        <v>20625</v>
+        <v>20325</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -1358,7 +1355,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="10">
-        <v>20626</v>
+        <v>20326</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -1385,7 +1382,7 @@
         <v>18</v>
       </c>
       <c r="H9" s="8">
-        <v>20627</v>
+        <v>20327</v>
       </c>
     </row>
     <row r="10" spans="3:8">
@@ -1405,7 +1402,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="10">
-        <v>20628</v>
+        <v>20328</v>
       </c>
     </row>
     <row r="11" spans="3:7">
@@ -1582,31 +1579,31 @@
       <c r="C21" s="13">
         <v>115</v>
       </c>
-      <c r="D21" s="10">
-        <v>1</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
         <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="3:7">
       <c r="C22" s="13">
         <v>116</v>
       </c>
-      <c r="D22" s="8">
-        <v>1</v>
-      </c>
-      <c r="E22" s="8">
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10">
         <v>1</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>32</v>
@@ -1633,7 +1630,7 @@
       <c r="C24" s="13">
         <v>118</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <v>1</v>
       </c>
       <c r="E24" s="10">
@@ -1650,10 +1647,10 @@
       <c r="C25" s="13">
         <v>119</v>
       </c>
-      <c r="D25" s="8">
-        <v>1</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8">
         <v>1</v>
       </c>
       <c r="F25" s="8" t="s">
@@ -1670,28 +1667,28 @@
       <c r="D26" s="10">
         <v>1</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="10">
         <v>1</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>36</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="3:7">
       <c r="C27" s="13">
         <v>121</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <v>1</v>
       </c>
       <c r="E27" s="10">
         <v>1</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>38</v>
@@ -1701,14 +1698,14 @@
       <c r="C28" s="13">
         <v>122</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="10">
         <v>1</v>
       </c>
       <c r="E28" s="10">
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>39</v>
@@ -1721,11 +1718,11 @@
       <c r="D29" s="10">
         <v>1</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="8">
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>40</v>
@@ -1738,41 +1735,25 @@
       <c r="D30" s="10">
         <v>1</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="10">
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="3:7">
-      <c r="C31" s="13">
-        <v>125</v>
-      </c>
-      <c r="D31" s="10">
-        <v>1</v>
-      </c>
-      <c r="E31" s="10">
-        <v>1</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8">
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-    </row>
+    <row r="31" spans="3:8">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" s="7" customFormat="1"/>
     <row r="33" s="7" customFormat="1"/>
     <row r="34" s="7" customFormat="1"/>
     <row r="35" s="7" customFormat="1"/>
@@ -1797,8 +1778,8 @@
     <row r="54" s="7" customFormat="1"/>
     <row r="55" s="7" customFormat="1"/>
     <row r="56" s="7" customFormat="1"/>
-    <row r="57" s="7" customFormat="1"/>
-    <row r="58" s="7" customFormat="1" ht="13.5" customHeight="1"/>
+    <row r="57" s="7" customFormat="1" ht="13.5" customHeight="1"/>
+    <row r="58" s="7" customFormat="1"/>
     <row r="59" s="7" customFormat="1"/>
     <row r="60" s="7" customFormat="1"/>
     <row r="61" s="7" customFormat="1"/>
@@ -2189,7 +2170,6 @@
     <row r="446" s="7" customFormat="1"/>
     <row r="447" s="7" customFormat="1"/>
     <row r="448" s="7" customFormat="1"/>
-    <row r="449" s="7" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2203,7 +2183,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2312,10 +2292,10 @@
         <v>202</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="10"/>
     </row>
@@ -2330,10 +2310,10 @@
         <v>202</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="10"/>
     </row>
@@ -2348,10 +2328,10 @@
         <v>202</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -2366,13 +2346,13 @@
         <v>202</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="10">
-        <v>20800</v>
+        <v>20304</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="3:7">
@@ -2386,10 +2366,10 @@
         <v>202</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2404,8 +2384,8 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2513,13 +2493,13 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" s="5">
-        <v>20700</v>
+        <v>30300</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:8">
@@ -2535,13 +2515,13 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="H7" s="5">
-        <v>20701</v>
+        <v>30301</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:8">
@@ -2557,13 +2537,13 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" s="5">
-        <v>20702</v>
+        <v>30302</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:8">
@@ -2579,13 +2559,13 @@
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="5">
-        <v>20703</v>
+        <v>30303</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:8">
@@ -2601,13 +2581,13 @@
         <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" s="5">
-        <v>20704</v>
+        <v>30304</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Map101</t>
   </si>
   <si>
-    <t>Arena</t>
-  </si>
-  <si>
     <t>JiaYuan</t>
   </si>
   <si>
@@ -137,24 +134,6 @@
   </si>
   <si>
     <t>Solo</t>
-  </si>
-  <si>
-    <t>LocalDungeon</t>
-  </si>
-  <si>
-    <t>LocalDungeon1</t>
-  </si>
-  <si>
-    <t>LocalDungeon2</t>
-  </si>
-  <si>
-    <t>LocalDungeon3</t>
-  </si>
-  <si>
-    <t>LocalDungeon4</t>
-  </si>
-  <si>
-    <t>Happy</t>
   </si>
   <si>
     <t>BigCenter</t>
@@ -1219,10 +1198,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O448"/>
+  <dimension ref="A3:O442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C30"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1613,7 +1592,7 @@
       <c r="C23" s="13">
         <v>117</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="8">
         <v>1</v>
       </c>
       <c r="E23" s="10">
@@ -1630,10 +1609,10 @@
       <c r="C24" s="13">
         <v>118</v>
       </c>
-      <c r="D24" s="8">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8">
         <v>1</v>
       </c>
       <c r="F24" s="8" t="s">
@@ -1643,116 +1622,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="3:7">
-      <c r="C25" s="13">
-        <v>119</v>
-      </c>
-      <c r="D25" s="10">
-        <v>1</v>
-      </c>
-      <c r="E25" s="8">
-        <v>1</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7">
-      <c r="C26" s="13">
-        <v>120</v>
-      </c>
-      <c r="D26" s="10">
-        <v>1</v>
-      </c>
-      <c r="E26" s="10">
-        <v>1</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7">
-      <c r="C27" s="13">
-        <v>121</v>
-      </c>
-      <c r="D27" s="8">
-        <v>1</v>
-      </c>
-      <c r="E27" s="10">
-        <v>1</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7">
-      <c r="C28" s="13">
-        <v>122</v>
-      </c>
-      <c r="D28" s="10">
-        <v>1</v>
-      </c>
-      <c r="E28" s="10">
-        <v>1</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7">
-      <c r="C29" s="13">
-        <v>123</v>
-      </c>
-      <c r="D29" s="10">
-        <v>1</v>
-      </c>
-      <c r="E29" s="8">
-        <v>1</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7">
-      <c r="C30" s="13">
-        <v>124</v>
-      </c>
-      <c r="D30" s="10">
-        <v>1</v>
-      </c>
-      <c r="E30" s="10">
-        <v>1</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8">
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" s="7" customFormat="1"/>
+    <row r="27" s="7" customFormat="1"/>
+    <row r="28" s="7" customFormat="1"/>
+    <row r="29" s="7" customFormat="1"/>
+    <row r="30" s="7" customFormat="1"/>
+    <row r="31" s="7" customFormat="1"/>
     <row r="32" s="7" customFormat="1"/>
     <row r="33" s="7" customFormat="1"/>
     <row r="34" s="7" customFormat="1"/>
@@ -1772,13 +1655,13 @@
     <row r="48" s="7" customFormat="1"/>
     <row r="49" s="7" customFormat="1"/>
     <row r="50" s="7" customFormat="1"/>
-    <row r="51" s="7" customFormat="1"/>
+    <row r="51" s="7" customFormat="1" ht="13.5" customHeight="1"/>
     <row r="52" s="7" customFormat="1"/>
     <row r="53" s="7" customFormat="1"/>
     <row r="54" s="7" customFormat="1"/>
     <row r="55" s="7" customFormat="1"/>
     <row r="56" s="7" customFormat="1"/>
-    <row r="57" s="7" customFormat="1" ht="13.5" customHeight="1"/>
+    <row r="57" s="7" customFormat="1"/>
     <row r="58" s="7" customFormat="1"/>
     <row r="59" s="7" customFormat="1"/>
     <row r="60" s="7" customFormat="1"/>
@@ -2164,12 +2047,6 @@
     <row r="440" s="7" customFormat="1"/>
     <row r="441" s="7" customFormat="1"/>
     <row r="442" s="7" customFormat="1"/>
-    <row r="443" s="7" customFormat="1"/>
-    <row r="444" s="7" customFormat="1"/>
-    <row r="445" s="7" customFormat="1"/>
-    <row r="446" s="7" customFormat="1"/>
-    <row r="447" s="7" customFormat="1"/>
-    <row r="448" s="7" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2292,10 +2169,10 @@
         <v>202</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H6" s="10"/>
     </row>
@@ -2310,10 +2187,10 @@
         <v>202</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H7" s="10"/>
     </row>
@@ -2328,10 +2205,10 @@
         <v>202</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -2346,10 +2223,10 @@
         <v>202</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H9" s="10">
         <v>20304</v>
@@ -2366,10 +2243,10 @@
         <v>202</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2493,10 +2370,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H6" s="5">
         <v>30300</v>
@@ -2515,10 +2392,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H7" s="5">
         <v>30301</v>
@@ -2537,10 +2414,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H8" s="5">
         <v>30302</v>
@@ -2559,10 +2436,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H9" s="5">
         <v>30303</v>
@@ -2581,10 +2458,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H10" s="5">
         <v>30304</v>

--- a/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="43">
   <si>
     <t>Id</t>
   </si>
@@ -76,9 +76,6 @@
     <t>#1区封测区</t>
   </si>
   <si>
-    <t>Account</t>
-  </si>
-  <si>
     <t>Realm</t>
   </si>
   <si>
@@ -136,16 +133,10 @@
     <t>Solo</t>
   </si>
   <si>
-    <t>BigCenter</t>
-  </si>
-  <si>
     <t>LoginCenter</t>
   </si>
   <si>
     <t>Location</t>
-  </si>
-  <si>
-    <t>AccountCenter</t>
   </si>
   <si>
     <t>ReCharge</t>
@@ -828,9 +819,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -840,6 +828,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1200,38 +1191,38 @@
   <sheetPr/>
   <dimension ref="A3:O442"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="7" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="11" customWidth="1"/>
-    <col min="4" max="5" width="12.625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="8" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="7"/>
+    <col min="4" max="5" width="12.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="7" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:8">
       <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1239,19 +1230,19 @@
       <c r="C4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1259,145 +1250,142 @@
       <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" s="6" customFormat="1" spans="1:15">
-      <c r="A7" s="6" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" s="10" customFormat="1" spans="1:15">
+      <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="13">
         <v>101</v>
       </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="9">
         <v>20325</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" s="6" customFormat="1" spans="3:15">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" s="10" customFormat="1" spans="3:15">
       <c r="C8" s="13">
         <v>102</v>
       </c>
-      <c r="D8" s="10">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="10">
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
         <v>20326</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
     </row>
     <row r="9" spans="3:8">
       <c r="C9" s="13">
         <v>103</v>
       </c>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="8">
+      <c r="G9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="9">
         <v>20327</v>
       </c>
     </row>
-    <row r="10" spans="3:8">
+    <row r="10" spans="3:7">
       <c r="C10" s="13">
         <v>104</v>
       </c>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H10" s="10">
-        <v>20328</v>
       </c>
     </row>
     <row r="11" spans="3:7">
       <c r="C11" s="13">
         <v>105</v>
       </c>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1405,16 +1393,16 @@
       <c r="C12" s="13">
         <v>106</v>
       </c>
-      <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1422,16 +1410,16 @@
       <c r="C13" s="13">
         <v>107</v>
       </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1439,16 +1427,16 @@
       <c r="C14" s="13">
         <v>108</v>
       </c>
-      <c r="D14" s="10">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1456,16 +1444,16 @@
       <c r="C15" s="13">
         <v>109</v>
       </c>
-      <c r="D15" s="10">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1473,16 +1461,16 @@
       <c r="C16" s="13">
         <v>110</v>
       </c>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10">
-        <v>1</v>
-      </c>
-      <c r="F16" s="8" t="s">
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1490,16 +1478,16 @@
       <c r="C17" s="13">
         <v>111</v>
       </c>
-      <c r="D17" s="10">
-        <v>1</v>
-      </c>
-      <c r="E17" s="10">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1507,16 +1495,16 @@
       <c r="C18" s="13">
         <v>112</v>
       </c>
-      <c r="D18" s="10">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>1</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1524,16 +1512,16 @@
       <c r="C19" s="13">
         <v>113</v>
       </c>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1</v>
-      </c>
-      <c r="F19" s="8" t="s">
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1541,33 +1529,33 @@
       <c r="C20" s="13">
         <v>114</v>
       </c>
-      <c r="D20" s="10">
-        <v>1</v>
-      </c>
-      <c r="E20" s="10">
-        <v>1</v>
-      </c>
-      <c r="F20" s="8" t="s">
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>29</v>
+      <c r="G20" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="3:7">
       <c r="C21" s="13">
         <v>115</v>
       </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>1</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="8" t="s">
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1575,16 +1563,16 @@
       <c r="C22" s="13">
         <v>116</v>
       </c>
-      <c r="D22" s="10">
-        <v>1</v>
-      </c>
-      <c r="E22" s="10">
-        <v>1</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1592,461 +1580,459 @@
       <c r="C23" s="13">
         <v>117</v>
       </c>
-      <c r="D23" s="8">
-        <v>1</v>
-      </c>
-      <c r="E23" s="10">
-        <v>1</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="3:7">
-      <c r="C24" s="13">
-        <v>118</v>
-      </c>
-      <c r="D24" s="10">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8">
-        <v>1</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>34</v>
-      </c>
+    <row r="24" spans="3:8">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" s="7" customFormat="1"/>
-    <row r="27" s="7" customFormat="1"/>
-    <row r="28" s="7" customFormat="1"/>
-    <row r="29" s="7" customFormat="1"/>
-    <row r="30" s="7" customFormat="1"/>
-    <row r="31" s="7" customFormat="1"/>
-    <row r="32" s="7" customFormat="1"/>
-    <row r="33" s="7" customFormat="1"/>
-    <row r="34" s="7" customFormat="1"/>
-    <row r="35" s="7" customFormat="1"/>
-    <row r="36" s="7" customFormat="1"/>
-    <row r="37" s="7" customFormat="1"/>
-    <row r="38" s="7" customFormat="1"/>
-    <row r="39" s="7" customFormat="1"/>
-    <row r="40" s="7" customFormat="1"/>
-    <row r="41" s="7" customFormat="1"/>
-    <row r="42" s="7" customFormat="1"/>
-    <row r="43" s="7" customFormat="1"/>
-    <row r="44" s="7" customFormat="1"/>
-    <row r="45" s="7" customFormat="1"/>
-    <row r="46" s="7" customFormat="1"/>
-    <row r="47" s="7" customFormat="1"/>
-    <row r="48" s="7" customFormat="1"/>
-    <row r="49" s="7" customFormat="1"/>
-    <row r="50" s="7" customFormat="1"/>
-    <row r="51" s="7" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="52" s="7" customFormat="1"/>
-    <row r="53" s="7" customFormat="1"/>
-    <row r="54" s="7" customFormat="1"/>
-    <row r="55" s="7" customFormat="1"/>
-    <row r="56" s="7" customFormat="1"/>
-    <row r="57" s="7" customFormat="1"/>
-    <row r="58" s="7" customFormat="1"/>
-    <row r="59" s="7" customFormat="1"/>
-    <row r="60" s="7" customFormat="1"/>
-    <row r="61" s="7" customFormat="1"/>
-    <row r="62" s="7" customFormat="1"/>
-    <row r="63" s="7" customFormat="1"/>
-    <row r="64" s="7" customFormat="1"/>
-    <row r="65" s="7" customFormat="1"/>
-    <row r="66" s="7" customFormat="1"/>
-    <row r="67" s="7" customFormat="1"/>
-    <row r="68" s="7" customFormat="1"/>
-    <row r="69" s="7" customFormat="1"/>
-    <row r="70" s="7" customFormat="1"/>
-    <row r="71" s="7" customFormat="1"/>
-    <row r="72" s="7" customFormat="1"/>
-    <row r="73" s="7" customFormat="1"/>
-    <row r="74" s="7" customFormat="1"/>
-    <row r="75" s="7" customFormat="1"/>
-    <row r="76" s="7" customFormat="1"/>
-    <row r="77" s="7" customFormat="1"/>
-    <row r="78" s="7" customFormat="1"/>
-    <row r="79" s="7" customFormat="1"/>
-    <row r="80" s="7" customFormat="1"/>
-    <row r="81" s="7" customFormat="1"/>
-    <row r="82" s="7" customFormat="1"/>
-    <row r="83" s="7" customFormat="1"/>
-    <row r="84" s="7" customFormat="1"/>
-    <row r="85" s="7" customFormat="1"/>
-    <row r="86" s="7" customFormat="1"/>
-    <row r="87" s="7" customFormat="1"/>
-    <row r="88" s="7" customFormat="1"/>
-    <row r="89" s="7" customFormat="1"/>
-    <row r="90" s="7" customFormat="1"/>
-    <row r="91" s="7" customFormat="1"/>
-    <row r="92" s="7" customFormat="1"/>
-    <row r="93" s="7" customFormat="1"/>
-    <row r="94" s="7" customFormat="1"/>
-    <row r="95" s="7" customFormat="1"/>
-    <row r="96" s="7" customFormat="1"/>
-    <row r="97" s="7" customFormat="1"/>
-    <row r="98" s="7" customFormat="1"/>
-    <row r="99" s="7" customFormat="1"/>
-    <row r="100" s="7" customFormat="1"/>
-    <row r="101" s="7" customFormat="1"/>
-    <row r="102" s="7" customFormat="1"/>
-    <row r="103" s="7" customFormat="1"/>
-    <row r="104" s="7" customFormat="1"/>
-    <row r="105" s="7" customFormat="1"/>
-    <row r="106" s="7" customFormat="1"/>
-    <row r="107" s="7" customFormat="1"/>
-    <row r="108" s="7" customFormat="1"/>
-    <row r="109" s="7" customFormat="1"/>
-    <row r="110" s="7" customFormat="1"/>
-    <row r="111" s="7" customFormat="1"/>
-    <row r="112" s="7" customFormat="1"/>
-    <row r="113" s="7" customFormat="1"/>
-    <row r="114" s="7" customFormat="1"/>
-    <row r="115" s="7" customFormat="1"/>
-    <row r="116" s="7" customFormat="1"/>
-    <row r="117" s="7" customFormat="1"/>
-    <row r="118" s="7" customFormat="1"/>
-    <row r="119" s="7" customFormat="1"/>
-    <row r="120" s="7" customFormat="1"/>
-    <row r="121" s="7" customFormat="1"/>
-    <row r="122" s="7" customFormat="1"/>
-    <row r="123" s="7" customFormat="1"/>
-    <row r="124" s="7" customFormat="1"/>
-    <row r="125" s="7" customFormat="1"/>
-    <row r="126" s="7" customFormat="1"/>
-    <row r="127" s="7" customFormat="1"/>
-    <row r="128" s="7" customFormat="1"/>
-    <row r="129" s="7" customFormat="1"/>
-    <row r="130" s="7" customFormat="1"/>
-    <row r="131" s="7" customFormat="1"/>
-    <row r="132" s="7" customFormat="1"/>
-    <row r="133" s="7" customFormat="1"/>
-    <row r="134" s="7" customFormat="1"/>
-    <row r="135" s="7" customFormat="1"/>
-    <row r="136" s="7" customFormat="1"/>
-    <row r="137" s="7" customFormat="1"/>
-    <row r="138" s="7" customFormat="1"/>
-    <row r="139" s="7" customFormat="1"/>
-    <row r="140" s="7" customFormat="1"/>
-    <row r="141" s="7" customFormat="1"/>
-    <row r="142" s="7" customFormat="1"/>
-    <row r="143" s="7" customFormat="1"/>
-    <row r="144" s="7" customFormat="1"/>
-    <row r="145" s="7" customFormat="1"/>
-    <row r="146" s="7" customFormat="1"/>
-    <row r="147" s="7" customFormat="1"/>
-    <row r="148" s="7" customFormat="1"/>
-    <row r="149" s="7" customFormat="1"/>
-    <row r="150" s="7" customFormat="1"/>
-    <row r="151" s="7" customFormat="1"/>
-    <row r="152" s="7" customFormat="1"/>
-    <row r="153" s="7" customFormat="1"/>
-    <row r="154" s="7" customFormat="1"/>
-    <row r="155" s="7" customFormat="1"/>
-    <row r="156" s="7" customFormat="1"/>
-    <row r="157" s="7" customFormat="1"/>
-    <row r="158" s="7" customFormat="1"/>
-    <row r="159" s="7" customFormat="1"/>
-    <row r="160" s="7" customFormat="1"/>
-    <row r="161" s="7" customFormat="1"/>
-    <row r="162" s="7" customFormat="1"/>
-    <row r="163" s="7" customFormat="1"/>
-    <row r="164" s="7" customFormat="1"/>
-    <row r="165" s="7" customFormat="1"/>
-    <row r="166" s="7" customFormat="1"/>
-    <row r="167" s="7" customFormat="1"/>
-    <row r="168" s="7" customFormat="1"/>
-    <row r="169" s="7" customFormat="1"/>
-    <row r="170" s="7" customFormat="1"/>
-    <row r="171" s="7" customFormat="1"/>
-    <row r="172" s="7" customFormat="1"/>
-    <row r="173" s="7" customFormat="1"/>
-    <row r="174" s="7" customFormat="1"/>
-    <row r="175" s="7" customFormat="1"/>
-    <row r="176" s="7" customFormat="1"/>
-    <row r="177" s="7" customFormat="1"/>
-    <row r="178" s="7" customFormat="1"/>
-    <row r="179" s="7" customFormat="1"/>
-    <row r="180" s="7" customFormat="1"/>
-    <row r="181" s="7" customFormat="1"/>
-    <row r="182" s="7" customFormat="1"/>
-    <row r="183" s="7" customFormat="1"/>
-    <row r="184" s="7" customFormat="1"/>
-    <row r="185" s="7" customFormat="1"/>
-    <row r="186" s="7" customFormat="1"/>
-    <row r="187" s="7" customFormat="1"/>
-    <row r="188" s="7" customFormat="1"/>
-    <row r="189" s="7" customFormat="1"/>
-    <row r="190" s="7" customFormat="1"/>
-    <row r="191" s="7" customFormat="1"/>
-    <row r="192" s="7" customFormat="1"/>
-    <row r="193" s="7" customFormat="1"/>
-    <row r="194" s="7" customFormat="1"/>
-    <row r="195" s="7" customFormat="1"/>
-    <row r="196" s="7" customFormat="1"/>
-    <row r="197" s="7" customFormat="1"/>
-    <row r="198" s="7" customFormat="1"/>
-    <row r="199" s="7" customFormat="1"/>
-    <row r="200" s="7" customFormat="1"/>
-    <row r="201" s="7" customFormat="1"/>
-    <row r="202" s="7" customFormat="1"/>
-    <row r="203" s="7" customFormat="1"/>
-    <row r="204" s="7" customFormat="1"/>
-    <row r="205" s="7" customFormat="1"/>
-    <row r="206" s="7" customFormat="1"/>
-    <row r="207" s="7" customFormat="1"/>
-    <row r="208" s="7" customFormat="1"/>
-    <row r="209" s="7" customFormat="1"/>
-    <row r="210" s="7" customFormat="1"/>
-    <row r="211" s="7" customFormat="1"/>
-    <row r="212" s="7" customFormat="1"/>
-    <row r="213" s="7" customFormat="1"/>
-    <row r="214" s="7" customFormat="1"/>
-    <row r="215" s="7" customFormat="1"/>
-    <row r="216" s="7" customFormat="1"/>
-    <row r="217" s="7" customFormat="1"/>
-    <row r="218" s="7" customFormat="1"/>
-    <row r="219" s="7" customFormat="1"/>
-    <row r="220" s="7" customFormat="1"/>
-    <row r="221" s="7" customFormat="1"/>
-    <row r="222" s="7" customFormat="1"/>
-    <row r="223" s="7" customFormat="1"/>
-    <row r="224" s="7" customFormat="1"/>
-    <row r="225" s="7" customFormat="1"/>
-    <row r="226" s="7" customFormat="1"/>
-    <row r="227" s="7" customFormat="1"/>
-    <row r="228" s="7" customFormat="1"/>
-    <row r="229" s="7" customFormat="1"/>
-    <row r="230" s="7" customFormat="1"/>
-    <row r="231" s="7" customFormat="1"/>
-    <row r="232" s="7" customFormat="1"/>
-    <row r="233" s="7" customFormat="1"/>
-    <row r="234" s="7" customFormat="1"/>
-    <row r="235" s="7" customFormat="1"/>
-    <row r="236" s="7" customFormat="1"/>
-    <row r="237" s="7" customFormat="1"/>
-    <row r="238" s="7" customFormat="1"/>
-    <row r="239" s="7" customFormat="1"/>
-    <row r="240" s="7" customFormat="1"/>
-    <row r="241" s="7" customFormat="1"/>
-    <row r="242" s="7" customFormat="1"/>
-    <row r="243" s="7" customFormat="1"/>
-    <row r="244" s="7" customFormat="1"/>
-    <row r="245" s="7" customFormat="1"/>
-    <row r="246" s="7" customFormat="1"/>
-    <row r="247" s="7" customFormat="1"/>
-    <row r="248" s="7" customFormat="1"/>
-    <row r="249" s="7" customFormat="1"/>
-    <row r="250" s="7" customFormat="1"/>
-    <row r="251" s="7" customFormat="1"/>
-    <row r="252" s="7" customFormat="1"/>
-    <row r="253" s="7" customFormat="1"/>
-    <row r="254" s="7" customFormat="1"/>
-    <row r="255" s="7" customFormat="1"/>
-    <row r="256" s="7" customFormat="1"/>
-    <row r="257" s="7" customFormat="1"/>
-    <row r="258" s="7" customFormat="1"/>
-    <row r="259" s="7" customFormat="1"/>
-    <row r="260" s="7" customFormat="1"/>
-    <row r="261" s="7" customFormat="1"/>
-    <row r="262" s="7" customFormat="1"/>
-    <row r="263" s="7" customFormat="1"/>
-    <row r="264" s="7" customFormat="1"/>
-    <row r="265" s="7" customFormat="1"/>
-    <row r="266" s="7" customFormat="1"/>
-    <row r="267" s="7" customFormat="1"/>
-    <row r="268" s="7" customFormat="1"/>
-    <row r="269" s="7" customFormat="1"/>
-    <row r="270" s="7" customFormat="1"/>
-    <row r="271" s="7" customFormat="1"/>
-    <row r="272" s="7" customFormat="1"/>
-    <row r="273" s="7" customFormat="1"/>
-    <row r="274" s="7" customFormat="1"/>
-    <row r="275" s="7" customFormat="1"/>
-    <row r="276" s="7" customFormat="1"/>
-    <row r="277" s="7" customFormat="1"/>
-    <row r="278" s="7" customFormat="1"/>
-    <row r="279" s="7" customFormat="1"/>
-    <row r="280" s="7" customFormat="1"/>
-    <row r="281" s="7" customFormat="1"/>
-    <row r="282" s="7" customFormat="1"/>
-    <row r="283" s="7" customFormat="1"/>
-    <row r="284" s="7" customFormat="1"/>
-    <row r="285" s="7" customFormat="1"/>
-    <row r="286" s="7" customFormat="1"/>
-    <row r="287" s="7" customFormat="1"/>
-    <row r="288" s="7" customFormat="1"/>
-    <row r="289" s="7" customFormat="1"/>
-    <row r="290" s="7" customFormat="1"/>
-    <row r="291" s="7" customFormat="1"/>
-    <row r="292" s="7" customFormat="1"/>
-    <row r="293" s="7" customFormat="1"/>
-    <row r="294" s="7" customFormat="1"/>
-    <row r="295" s="7" customFormat="1"/>
-    <row r="296" s="7" customFormat="1"/>
-    <row r="297" s="7" customFormat="1"/>
-    <row r="298" s="7" customFormat="1"/>
-    <row r="299" s="7" customFormat="1"/>
-    <row r="300" s="7" customFormat="1"/>
-    <row r="301" s="7" customFormat="1"/>
-    <row r="302" s="7" customFormat="1"/>
-    <row r="303" s="7" customFormat="1"/>
-    <row r="304" s="7" customFormat="1"/>
-    <row r="305" s="7" customFormat="1"/>
-    <row r="306" s="7" customFormat="1"/>
-    <row r="307" s="7" customFormat="1"/>
-    <row r="308" s="7" customFormat="1"/>
-    <row r="309" s="7" customFormat="1"/>
-    <row r="310" s="7" customFormat="1"/>
-    <row r="311" s="7" customFormat="1"/>
-    <row r="312" s="7" customFormat="1"/>
-    <row r="313" s="7" customFormat="1"/>
-    <row r="314" s="7" customFormat="1"/>
-    <row r="315" s="7" customFormat="1"/>
-    <row r="316" s="7" customFormat="1"/>
-    <row r="317" s="7" customFormat="1"/>
-    <row r="318" s="7" customFormat="1"/>
-    <row r="319" s="7" customFormat="1"/>
-    <row r="320" s="7" customFormat="1"/>
-    <row r="321" s="7" customFormat="1"/>
-    <row r="322" s="7" customFormat="1"/>
-    <row r="323" s="7" customFormat="1"/>
-    <row r="324" s="7" customFormat="1"/>
-    <row r="325" s="7" customFormat="1"/>
-    <row r="326" s="7" customFormat="1"/>
-    <row r="327" s="7" customFormat="1"/>
-    <row r="328" s="7" customFormat="1"/>
-    <row r="329" s="7" customFormat="1"/>
-    <row r="330" s="7" customFormat="1"/>
-    <row r="331" s="7" customFormat="1"/>
-    <row r="332" s="7" customFormat="1"/>
-    <row r="333" s="7" customFormat="1"/>
-    <row r="334" s="7" customFormat="1"/>
-    <row r="335" s="7" customFormat="1"/>
-    <row r="336" s="7" customFormat="1"/>
-    <row r="337" s="7" customFormat="1"/>
-    <row r="338" s="7" customFormat="1"/>
-    <row r="339" s="7" customFormat="1"/>
-    <row r="340" s="7" customFormat="1"/>
-    <row r="341" s="7" customFormat="1"/>
-    <row r="342" s="7" customFormat="1"/>
-    <row r="343" s="7" customFormat="1"/>
-    <row r="344" s="7" customFormat="1"/>
-    <row r="345" s="7" customFormat="1"/>
-    <row r="346" s="7" customFormat="1"/>
-    <row r="347" s="7" customFormat="1"/>
-    <row r="348" s="7" customFormat="1"/>
-    <row r="349" s="7" customFormat="1"/>
-    <row r="350" s="7" customFormat="1"/>
-    <row r="351" s="7" customFormat="1"/>
-    <row r="352" s="7" customFormat="1"/>
-    <row r="353" s="7" customFormat="1"/>
-    <row r="354" s="7" customFormat="1"/>
-    <row r="355" s="7" customFormat="1"/>
-    <row r="356" s="7" customFormat="1"/>
-    <row r="357" s="7" customFormat="1"/>
-    <row r="358" s="7" customFormat="1"/>
-    <row r="359" s="7" customFormat="1"/>
-    <row r="360" s="7" customFormat="1"/>
-    <row r="361" s="7" customFormat="1"/>
-    <row r="362" s="7" customFormat="1"/>
-    <row r="363" s="7" customFormat="1"/>
-    <row r="364" s="7" customFormat="1"/>
-    <row r="365" s="7" customFormat="1"/>
-    <row r="366" s="7" customFormat="1"/>
-    <row r="367" s="7" customFormat="1"/>
-    <row r="368" s="7" customFormat="1"/>
-    <row r="369" s="7" customFormat="1"/>
-    <row r="370" s="7" customFormat="1"/>
-    <row r="371" s="7" customFormat="1"/>
-    <row r="372" s="7" customFormat="1"/>
-    <row r="373" s="7" customFormat="1"/>
-    <row r="374" s="7" customFormat="1"/>
-    <row r="375" s="7" customFormat="1"/>
-    <row r="376" s="7" customFormat="1"/>
-    <row r="377" s="7" customFormat="1"/>
-    <row r="378" s="7" customFormat="1"/>
-    <row r="379" s="7" customFormat="1"/>
-    <row r="380" s="7" customFormat="1"/>
-    <row r="381" s="7" customFormat="1"/>
-    <row r="382" s="7" customFormat="1"/>
-    <row r="383" s="7" customFormat="1"/>
-    <row r="384" s="7" customFormat="1"/>
-    <row r="385" s="7" customFormat="1"/>
-    <row r="386" s="7" customFormat="1"/>
-    <row r="387" s="7" customFormat="1"/>
-    <row r="388" s="7" customFormat="1"/>
-    <row r="389" s="7" customFormat="1"/>
-    <row r="390" s="7" customFormat="1"/>
-    <row r="391" s="7" customFormat="1"/>
-    <row r="392" s="7" customFormat="1"/>
-    <row r="393" s="7" customFormat="1"/>
-    <row r="394" s="7" customFormat="1"/>
-    <row r="395" s="7" customFormat="1"/>
-    <row r="396" s="7" customFormat="1"/>
-    <row r="397" s="7" customFormat="1"/>
-    <row r="398" s="7" customFormat="1"/>
-    <row r="399" s="7" customFormat="1"/>
-    <row r="400" s="7" customFormat="1"/>
-    <row r="401" s="7" customFormat="1"/>
-    <row r="402" s="7" customFormat="1"/>
-    <row r="403" s="7" customFormat="1"/>
-    <row r="404" s="7" customFormat="1"/>
-    <row r="405" s="7" customFormat="1"/>
-    <row r="406" s="7" customFormat="1"/>
-    <row r="407" s="7" customFormat="1"/>
-    <row r="408" s="7" customFormat="1"/>
-    <row r="409" s="7" customFormat="1"/>
-    <row r="410" s="7" customFormat="1"/>
-    <row r="411" s="7" customFormat="1"/>
-    <row r="412" s="7" customFormat="1"/>
-    <row r="413" s="7" customFormat="1"/>
-    <row r="414" s="7" customFormat="1"/>
-    <row r="415" s="7" customFormat="1"/>
-    <row r="416" s="7" customFormat="1"/>
-    <row r="417" s="7" customFormat="1"/>
-    <row r="418" s="7" customFormat="1"/>
-    <row r="419" s="7" customFormat="1"/>
-    <row r="420" s="7" customFormat="1"/>
-    <row r="421" s="7" customFormat="1"/>
-    <row r="422" s="7" customFormat="1"/>
-    <row r="423" s="7" customFormat="1"/>
-    <row r="424" s="7" customFormat="1"/>
-    <row r="425" s="7" customFormat="1"/>
-    <row r="426" s="7" customFormat="1"/>
-    <row r="427" s="7" customFormat="1"/>
-    <row r="428" s="7" customFormat="1"/>
-    <row r="429" s="7" customFormat="1"/>
-    <row r="430" s="7" customFormat="1"/>
-    <row r="431" s="7" customFormat="1"/>
-    <row r="432" s="7" customFormat="1"/>
-    <row r="433" s="7" customFormat="1"/>
-    <row r="434" s="7" customFormat="1"/>
-    <row r="435" s="7" customFormat="1"/>
-    <row r="436" s="7" customFormat="1"/>
-    <row r="437" s="7" customFormat="1"/>
-    <row r="438" s="7" customFormat="1"/>
-    <row r="439" s="7" customFormat="1"/>
-    <row r="440" s="7" customFormat="1"/>
-    <row r="441" s="7" customFormat="1"/>
-    <row r="442" s="7" customFormat="1"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" s="6" customFormat="1"/>
+    <row r="27" s="6" customFormat="1"/>
+    <row r="28" s="6" customFormat="1"/>
+    <row r="29" s="6" customFormat="1"/>
+    <row r="30" s="6" customFormat="1"/>
+    <row r="31" s="6" customFormat="1"/>
+    <row r="32" s="6" customFormat="1"/>
+    <row r="33" s="6" customFormat="1"/>
+    <row r="34" s="6" customFormat="1"/>
+    <row r="35" s="6" customFormat="1"/>
+    <row r="36" s="6" customFormat="1"/>
+    <row r="37" s="6" customFormat="1"/>
+    <row r="38" s="6" customFormat="1"/>
+    <row r="39" s="6" customFormat="1"/>
+    <row r="40" s="6" customFormat="1"/>
+    <row r="41" s="6" customFormat="1"/>
+    <row r="42" s="6" customFormat="1"/>
+    <row r="43" s="6" customFormat="1"/>
+    <row r="44" s="6" customFormat="1"/>
+    <row r="45" s="6" customFormat="1"/>
+    <row r="46" s="6" customFormat="1"/>
+    <row r="47" s="6" customFormat="1"/>
+    <row r="48" s="6" customFormat="1"/>
+    <row r="49" s="6" customFormat="1"/>
+    <row r="50" s="6" customFormat="1"/>
+    <row r="51" s="6" customFormat="1" ht="13.5" customHeight="1"/>
+    <row r="52" s="6" customFormat="1"/>
+    <row r="53" s="6" customFormat="1"/>
+    <row r="54" s="6" customFormat="1"/>
+    <row r="55" s="6" customFormat="1"/>
+    <row r="56" s="6" customFormat="1"/>
+    <row r="57" s="6" customFormat="1"/>
+    <row r="58" s="6" customFormat="1"/>
+    <row r="59" s="6" customFormat="1"/>
+    <row r="60" s="6" customFormat="1"/>
+    <row r="61" s="6" customFormat="1"/>
+    <row r="62" s="6" customFormat="1"/>
+    <row r="63" s="6" customFormat="1"/>
+    <row r="64" s="6" customFormat="1"/>
+    <row r="65" s="6" customFormat="1"/>
+    <row r="66" s="6" customFormat="1"/>
+    <row r="67" s="6" customFormat="1"/>
+    <row r="68" s="6" customFormat="1"/>
+    <row r="69" s="6" customFormat="1"/>
+    <row r="70" s="6" customFormat="1"/>
+    <row r="71" s="6" customFormat="1"/>
+    <row r="72" s="6" customFormat="1"/>
+    <row r="73" s="6" customFormat="1"/>
+    <row r="74" s="6" customFormat="1"/>
+    <row r="75" s="6" customFormat="1"/>
+    <row r="76" s="6" customFormat="1"/>
+    <row r="77" s="6" customFormat="1"/>
+    <row r="78" s="6" customFormat="1"/>
+    <row r="79" s="6" customFormat="1"/>
+    <row r="80" s="6" customFormat="1"/>
+    <row r="81" s="6" customFormat="1"/>
+    <row r="82" s="6" customFormat="1"/>
+    <row r="83" s="6" customFormat="1"/>
+    <row r="84" s="6" customFormat="1"/>
+    <row r="85" s="6" customFormat="1"/>
+    <row r="86" s="6" customFormat="1"/>
+    <row r="87" s="6" customFormat="1"/>
+    <row r="88" s="6" customFormat="1"/>
+    <row r="89" s="6" customFormat="1"/>
+    <row r="90" s="6" customFormat="1"/>
+    <row r="91" s="6" customFormat="1"/>
+    <row r="92" s="6" customFormat="1"/>
+    <row r="93" s="6" customFormat="1"/>
+    <row r="94" s="6" customFormat="1"/>
+    <row r="95" s="6" customFormat="1"/>
+    <row r="96" s="6" customFormat="1"/>
+    <row r="97" s="6" customFormat="1"/>
+    <row r="98" s="6" customFormat="1"/>
+    <row r="99" s="6" customFormat="1"/>
+    <row r="100" s="6" customFormat="1"/>
+    <row r="101" s="6" customFormat="1"/>
+    <row r="102" s="6" customFormat="1"/>
+    <row r="103" s="6" customFormat="1"/>
+    <row r="104" s="6" customFormat="1"/>
+    <row r="105" s="6" customFormat="1"/>
+    <row r="106" s="6" customFormat="1"/>
+    <row r="107" s="6" customFormat="1"/>
+    <row r="108" s="6" customFormat="1"/>
+    <row r="109" s="6" customFormat="1"/>
+    <row r="110" s="6" customFormat="1"/>
+    <row r="111" s="6" customFormat="1"/>
+    <row r="112" s="6" customFormat="1"/>
+    <row r="113" s="6" customFormat="1"/>
+    <row r="114" s="6" customFormat="1"/>
+    <row r="115" s="6" customFormat="1"/>
+    <row r="116" s="6" customFormat="1"/>
+    <row r="117" s="6" customFormat="1"/>
+    <row r="118" s="6" customFormat="1"/>
+    <row r="119" s="6" customFormat="1"/>
+    <row r="120" s="6" customFormat="1"/>
+    <row r="121" s="6" customFormat="1"/>
+    <row r="122" s="6" customFormat="1"/>
+    <row r="123" s="6" customFormat="1"/>
+    <row r="124" s="6" customFormat="1"/>
+    <row r="125" s="6" customFormat="1"/>
+    <row r="126" s="6" customFormat="1"/>
+    <row r="127" s="6" customFormat="1"/>
+    <row r="128" s="6" customFormat="1"/>
+    <row r="129" s="6" customFormat="1"/>
+    <row r="130" s="6" customFormat="1"/>
+    <row r="131" s="6" customFormat="1"/>
+    <row r="132" s="6" customFormat="1"/>
+    <row r="133" s="6" customFormat="1"/>
+    <row r="134" s="6" customFormat="1"/>
+    <row r="135" s="6" customFormat="1"/>
+    <row r="136" s="6" customFormat="1"/>
+    <row r="137" s="6" customFormat="1"/>
+    <row r="138" s="6" customFormat="1"/>
+    <row r="139" s="6" customFormat="1"/>
+    <row r="140" s="6" customFormat="1"/>
+    <row r="141" s="6" customFormat="1"/>
+    <row r="142" s="6" customFormat="1"/>
+    <row r="143" s="6" customFormat="1"/>
+    <row r="144" s="6" customFormat="1"/>
+    <row r="145" s="6" customFormat="1"/>
+    <row r="146" s="6" customFormat="1"/>
+    <row r="147" s="6" customFormat="1"/>
+    <row r="148" s="6" customFormat="1"/>
+    <row r="149" s="6" customFormat="1"/>
+    <row r="150" s="6" customFormat="1"/>
+    <row r="151" s="6" customFormat="1"/>
+    <row r="152" s="6" customFormat="1"/>
+    <row r="153" s="6" customFormat="1"/>
+    <row r="154" s="6" customFormat="1"/>
+    <row r="155" s="6" customFormat="1"/>
+    <row r="156" s="6" customFormat="1"/>
+    <row r="157" s="6" customFormat="1"/>
+    <row r="158" s="6" customFormat="1"/>
+    <row r="159" s="6" customFormat="1"/>
+    <row r="160" s="6" customFormat="1"/>
+    <row r="161" s="6" customFormat="1"/>
+    <row r="162" s="6" customFormat="1"/>
+    <row r="163" s="6" customFormat="1"/>
+    <row r="164" s="6" customFormat="1"/>
+    <row r="165" s="6" customFormat="1"/>
+    <row r="166" s="6" customFormat="1"/>
+    <row r="167" s="6" customFormat="1"/>
+    <row r="168" s="6" customFormat="1"/>
+    <row r="169" s="6" customFormat="1"/>
+    <row r="170" s="6" customFormat="1"/>
+    <row r="171" s="6" customFormat="1"/>
+    <row r="172" s="6" customFormat="1"/>
+    <row r="173" s="6" customFormat="1"/>
+    <row r="174" s="6" customFormat="1"/>
+    <row r="175" s="6" customFormat="1"/>
+    <row r="176" s="6" customFormat="1"/>
+    <row r="177" s="6" customFormat="1"/>
+    <row r="178" s="6" customFormat="1"/>
+    <row r="179" s="6" customFormat="1"/>
+    <row r="180" s="6" customFormat="1"/>
+    <row r="181" s="6" customFormat="1"/>
+    <row r="182" s="6" customFormat="1"/>
+    <row r="183" s="6" customFormat="1"/>
+    <row r="184" s="6" customFormat="1"/>
+    <row r="185" s="6" customFormat="1"/>
+    <row r="186" s="6" customFormat="1"/>
+    <row r="187" s="6" customFormat="1"/>
+    <row r="188" s="6" customFormat="1"/>
+    <row r="189" s="6" customFormat="1"/>
+    <row r="190" s="6" customFormat="1"/>
+    <row r="191" s="6" customFormat="1"/>
+    <row r="192" s="6" customFormat="1"/>
+    <row r="193" s="6" customFormat="1"/>
+    <row r="194" s="6" customFormat="1"/>
+    <row r="195" s="6" customFormat="1"/>
+    <row r="196" s="6" customFormat="1"/>
+    <row r="197" s="6" customFormat="1"/>
+    <row r="198" s="6" customFormat="1"/>
+    <row r="199" s="6" customFormat="1"/>
+    <row r="200" s="6" customFormat="1"/>
+    <row r="201" s="6" customFormat="1"/>
+    <row r="202" s="6" customFormat="1"/>
+    <row r="203" s="6" customFormat="1"/>
+    <row r="204" s="6" customFormat="1"/>
+    <row r="205" s="6" customFormat="1"/>
+    <row r="206" s="6" customFormat="1"/>
+    <row r="207" s="6" customFormat="1"/>
+    <row r="208" s="6" customFormat="1"/>
+    <row r="209" s="6" customFormat="1"/>
+    <row r="210" s="6" customFormat="1"/>
+    <row r="211" s="6" customFormat="1"/>
+    <row r="212" s="6" customFormat="1"/>
+    <row r="213" s="6" customFormat="1"/>
+    <row r="214" s="6" customFormat="1"/>
+    <row r="215" s="6" customFormat="1"/>
+    <row r="216" s="6" customFormat="1"/>
+    <row r="217" s="6" customFormat="1"/>
+    <row r="218" s="6" customFormat="1"/>
+    <row r="219" s="6" customFormat="1"/>
+    <row r="220" s="6" customFormat="1"/>
+    <row r="221" s="6" customFormat="1"/>
+    <row r="222" s="6" customFormat="1"/>
+    <row r="223" s="6" customFormat="1"/>
+    <row r="224" s="6" customFormat="1"/>
+    <row r="225" s="6" customFormat="1"/>
+    <row r="226" s="6" customFormat="1"/>
+    <row r="227" s="6" customFormat="1"/>
+    <row r="228" s="6" customFormat="1"/>
+    <row r="229" s="6" customFormat="1"/>
+    <row r="230" s="6" customFormat="1"/>
+    <row r="231" s="6" customFormat="1"/>
+    <row r="232" s="6" customFormat="1"/>
+    <row r="233" s="6" customFormat="1"/>
+    <row r="234" s="6" customFormat="1"/>
+    <row r="235" s="6" customFormat="1"/>
+    <row r="236" s="6" customFormat="1"/>
+    <row r="237" s="6" customFormat="1"/>
+    <row r="238" s="6" customFormat="1"/>
+    <row r="239" s="6" customFormat="1"/>
+    <row r="240" s="6" customFormat="1"/>
+    <row r="241" s="6" customFormat="1"/>
+    <row r="242" s="6" customFormat="1"/>
+    <row r="243" s="6" customFormat="1"/>
+    <row r="244" s="6" customFormat="1"/>
+    <row r="245" s="6" customFormat="1"/>
+    <row r="246" s="6" customFormat="1"/>
+    <row r="247" s="6" customFormat="1"/>
+    <row r="248" s="6" customFormat="1"/>
+    <row r="249" s="6" customFormat="1"/>
+    <row r="250" s="6" customFormat="1"/>
+    <row r="251" s="6" customFormat="1"/>
+    <row r="252" s="6" customFormat="1"/>
+    <row r="253" s="6" customFormat="1"/>
+    <row r="254" s="6" customFormat="1"/>
+    <row r="255" s="6" customFormat="1"/>
+    <row r="256" s="6" customFormat="1"/>
+    <row r="257" s="6" customFormat="1"/>
+    <row r="258" s="6" customFormat="1"/>
+    <row r="259" s="6" customFormat="1"/>
+    <row r="260" s="6" customFormat="1"/>
+    <row r="261" s="6" customFormat="1"/>
+    <row r="262" s="6" customFormat="1"/>
+    <row r="263" s="6" customFormat="1"/>
+    <row r="264" s="6" customFormat="1"/>
+    <row r="265" s="6" customFormat="1"/>
+    <row r="266" s="6" customFormat="1"/>
+    <row r="267" s="6" customFormat="1"/>
+    <row r="268" s="6" customFormat="1"/>
+    <row r="269" s="6" customFormat="1"/>
+    <row r="270" s="6" customFormat="1"/>
+    <row r="271" s="6" customFormat="1"/>
+    <row r="272" s="6" customFormat="1"/>
+    <row r="273" s="6" customFormat="1"/>
+    <row r="274" s="6" customFormat="1"/>
+    <row r="275" s="6" customFormat="1"/>
+    <row r="276" s="6" customFormat="1"/>
+    <row r="277" s="6" customFormat="1"/>
+    <row r="278" s="6" customFormat="1"/>
+    <row r="279" s="6" customFormat="1"/>
+    <row r="280" s="6" customFormat="1"/>
+    <row r="281" s="6" customFormat="1"/>
+    <row r="282" s="6" customFormat="1"/>
+    <row r="283" s="6" customFormat="1"/>
+    <row r="284" s="6" customFormat="1"/>
+    <row r="285" s="6" customFormat="1"/>
+    <row r="286" s="6" customFormat="1"/>
+    <row r="287" s="6" customFormat="1"/>
+    <row r="288" s="6" customFormat="1"/>
+    <row r="289" s="6" customFormat="1"/>
+    <row r="290" s="6" customFormat="1"/>
+    <row r="291" s="6" customFormat="1"/>
+    <row r="292" s="6" customFormat="1"/>
+    <row r="293" s="6" customFormat="1"/>
+    <row r="294" s="6" customFormat="1"/>
+    <row r="295" s="6" customFormat="1"/>
+    <row r="296" s="6" customFormat="1"/>
+    <row r="297" s="6" customFormat="1"/>
+    <row r="298" s="6" customFormat="1"/>
+    <row r="299" s="6" customFormat="1"/>
+    <row r="300" s="6" customFormat="1"/>
+    <row r="301" s="6" customFormat="1"/>
+    <row r="302" s="6" customFormat="1"/>
+    <row r="303" s="6" customFormat="1"/>
+    <row r="304" s="6" customFormat="1"/>
+    <row r="305" s="6" customFormat="1"/>
+    <row r="306" s="6" customFormat="1"/>
+    <row r="307" s="6" customFormat="1"/>
+    <row r="308" s="6" customFormat="1"/>
+    <row r="309" s="6" customFormat="1"/>
+    <row r="310" s="6" customFormat="1"/>
+    <row r="311" s="6" customFormat="1"/>
+    <row r="312" s="6" customFormat="1"/>
+    <row r="313" s="6" customFormat="1"/>
+    <row r="314" s="6" customFormat="1"/>
+    <row r="315" s="6" customFormat="1"/>
+    <row r="316" s="6" customFormat="1"/>
+    <row r="317" s="6" customFormat="1"/>
+    <row r="318" s="6" customFormat="1"/>
+    <row r="319" s="6" customFormat="1"/>
+    <row r="320" s="6" customFormat="1"/>
+    <row r="321" s="6" customFormat="1"/>
+    <row r="322" s="6" customFormat="1"/>
+    <row r="323" s="6" customFormat="1"/>
+    <row r="324" s="6" customFormat="1"/>
+    <row r="325" s="6" customFormat="1"/>
+    <row r="326" s="6" customFormat="1"/>
+    <row r="327" s="6" customFormat="1"/>
+    <row r="328" s="6" customFormat="1"/>
+    <row r="329" s="6" customFormat="1"/>
+    <row r="330" s="6" customFormat="1"/>
+    <row r="331" s="6" customFormat="1"/>
+    <row r="332" s="6" customFormat="1"/>
+    <row r="333" s="6" customFormat="1"/>
+    <row r="334" s="6" customFormat="1"/>
+    <row r="335" s="6" customFormat="1"/>
+    <row r="336" s="6" customFormat="1"/>
+    <row r="337" s="6" customFormat="1"/>
+    <row r="338" s="6" customFormat="1"/>
+    <row r="339" s="6" customFormat="1"/>
+    <row r="340" s="6" customFormat="1"/>
+    <row r="341" s="6" customFormat="1"/>
+    <row r="342" s="6" customFormat="1"/>
+    <row r="343" s="6" customFormat="1"/>
+    <row r="344" s="6" customFormat="1"/>
+    <row r="345" s="6" customFormat="1"/>
+    <row r="346" s="6" customFormat="1"/>
+    <row r="347" s="6" customFormat="1"/>
+    <row r="348" s="6" customFormat="1"/>
+    <row r="349" s="6" customFormat="1"/>
+    <row r="350" s="6" customFormat="1"/>
+    <row r="351" s="6" customFormat="1"/>
+    <row r="352" s="6" customFormat="1"/>
+    <row r="353" s="6" customFormat="1"/>
+    <row r="354" s="6" customFormat="1"/>
+    <row r="355" s="6" customFormat="1"/>
+    <row r="356" s="6" customFormat="1"/>
+    <row r="357" s="6" customFormat="1"/>
+    <row r="358" s="6" customFormat="1"/>
+    <row r="359" s="6" customFormat="1"/>
+    <row r="360" s="6" customFormat="1"/>
+    <row r="361" s="6" customFormat="1"/>
+    <row r="362" s="6" customFormat="1"/>
+    <row r="363" s="6" customFormat="1"/>
+    <row r="364" s="6" customFormat="1"/>
+    <row r="365" s="6" customFormat="1"/>
+    <row r="366" s="6" customFormat="1"/>
+    <row r="367" s="6" customFormat="1"/>
+    <row r="368" s="6" customFormat="1"/>
+    <row r="369" s="6" customFormat="1"/>
+    <row r="370" s="6" customFormat="1"/>
+    <row r="371" s="6" customFormat="1"/>
+    <row r="372" s="6" customFormat="1"/>
+    <row r="373" s="6" customFormat="1"/>
+    <row r="374" s="6" customFormat="1"/>
+    <row r="375" s="6" customFormat="1"/>
+    <row r="376" s="6" customFormat="1"/>
+    <row r="377" s="6" customFormat="1"/>
+    <row r="378" s="6" customFormat="1"/>
+    <row r="379" s="6" customFormat="1"/>
+    <row r="380" s="6" customFormat="1"/>
+    <row r="381" s="6" customFormat="1"/>
+    <row r="382" s="6" customFormat="1"/>
+    <row r="383" s="6" customFormat="1"/>
+    <row r="384" s="6" customFormat="1"/>
+    <row r="385" s="6" customFormat="1"/>
+    <row r="386" s="6" customFormat="1"/>
+    <row r="387" s="6" customFormat="1"/>
+    <row r="388" s="6" customFormat="1"/>
+    <row r="389" s="6" customFormat="1"/>
+    <row r="390" s="6" customFormat="1"/>
+    <row r="391" s="6" customFormat="1"/>
+    <row r="392" s="6" customFormat="1"/>
+    <row r="393" s="6" customFormat="1"/>
+    <row r="394" s="6" customFormat="1"/>
+    <row r="395" s="6" customFormat="1"/>
+    <row r="396" s="6" customFormat="1"/>
+    <row r="397" s="6" customFormat="1"/>
+    <row r="398" s="6" customFormat="1"/>
+    <row r="399" s="6" customFormat="1"/>
+    <row r="400" s="6" customFormat="1"/>
+    <row r="401" s="6" customFormat="1"/>
+    <row r="402" s="6" customFormat="1"/>
+    <row r="403" s="6" customFormat="1"/>
+    <row r="404" s="6" customFormat="1"/>
+    <row r="405" s="6" customFormat="1"/>
+    <row r="406" s="6" customFormat="1"/>
+    <row r="407" s="6" customFormat="1"/>
+    <row r="408" s="6" customFormat="1"/>
+    <row r="409" s="6" customFormat="1"/>
+    <row r="410" s="6" customFormat="1"/>
+    <row r="411" s="6" customFormat="1"/>
+    <row r="412" s="6" customFormat="1"/>
+    <row r="413" s="6" customFormat="1"/>
+    <row r="414" s="6" customFormat="1"/>
+    <row r="415" s="6" customFormat="1"/>
+    <row r="416" s="6" customFormat="1"/>
+    <row r="417" s="6" customFormat="1"/>
+    <row r="418" s="6" customFormat="1"/>
+    <row r="419" s="6" customFormat="1"/>
+    <row r="420" s="6" customFormat="1"/>
+    <row r="421" s="6" customFormat="1"/>
+    <row r="422" s="6" customFormat="1"/>
+    <row r="423" s="6" customFormat="1"/>
+    <row r="424" s="6" customFormat="1"/>
+    <row r="425" s="6" customFormat="1"/>
+    <row r="426" s="6" customFormat="1"/>
+    <row r="427" s="6" customFormat="1"/>
+    <row r="428" s="6" customFormat="1"/>
+    <row r="429" s="6" customFormat="1"/>
+    <row r="430" s="6" customFormat="1"/>
+    <row r="431" s="6" customFormat="1"/>
+    <row r="432" s="6" customFormat="1"/>
+    <row r="433" s="6" customFormat="1"/>
+    <row r="434" s="6" customFormat="1"/>
+    <row r="435" s="6" customFormat="1"/>
+    <row r="436" s="6" customFormat="1"/>
+    <row r="437" s="6" customFormat="1"/>
+    <row r="438" s="6" customFormat="1"/>
+    <row r="439" s="6" customFormat="1"/>
+    <row r="440" s="6" customFormat="1"/>
+    <row r="441" s="6" customFormat="1"/>
+    <row r="442" s="6" customFormat="1" spans="3:8">
+      <c r="C442" s="11"/>
+      <c r="D442" s="7"/>
+      <c r="E442" s="7"/>
+      <c r="F442" s="7"/>
+      <c r="G442" s="7"/>
+      <c r="H442" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2057,13 +2043,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="5" max="5" width="10.25" customWidth="1"/>
     <col min="6" max="6" width="15.75" customWidth="1"/>
@@ -2071,182 +2057,144 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:8">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" ht="14.25" spans="1:8">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" ht="14.25" spans="1:8">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:8">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="9" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:8">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:8">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="10">
+    <row r="6" s="10" customFormat="1" ht="14.25" spans="3:8">
+      <c r="C6" s="9">
         <v>20201</v>
       </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
         <v>202</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="9">
+        <v>20304</v>
+      </c>
+    </row>
+    <row r="7" s="6" customFormat="1" ht="14.25" spans="3:8">
+      <c r="C7" s="9">
+        <v>20202</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>202</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" s="6" customFormat="1" ht="14.25" spans="3:8">
-      <c r="C7" s="10">
-        <v>20202</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" ht="14.25" spans="3:7">
+      <c r="C8" s="9">
+        <v>20203</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
         <v>202</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" s="7" customFormat="1" ht="14.25" spans="3:8">
-      <c r="C8" s="10">
-        <v>20203</v>
-      </c>
-      <c r="D8" s="10">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10">
-        <v>202</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" ht="14.25" spans="3:8">
-      <c r="C9" s="10">
-        <v>20204</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10">
-        <v>202</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="10">
-        <v>20304</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="3:7">
-      <c r="C10" s="10">
-        <v>20205</v>
-      </c>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10">
-        <v>202</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2370,10 +2318,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H6" s="5">
         <v>30300</v>
@@ -2392,10 +2340,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H7" s="5">
         <v>30301</v>
@@ -2414,10 +2362,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H8" s="5">
         <v>30302</v>
@@ -2436,10 +2384,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="H9" s="5">
         <v>30303</v>
@@ -2458,10 +2406,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H10" s="5">
         <v>30304</v>

--- a/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -819,6 +819,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -828,9 +831,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1192,37 +1192,37 @@
   <dimension ref="A3:O442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="6" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="7" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="11" customWidth="1"/>
-    <col min="4" max="5" width="12.625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="7" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="6"/>
+    <col min="4" max="5" width="12.625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="8" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:8">
       <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1230,19 +1230,19 @@
       <c r="C4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1250,125 +1250,125 @@
       <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" s="10" customFormat="1" spans="1:15">
-      <c r="A7" s="10" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" s="6" customFormat="1" spans="1:15">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="13">
         <v>101</v>
       </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="9">
-        <v>20325</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" s="10" customFormat="1" spans="3:15">
+      <c r="H7" s="10">
+        <v>20725</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" s="6" customFormat="1" spans="3:15">
       <c r="C8" s="13">
         <v>102</v>
       </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="7">
-        <v>20326</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
+      <c r="H8" s="8">
+        <v>20726</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="3:8">
       <c r="C9" s="13">
         <v>103</v>
       </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="9">
-        <v>20327</v>
+      <c r="H9" s="10">
+        <v>20727</v>
       </c>
     </row>
     <row r="10" spans="3:7">
       <c r="C10" s="13">
         <v>104</v>
       </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1376,16 +1376,16 @@
       <c r="C11" s="13">
         <v>105</v>
       </c>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1393,16 +1393,16 @@
       <c r="C12" s="13">
         <v>106</v>
       </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1410,16 +1410,16 @@
       <c r="C13" s="13">
         <v>107</v>
       </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1427,16 +1427,16 @@
       <c r="C14" s="13">
         <v>108</v>
       </c>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-      <c r="E14" s="9">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1444,16 +1444,16 @@
       <c r="C15" s="13">
         <v>109</v>
       </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1461,16 +1461,16 @@
       <c r="C16" s="13">
         <v>110</v>
       </c>
-      <c r="D16" s="9">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1478,16 +1478,16 @@
       <c r="C17" s="13">
         <v>111</v>
       </c>
-      <c r="D17" s="9">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1495,16 +1495,16 @@
       <c r="C18" s="13">
         <v>112</v>
       </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1512,16 +1512,16 @@
       <c r="C19" s="13">
         <v>113</v>
       </c>
-      <c r="D19" s="9">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1529,16 +1529,16 @@
       <c r="C20" s="13">
         <v>114</v>
       </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1546,16 +1546,16 @@
       <c r="C21" s="13">
         <v>115</v>
       </c>
-      <c r="D21" s="9">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="D21" s="10">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1563,16 +1563,16 @@
       <c r="C22" s="13">
         <v>116</v>
       </c>
-      <c r="D22" s="7">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9">
-        <v>1</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1580,458 +1580,458 @@
       <c r="C23" s="13">
         <v>117</v>
       </c>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" s="6" customFormat="1"/>
-    <row r="27" s="6" customFormat="1"/>
-    <row r="28" s="6" customFormat="1"/>
-    <row r="29" s="6" customFormat="1"/>
-    <row r="30" s="6" customFormat="1"/>
-    <row r="31" s="6" customFormat="1"/>
-    <row r="32" s="6" customFormat="1"/>
-    <row r="33" s="6" customFormat="1"/>
-    <row r="34" s="6" customFormat="1"/>
-    <row r="35" s="6" customFormat="1"/>
-    <row r="36" s="6" customFormat="1"/>
-    <row r="37" s="6" customFormat="1"/>
-    <row r="38" s="6" customFormat="1"/>
-    <row r="39" s="6" customFormat="1"/>
-    <row r="40" s="6" customFormat="1"/>
-    <row r="41" s="6" customFormat="1"/>
-    <row r="42" s="6" customFormat="1"/>
-    <row r="43" s="6" customFormat="1"/>
-    <row r="44" s="6" customFormat="1"/>
-    <row r="45" s="6" customFormat="1"/>
-    <row r="46" s="6" customFormat="1"/>
-    <row r="47" s="6" customFormat="1"/>
-    <row r="48" s="6" customFormat="1"/>
-    <row r="49" s="6" customFormat="1"/>
-    <row r="50" s="6" customFormat="1"/>
-    <row r="51" s="6" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="52" s="6" customFormat="1"/>
-    <row r="53" s="6" customFormat="1"/>
-    <row r="54" s="6" customFormat="1"/>
-    <row r="55" s="6" customFormat="1"/>
-    <row r="56" s="6" customFormat="1"/>
-    <row r="57" s="6" customFormat="1"/>
-    <row r="58" s="6" customFormat="1"/>
-    <row r="59" s="6" customFormat="1"/>
-    <row r="60" s="6" customFormat="1"/>
-    <row r="61" s="6" customFormat="1"/>
-    <row r="62" s="6" customFormat="1"/>
-    <row r="63" s="6" customFormat="1"/>
-    <row r="64" s="6" customFormat="1"/>
-    <row r="65" s="6" customFormat="1"/>
-    <row r="66" s="6" customFormat="1"/>
-    <row r="67" s="6" customFormat="1"/>
-    <row r="68" s="6" customFormat="1"/>
-    <row r="69" s="6" customFormat="1"/>
-    <row r="70" s="6" customFormat="1"/>
-    <row r="71" s="6" customFormat="1"/>
-    <row r="72" s="6" customFormat="1"/>
-    <row r="73" s="6" customFormat="1"/>
-    <row r="74" s="6" customFormat="1"/>
-    <row r="75" s="6" customFormat="1"/>
-    <row r="76" s="6" customFormat="1"/>
-    <row r="77" s="6" customFormat="1"/>
-    <row r="78" s="6" customFormat="1"/>
-    <row r="79" s="6" customFormat="1"/>
-    <row r="80" s="6" customFormat="1"/>
-    <row r="81" s="6" customFormat="1"/>
-    <row r="82" s="6" customFormat="1"/>
-    <row r="83" s="6" customFormat="1"/>
-    <row r="84" s="6" customFormat="1"/>
-    <row r="85" s="6" customFormat="1"/>
-    <row r="86" s="6" customFormat="1"/>
-    <row r="87" s="6" customFormat="1"/>
-    <row r="88" s="6" customFormat="1"/>
-    <row r="89" s="6" customFormat="1"/>
-    <row r="90" s="6" customFormat="1"/>
-    <row r="91" s="6" customFormat="1"/>
-    <row r="92" s="6" customFormat="1"/>
-    <row r="93" s="6" customFormat="1"/>
-    <row r="94" s="6" customFormat="1"/>
-    <row r="95" s="6" customFormat="1"/>
-    <row r="96" s="6" customFormat="1"/>
-    <row r="97" s="6" customFormat="1"/>
-    <row r="98" s="6" customFormat="1"/>
-    <row r="99" s="6" customFormat="1"/>
-    <row r="100" s="6" customFormat="1"/>
-    <row r="101" s="6" customFormat="1"/>
-    <row r="102" s="6" customFormat="1"/>
-    <row r="103" s="6" customFormat="1"/>
-    <row r="104" s="6" customFormat="1"/>
-    <row r="105" s="6" customFormat="1"/>
-    <row r="106" s="6" customFormat="1"/>
-    <row r="107" s="6" customFormat="1"/>
-    <row r="108" s="6" customFormat="1"/>
-    <row r="109" s="6" customFormat="1"/>
-    <row r="110" s="6" customFormat="1"/>
-    <row r="111" s="6" customFormat="1"/>
-    <row r="112" s="6" customFormat="1"/>
-    <row r="113" s="6" customFormat="1"/>
-    <row r="114" s="6" customFormat="1"/>
-    <row r="115" s="6" customFormat="1"/>
-    <row r="116" s="6" customFormat="1"/>
-    <row r="117" s="6" customFormat="1"/>
-    <row r="118" s="6" customFormat="1"/>
-    <row r="119" s="6" customFormat="1"/>
-    <row r="120" s="6" customFormat="1"/>
-    <row r="121" s="6" customFormat="1"/>
-    <row r="122" s="6" customFormat="1"/>
-    <row r="123" s="6" customFormat="1"/>
-    <row r="124" s="6" customFormat="1"/>
-    <row r="125" s="6" customFormat="1"/>
-    <row r="126" s="6" customFormat="1"/>
-    <row r="127" s="6" customFormat="1"/>
-    <row r="128" s="6" customFormat="1"/>
-    <row r="129" s="6" customFormat="1"/>
-    <row r="130" s="6" customFormat="1"/>
-    <row r="131" s="6" customFormat="1"/>
-    <row r="132" s="6" customFormat="1"/>
-    <row r="133" s="6" customFormat="1"/>
-    <row r="134" s="6" customFormat="1"/>
-    <row r="135" s="6" customFormat="1"/>
-    <row r="136" s="6" customFormat="1"/>
-    <row r="137" s="6" customFormat="1"/>
-    <row r="138" s="6" customFormat="1"/>
-    <row r="139" s="6" customFormat="1"/>
-    <row r="140" s="6" customFormat="1"/>
-    <row r="141" s="6" customFormat="1"/>
-    <row r="142" s="6" customFormat="1"/>
-    <row r="143" s="6" customFormat="1"/>
-    <row r="144" s="6" customFormat="1"/>
-    <row r="145" s="6" customFormat="1"/>
-    <row r="146" s="6" customFormat="1"/>
-    <row r="147" s="6" customFormat="1"/>
-    <row r="148" s="6" customFormat="1"/>
-    <row r="149" s="6" customFormat="1"/>
-    <row r="150" s="6" customFormat="1"/>
-    <row r="151" s="6" customFormat="1"/>
-    <row r="152" s="6" customFormat="1"/>
-    <row r="153" s="6" customFormat="1"/>
-    <row r="154" s="6" customFormat="1"/>
-    <row r="155" s="6" customFormat="1"/>
-    <row r="156" s="6" customFormat="1"/>
-    <row r="157" s="6" customFormat="1"/>
-    <row r="158" s="6" customFormat="1"/>
-    <row r="159" s="6" customFormat="1"/>
-    <row r="160" s="6" customFormat="1"/>
-    <row r="161" s="6" customFormat="1"/>
-    <row r="162" s="6" customFormat="1"/>
-    <row r="163" s="6" customFormat="1"/>
-    <row r="164" s="6" customFormat="1"/>
-    <row r="165" s="6" customFormat="1"/>
-    <row r="166" s="6" customFormat="1"/>
-    <row r="167" s="6" customFormat="1"/>
-    <row r="168" s="6" customFormat="1"/>
-    <row r="169" s="6" customFormat="1"/>
-    <row r="170" s="6" customFormat="1"/>
-    <row r="171" s="6" customFormat="1"/>
-    <row r="172" s="6" customFormat="1"/>
-    <row r="173" s="6" customFormat="1"/>
-    <row r="174" s="6" customFormat="1"/>
-    <row r="175" s="6" customFormat="1"/>
-    <row r="176" s="6" customFormat="1"/>
-    <row r="177" s="6" customFormat="1"/>
-    <row r="178" s="6" customFormat="1"/>
-    <row r="179" s="6" customFormat="1"/>
-    <row r="180" s="6" customFormat="1"/>
-    <row r="181" s="6" customFormat="1"/>
-    <row r="182" s="6" customFormat="1"/>
-    <row r="183" s="6" customFormat="1"/>
-    <row r="184" s="6" customFormat="1"/>
-    <row r="185" s="6" customFormat="1"/>
-    <row r="186" s="6" customFormat="1"/>
-    <row r="187" s="6" customFormat="1"/>
-    <row r="188" s="6" customFormat="1"/>
-    <row r="189" s="6" customFormat="1"/>
-    <row r="190" s="6" customFormat="1"/>
-    <row r="191" s="6" customFormat="1"/>
-    <row r="192" s="6" customFormat="1"/>
-    <row r="193" s="6" customFormat="1"/>
-    <row r="194" s="6" customFormat="1"/>
-    <row r="195" s="6" customFormat="1"/>
-    <row r="196" s="6" customFormat="1"/>
-    <row r="197" s="6" customFormat="1"/>
-    <row r="198" s="6" customFormat="1"/>
-    <row r="199" s="6" customFormat="1"/>
-    <row r="200" s="6" customFormat="1"/>
-    <row r="201" s="6" customFormat="1"/>
-    <row r="202" s="6" customFormat="1"/>
-    <row r="203" s="6" customFormat="1"/>
-    <row r="204" s="6" customFormat="1"/>
-    <row r="205" s="6" customFormat="1"/>
-    <row r="206" s="6" customFormat="1"/>
-    <row r="207" s="6" customFormat="1"/>
-    <row r="208" s="6" customFormat="1"/>
-    <row r="209" s="6" customFormat="1"/>
-    <row r="210" s="6" customFormat="1"/>
-    <row r="211" s="6" customFormat="1"/>
-    <row r="212" s="6" customFormat="1"/>
-    <row r="213" s="6" customFormat="1"/>
-    <row r="214" s="6" customFormat="1"/>
-    <row r="215" s="6" customFormat="1"/>
-    <row r="216" s="6" customFormat="1"/>
-    <row r="217" s="6" customFormat="1"/>
-    <row r="218" s="6" customFormat="1"/>
-    <row r="219" s="6" customFormat="1"/>
-    <row r="220" s="6" customFormat="1"/>
-    <row r="221" s="6" customFormat="1"/>
-    <row r="222" s="6" customFormat="1"/>
-    <row r="223" s="6" customFormat="1"/>
-    <row r="224" s="6" customFormat="1"/>
-    <row r="225" s="6" customFormat="1"/>
-    <row r="226" s="6" customFormat="1"/>
-    <row r="227" s="6" customFormat="1"/>
-    <row r="228" s="6" customFormat="1"/>
-    <row r="229" s="6" customFormat="1"/>
-    <row r="230" s="6" customFormat="1"/>
-    <row r="231" s="6" customFormat="1"/>
-    <row r="232" s="6" customFormat="1"/>
-    <row r="233" s="6" customFormat="1"/>
-    <row r="234" s="6" customFormat="1"/>
-    <row r="235" s="6" customFormat="1"/>
-    <row r="236" s="6" customFormat="1"/>
-    <row r="237" s="6" customFormat="1"/>
-    <row r="238" s="6" customFormat="1"/>
-    <row r="239" s="6" customFormat="1"/>
-    <row r="240" s="6" customFormat="1"/>
-    <row r="241" s="6" customFormat="1"/>
-    <row r="242" s="6" customFormat="1"/>
-    <row r="243" s="6" customFormat="1"/>
-    <row r="244" s="6" customFormat="1"/>
-    <row r="245" s="6" customFormat="1"/>
-    <row r="246" s="6" customFormat="1"/>
-    <row r="247" s="6" customFormat="1"/>
-    <row r="248" s="6" customFormat="1"/>
-    <row r="249" s="6" customFormat="1"/>
-    <row r="250" s="6" customFormat="1"/>
-    <row r="251" s="6" customFormat="1"/>
-    <row r="252" s="6" customFormat="1"/>
-    <row r="253" s="6" customFormat="1"/>
-    <row r="254" s="6" customFormat="1"/>
-    <row r="255" s="6" customFormat="1"/>
-    <row r="256" s="6" customFormat="1"/>
-    <row r="257" s="6" customFormat="1"/>
-    <row r="258" s="6" customFormat="1"/>
-    <row r="259" s="6" customFormat="1"/>
-    <row r="260" s="6" customFormat="1"/>
-    <row r="261" s="6" customFormat="1"/>
-    <row r="262" s="6" customFormat="1"/>
-    <row r="263" s="6" customFormat="1"/>
-    <row r="264" s="6" customFormat="1"/>
-    <row r="265" s="6" customFormat="1"/>
-    <row r="266" s="6" customFormat="1"/>
-    <row r="267" s="6" customFormat="1"/>
-    <row r="268" s="6" customFormat="1"/>
-    <row r="269" s="6" customFormat="1"/>
-    <row r="270" s="6" customFormat="1"/>
-    <row r="271" s="6" customFormat="1"/>
-    <row r="272" s="6" customFormat="1"/>
-    <row r="273" s="6" customFormat="1"/>
-    <row r="274" s="6" customFormat="1"/>
-    <row r="275" s="6" customFormat="1"/>
-    <row r="276" s="6" customFormat="1"/>
-    <row r="277" s="6" customFormat="1"/>
-    <row r="278" s="6" customFormat="1"/>
-    <row r="279" s="6" customFormat="1"/>
-    <row r="280" s="6" customFormat="1"/>
-    <row r="281" s="6" customFormat="1"/>
-    <row r="282" s="6" customFormat="1"/>
-    <row r="283" s="6" customFormat="1"/>
-    <row r="284" s="6" customFormat="1"/>
-    <row r="285" s="6" customFormat="1"/>
-    <row r="286" s="6" customFormat="1"/>
-    <row r="287" s="6" customFormat="1"/>
-    <row r="288" s="6" customFormat="1"/>
-    <row r="289" s="6" customFormat="1"/>
-    <row r="290" s="6" customFormat="1"/>
-    <row r="291" s="6" customFormat="1"/>
-    <row r="292" s="6" customFormat="1"/>
-    <row r="293" s="6" customFormat="1"/>
-    <row r="294" s="6" customFormat="1"/>
-    <row r="295" s="6" customFormat="1"/>
-    <row r="296" s="6" customFormat="1"/>
-    <row r="297" s="6" customFormat="1"/>
-    <row r="298" s="6" customFormat="1"/>
-    <row r="299" s="6" customFormat="1"/>
-    <row r="300" s="6" customFormat="1"/>
-    <row r="301" s="6" customFormat="1"/>
-    <row r="302" s="6" customFormat="1"/>
-    <row r="303" s="6" customFormat="1"/>
-    <row r="304" s="6" customFormat="1"/>
-    <row r="305" s="6" customFormat="1"/>
-    <row r="306" s="6" customFormat="1"/>
-    <row r="307" s="6" customFormat="1"/>
-    <row r="308" s="6" customFormat="1"/>
-    <row r="309" s="6" customFormat="1"/>
-    <row r="310" s="6" customFormat="1"/>
-    <row r="311" s="6" customFormat="1"/>
-    <row r="312" s="6" customFormat="1"/>
-    <row r="313" s="6" customFormat="1"/>
-    <row r="314" s="6" customFormat="1"/>
-    <row r="315" s="6" customFormat="1"/>
-    <row r="316" s="6" customFormat="1"/>
-    <row r="317" s="6" customFormat="1"/>
-    <row r="318" s="6" customFormat="1"/>
-    <row r="319" s="6" customFormat="1"/>
-    <row r="320" s="6" customFormat="1"/>
-    <row r="321" s="6" customFormat="1"/>
-    <row r="322" s="6" customFormat="1"/>
-    <row r="323" s="6" customFormat="1"/>
-    <row r="324" s="6" customFormat="1"/>
-    <row r="325" s="6" customFormat="1"/>
-    <row r="326" s="6" customFormat="1"/>
-    <row r="327" s="6" customFormat="1"/>
-    <row r="328" s="6" customFormat="1"/>
-    <row r="329" s="6" customFormat="1"/>
-    <row r="330" s="6" customFormat="1"/>
-    <row r="331" s="6" customFormat="1"/>
-    <row r="332" s="6" customFormat="1"/>
-    <row r="333" s="6" customFormat="1"/>
-    <row r="334" s="6" customFormat="1"/>
-    <row r="335" s="6" customFormat="1"/>
-    <row r="336" s="6" customFormat="1"/>
-    <row r="337" s="6" customFormat="1"/>
-    <row r="338" s="6" customFormat="1"/>
-    <row r="339" s="6" customFormat="1"/>
-    <row r="340" s="6" customFormat="1"/>
-    <row r="341" s="6" customFormat="1"/>
-    <row r="342" s="6" customFormat="1"/>
-    <row r="343" s="6" customFormat="1"/>
-    <row r="344" s="6" customFormat="1"/>
-    <row r="345" s="6" customFormat="1"/>
-    <row r="346" s="6" customFormat="1"/>
-    <row r="347" s="6" customFormat="1"/>
-    <row r="348" s="6" customFormat="1"/>
-    <row r="349" s="6" customFormat="1"/>
-    <row r="350" s="6" customFormat="1"/>
-    <row r="351" s="6" customFormat="1"/>
-    <row r="352" s="6" customFormat="1"/>
-    <row r="353" s="6" customFormat="1"/>
-    <row r="354" s="6" customFormat="1"/>
-    <row r="355" s="6" customFormat="1"/>
-    <row r="356" s="6" customFormat="1"/>
-    <row r="357" s="6" customFormat="1"/>
-    <row r="358" s="6" customFormat="1"/>
-    <row r="359" s="6" customFormat="1"/>
-    <row r="360" s="6" customFormat="1"/>
-    <row r="361" s="6" customFormat="1"/>
-    <row r="362" s="6" customFormat="1"/>
-    <row r="363" s="6" customFormat="1"/>
-    <row r="364" s="6" customFormat="1"/>
-    <row r="365" s="6" customFormat="1"/>
-    <row r="366" s="6" customFormat="1"/>
-    <row r="367" s="6" customFormat="1"/>
-    <row r="368" s="6" customFormat="1"/>
-    <row r="369" s="6" customFormat="1"/>
-    <row r="370" s="6" customFormat="1"/>
-    <row r="371" s="6" customFormat="1"/>
-    <row r="372" s="6" customFormat="1"/>
-    <row r="373" s="6" customFormat="1"/>
-    <row r="374" s="6" customFormat="1"/>
-    <row r="375" s="6" customFormat="1"/>
-    <row r="376" s="6" customFormat="1"/>
-    <row r="377" s="6" customFormat="1"/>
-    <row r="378" s="6" customFormat="1"/>
-    <row r="379" s="6" customFormat="1"/>
-    <row r="380" s="6" customFormat="1"/>
-    <row r="381" s="6" customFormat="1"/>
-    <row r="382" s="6" customFormat="1"/>
-    <row r="383" s="6" customFormat="1"/>
-    <row r="384" s="6" customFormat="1"/>
-    <row r="385" s="6" customFormat="1"/>
-    <row r="386" s="6" customFormat="1"/>
-    <row r="387" s="6" customFormat="1"/>
-    <row r="388" s="6" customFormat="1"/>
-    <row r="389" s="6" customFormat="1"/>
-    <row r="390" s="6" customFormat="1"/>
-    <row r="391" s="6" customFormat="1"/>
-    <row r="392" s="6" customFormat="1"/>
-    <row r="393" s="6" customFormat="1"/>
-    <row r="394" s="6" customFormat="1"/>
-    <row r="395" s="6" customFormat="1"/>
-    <row r="396" s="6" customFormat="1"/>
-    <row r="397" s="6" customFormat="1"/>
-    <row r="398" s="6" customFormat="1"/>
-    <row r="399" s="6" customFormat="1"/>
-    <row r="400" s="6" customFormat="1"/>
-    <row r="401" s="6" customFormat="1"/>
-    <row r="402" s="6" customFormat="1"/>
-    <row r="403" s="6" customFormat="1"/>
-    <row r="404" s="6" customFormat="1"/>
-    <row r="405" s="6" customFormat="1"/>
-    <row r="406" s="6" customFormat="1"/>
-    <row r="407" s="6" customFormat="1"/>
-    <row r="408" s="6" customFormat="1"/>
-    <row r="409" s="6" customFormat="1"/>
-    <row r="410" s="6" customFormat="1"/>
-    <row r="411" s="6" customFormat="1"/>
-    <row r="412" s="6" customFormat="1"/>
-    <row r="413" s="6" customFormat="1"/>
-    <row r="414" s="6" customFormat="1"/>
-    <row r="415" s="6" customFormat="1"/>
-    <row r="416" s="6" customFormat="1"/>
-    <row r="417" s="6" customFormat="1"/>
-    <row r="418" s="6" customFormat="1"/>
-    <row r="419" s="6" customFormat="1"/>
-    <row r="420" s="6" customFormat="1"/>
-    <row r="421" s="6" customFormat="1"/>
-    <row r="422" s="6" customFormat="1"/>
-    <row r="423" s="6" customFormat="1"/>
-    <row r="424" s="6" customFormat="1"/>
-    <row r="425" s="6" customFormat="1"/>
-    <row r="426" s="6" customFormat="1"/>
-    <row r="427" s="6" customFormat="1"/>
-    <row r="428" s="6" customFormat="1"/>
-    <row r="429" s="6" customFormat="1"/>
-    <row r="430" s="6" customFormat="1"/>
-    <row r="431" s="6" customFormat="1"/>
-    <row r="432" s="6" customFormat="1"/>
-    <row r="433" s="6" customFormat="1"/>
-    <row r="434" s="6" customFormat="1"/>
-    <row r="435" s="6" customFormat="1"/>
-    <row r="436" s="6" customFormat="1"/>
-    <row r="437" s="6" customFormat="1"/>
-    <row r="438" s="6" customFormat="1"/>
-    <row r="439" s="6" customFormat="1"/>
-    <row r="440" s="6" customFormat="1"/>
-    <row r="441" s="6" customFormat="1"/>
-    <row r="442" s="6" customFormat="1" spans="3:8">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" s="7" customFormat="1"/>
+    <row r="27" s="7" customFormat="1"/>
+    <row r="28" s="7" customFormat="1"/>
+    <row r="29" s="7" customFormat="1"/>
+    <row r="30" s="7" customFormat="1"/>
+    <row r="31" s="7" customFormat="1"/>
+    <row r="32" s="7" customFormat="1"/>
+    <row r="33" s="7" customFormat="1"/>
+    <row r="34" s="7" customFormat="1"/>
+    <row r="35" s="7" customFormat="1"/>
+    <row r="36" s="7" customFormat="1"/>
+    <row r="37" s="7" customFormat="1"/>
+    <row r="38" s="7" customFormat="1"/>
+    <row r="39" s="7" customFormat="1"/>
+    <row r="40" s="7" customFormat="1"/>
+    <row r="41" s="7" customFormat="1"/>
+    <row r="42" s="7" customFormat="1"/>
+    <row r="43" s="7" customFormat="1"/>
+    <row r="44" s="7" customFormat="1"/>
+    <row r="45" s="7" customFormat="1"/>
+    <row r="46" s="7" customFormat="1"/>
+    <row r="47" s="7" customFormat="1"/>
+    <row r="48" s="7" customFormat="1"/>
+    <row r="49" s="7" customFormat="1"/>
+    <row r="50" s="7" customFormat="1"/>
+    <row r="51" s="7" customFormat="1" ht="13.5" customHeight="1"/>
+    <row r="52" s="7" customFormat="1"/>
+    <row r="53" s="7" customFormat="1"/>
+    <row r="54" s="7" customFormat="1"/>
+    <row r="55" s="7" customFormat="1"/>
+    <row r="56" s="7" customFormat="1"/>
+    <row r="57" s="7" customFormat="1"/>
+    <row r="58" s="7" customFormat="1"/>
+    <row r="59" s="7" customFormat="1"/>
+    <row r="60" s="7" customFormat="1"/>
+    <row r="61" s="7" customFormat="1"/>
+    <row r="62" s="7" customFormat="1"/>
+    <row r="63" s="7" customFormat="1"/>
+    <row r="64" s="7" customFormat="1"/>
+    <row r="65" s="7" customFormat="1"/>
+    <row r="66" s="7" customFormat="1"/>
+    <row r="67" s="7" customFormat="1"/>
+    <row r="68" s="7" customFormat="1"/>
+    <row r="69" s="7" customFormat="1"/>
+    <row r="70" s="7" customFormat="1"/>
+    <row r="71" s="7" customFormat="1"/>
+    <row r="72" s="7" customFormat="1"/>
+    <row r="73" s="7" customFormat="1"/>
+    <row r="74" s="7" customFormat="1"/>
+    <row r="75" s="7" customFormat="1"/>
+    <row r="76" s="7" customFormat="1"/>
+    <row r="77" s="7" customFormat="1"/>
+    <row r="78" s="7" customFormat="1"/>
+    <row r="79" s="7" customFormat="1"/>
+    <row r="80" s="7" customFormat="1"/>
+    <row r="81" s="7" customFormat="1"/>
+    <row r="82" s="7" customFormat="1"/>
+    <row r="83" s="7" customFormat="1"/>
+    <row r="84" s="7" customFormat="1"/>
+    <row r="85" s="7" customFormat="1"/>
+    <row r="86" s="7" customFormat="1"/>
+    <row r="87" s="7" customFormat="1"/>
+    <row r="88" s="7" customFormat="1"/>
+    <row r="89" s="7" customFormat="1"/>
+    <row r="90" s="7" customFormat="1"/>
+    <row r="91" s="7" customFormat="1"/>
+    <row r="92" s="7" customFormat="1"/>
+    <row r="93" s="7" customFormat="1"/>
+    <row r="94" s="7" customFormat="1"/>
+    <row r="95" s="7" customFormat="1"/>
+    <row r="96" s="7" customFormat="1"/>
+    <row r="97" s="7" customFormat="1"/>
+    <row r="98" s="7" customFormat="1"/>
+    <row r="99" s="7" customFormat="1"/>
+    <row r="100" s="7" customFormat="1"/>
+    <row r="101" s="7" customFormat="1"/>
+    <row r="102" s="7" customFormat="1"/>
+    <row r="103" s="7" customFormat="1"/>
+    <row r="104" s="7" customFormat="1"/>
+    <row r="105" s="7" customFormat="1"/>
+    <row r="106" s="7" customFormat="1"/>
+    <row r="107" s="7" customFormat="1"/>
+    <row r="108" s="7" customFormat="1"/>
+    <row r="109" s="7" customFormat="1"/>
+    <row r="110" s="7" customFormat="1"/>
+    <row r="111" s="7" customFormat="1"/>
+    <row r="112" s="7" customFormat="1"/>
+    <row r="113" s="7" customFormat="1"/>
+    <row r="114" s="7" customFormat="1"/>
+    <row r="115" s="7" customFormat="1"/>
+    <row r="116" s="7" customFormat="1"/>
+    <row r="117" s="7" customFormat="1"/>
+    <row r="118" s="7" customFormat="1"/>
+    <row r="119" s="7" customFormat="1"/>
+    <row r="120" s="7" customFormat="1"/>
+    <row r="121" s="7" customFormat="1"/>
+    <row r="122" s="7" customFormat="1"/>
+    <row r="123" s="7" customFormat="1"/>
+    <row r="124" s="7" customFormat="1"/>
+    <row r="125" s="7" customFormat="1"/>
+    <row r="126" s="7" customFormat="1"/>
+    <row r="127" s="7" customFormat="1"/>
+    <row r="128" s="7" customFormat="1"/>
+    <row r="129" s="7" customFormat="1"/>
+    <row r="130" s="7" customFormat="1"/>
+    <row r="131" s="7" customFormat="1"/>
+    <row r="132" s="7" customFormat="1"/>
+    <row r="133" s="7" customFormat="1"/>
+    <row r="134" s="7" customFormat="1"/>
+    <row r="135" s="7" customFormat="1"/>
+    <row r="136" s="7" customFormat="1"/>
+    <row r="137" s="7" customFormat="1"/>
+    <row r="138" s="7" customFormat="1"/>
+    <row r="139" s="7" customFormat="1"/>
+    <row r="140" s="7" customFormat="1"/>
+    <row r="141" s="7" customFormat="1"/>
+    <row r="142" s="7" customFormat="1"/>
+    <row r="143" s="7" customFormat="1"/>
+    <row r="144" s="7" customFormat="1"/>
+    <row r="145" s="7" customFormat="1"/>
+    <row r="146" s="7" customFormat="1"/>
+    <row r="147" s="7" customFormat="1"/>
+    <row r="148" s="7" customFormat="1"/>
+    <row r="149" s="7" customFormat="1"/>
+    <row r="150" s="7" customFormat="1"/>
+    <row r="151" s="7" customFormat="1"/>
+    <row r="152" s="7" customFormat="1"/>
+    <row r="153" s="7" customFormat="1"/>
+    <row r="154" s="7" customFormat="1"/>
+    <row r="155" s="7" customFormat="1"/>
+    <row r="156" s="7" customFormat="1"/>
+    <row r="157" s="7" customFormat="1"/>
+    <row r="158" s="7" customFormat="1"/>
+    <row r="159" s="7" customFormat="1"/>
+    <row r="160" s="7" customFormat="1"/>
+    <row r="161" s="7" customFormat="1"/>
+    <row r="162" s="7" customFormat="1"/>
+    <row r="163" s="7" customFormat="1"/>
+    <row r="164" s="7" customFormat="1"/>
+    <row r="165" s="7" customFormat="1"/>
+    <row r="166" s="7" customFormat="1"/>
+    <row r="167" s="7" customFormat="1"/>
+    <row r="168" s="7" customFormat="1"/>
+    <row r="169" s="7" customFormat="1"/>
+    <row r="170" s="7" customFormat="1"/>
+    <row r="171" s="7" customFormat="1"/>
+    <row r="172" s="7" customFormat="1"/>
+    <row r="173" s="7" customFormat="1"/>
+    <row r="174" s="7" customFormat="1"/>
+    <row r="175" s="7" customFormat="1"/>
+    <row r="176" s="7" customFormat="1"/>
+    <row r="177" s="7" customFormat="1"/>
+    <row r="178" s="7" customFormat="1"/>
+    <row r="179" s="7" customFormat="1"/>
+    <row r="180" s="7" customFormat="1"/>
+    <row r="181" s="7" customFormat="1"/>
+    <row r="182" s="7" customFormat="1"/>
+    <row r="183" s="7" customFormat="1"/>
+    <row r="184" s="7" customFormat="1"/>
+    <row r="185" s="7" customFormat="1"/>
+    <row r="186" s="7" customFormat="1"/>
+    <row r="187" s="7" customFormat="1"/>
+    <row r="188" s="7" customFormat="1"/>
+    <row r="189" s="7" customFormat="1"/>
+    <row r="190" s="7" customFormat="1"/>
+    <row r="191" s="7" customFormat="1"/>
+    <row r="192" s="7" customFormat="1"/>
+    <row r="193" s="7" customFormat="1"/>
+    <row r="194" s="7" customFormat="1"/>
+    <row r="195" s="7" customFormat="1"/>
+    <row r="196" s="7" customFormat="1"/>
+    <row r="197" s="7" customFormat="1"/>
+    <row r="198" s="7" customFormat="1"/>
+    <row r="199" s="7" customFormat="1"/>
+    <row r="200" s="7" customFormat="1"/>
+    <row r="201" s="7" customFormat="1"/>
+    <row r="202" s="7" customFormat="1"/>
+    <row r="203" s="7" customFormat="1"/>
+    <row r="204" s="7" customFormat="1"/>
+    <row r="205" s="7" customFormat="1"/>
+    <row r="206" s="7" customFormat="1"/>
+    <row r="207" s="7" customFormat="1"/>
+    <row r="208" s="7" customFormat="1"/>
+    <row r="209" s="7" customFormat="1"/>
+    <row r="210" s="7" customFormat="1"/>
+    <row r="211" s="7" customFormat="1"/>
+    <row r="212" s="7" customFormat="1"/>
+    <row r="213" s="7" customFormat="1"/>
+    <row r="214" s="7" customFormat="1"/>
+    <row r="215" s="7" customFormat="1"/>
+    <row r="216" s="7" customFormat="1"/>
+    <row r="217" s="7" customFormat="1"/>
+    <row r="218" s="7" customFormat="1"/>
+    <row r="219" s="7" customFormat="1"/>
+    <row r="220" s="7" customFormat="1"/>
+    <row r="221" s="7" customFormat="1"/>
+    <row r="222" s="7" customFormat="1"/>
+    <row r="223" s="7" customFormat="1"/>
+    <row r="224" s="7" customFormat="1"/>
+    <row r="225" s="7" customFormat="1"/>
+    <row r="226" s="7" customFormat="1"/>
+    <row r="227" s="7" customFormat="1"/>
+    <row r="228" s="7" customFormat="1"/>
+    <row r="229" s="7" customFormat="1"/>
+    <row r="230" s="7" customFormat="1"/>
+    <row r="231" s="7" customFormat="1"/>
+    <row r="232" s="7" customFormat="1"/>
+    <row r="233" s="7" customFormat="1"/>
+    <row r="234" s="7" customFormat="1"/>
+    <row r="235" s="7" customFormat="1"/>
+    <row r="236" s="7" customFormat="1"/>
+    <row r="237" s="7" customFormat="1"/>
+    <row r="238" s="7" customFormat="1"/>
+    <row r="239" s="7" customFormat="1"/>
+    <row r="240" s="7" customFormat="1"/>
+    <row r="241" s="7" customFormat="1"/>
+    <row r="242" s="7" customFormat="1"/>
+    <row r="243" s="7" customFormat="1"/>
+    <row r="244" s="7" customFormat="1"/>
+    <row r="245" s="7" customFormat="1"/>
+    <row r="246" s="7" customFormat="1"/>
+    <row r="247" s="7" customFormat="1"/>
+    <row r="248" s="7" customFormat="1"/>
+    <row r="249" s="7" customFormat="1"/>
+    <row r="250" s="7" customFormat="1"/>
+    <row r="251" s="7" customFormat="1"/>
+    <row r="252" s="7" customFormat="1"/>
+    <row r="253" s="7" customFormat="1"/>
+    <row r="254" s="7" customFormat="1"/>
+    <row r="255" s="7" customFormat="1"/>
+    <row r="256" s="7" customFormat="1"/>
+    <row r="257" s="7" customFormat="1"/>
+    <row r="258" s="7" customFormat="1"/>
+    <row r="259" s="7" customFormat="1"/>
+    <row r="260" s="7" customFormat="1"/>
+    <row r="261" s="7" customFormat="1"/>
+    <row r="262" s="7" customFormat="1"/>
+    <row r="263" s="7" customFormat="1"/>
+    <row r="264" s="7" customFormat="1"/>
+    <row r="265" s="7" customFormat="1"/>
+    <row r="266" s="7" customFormat="1"/>
+    <row r="267" s="7" customFormat="1"/>
+    <row r="268" s="7" customFormat="1"/>
+    <row r="269" s="7" customFormat="1"/>
+    <row r="270" s="7" customFormat="1"/>
+    <row r="271" s="7" customFormat="1"/>
+    <row r="272" s="7" customFormat="1"/>
+    <row r="273" s="7" customFormat="1"/>
+    <row r="274" s="7" customFormat="1"/>
+    <row r="275" s="7" customFormat="1"/>
+    <row r="276" s="7" customFormat="1"/>
+    <row r="277" s="7" customFormat="1"/>
+    <row r="278" s="7" customFormat="1"/>
+    <row r="279" s="7" customFormat="1"/>
+    <row r="280" s="7" customFormat="1"/>
+    <row r="281" s="7" customFormat="1"/>
+    <row r="282" s="7" customFormat="1"/>
+    <row r="283" s="7" customFormat="1"/>
+    <row r="284" s="7" customFormat="1"/>
+    <row r="285" s="7" customFormat="1"/>
+    <row r="286" s="7" customFormat="1"/>
+    <row r="287" s="7" customFormat="1"/>
+    <row r="288" s="7" customFormat="1"/>
+    <row r="289" s="7" customFormat="1"/>
+    <row r="290" s="7" customFormat="1"/>
+    <row r="291" s="7" customFormat="1"/>
+    <row r="292" s="7" customFormat="1"/>
+    <row r="293" s="7" customFormat="1"/>
+    <row r="294" s="7" customFormat="1"/>
+    <row r="295" s="7" customFormat="1"/>
+    <row r="296" s="7" customFormat="1"/>
+    <row r="297" s="7" customFormat="1"/>
+    <row r="298" s="7" customFormat="1"/>
+    <row r="299" s="7" customFormat="1"/>
+    <row r="300" s="7" customFormat="1"/>
+    <row r="301" s="7" customFormat="1"/>
+    <row r="302" s="7" customFormat="1"/>
+    <row r="303" s="7" customFormat="1"/>
+    <row r="304" s="7" customFormat="1"/>
+    <row r="305" s="7" customFormat="1"/>
+    <row r="306" s="7" customFormat="1"/>
+    <row r="307" s="7" customFormat="1"/>
+    <row r="308" s="7" customFormat="1"/>
+    <row r="309" s="7" customFormat="1"/>
+    <row r="310" s="7" customFormat="1"/>
+    <row r="311" s="7" customFormat="1"/>
+    <row r="312" s="7" customFormat="1"/>
+    <row r="313" s="7" customFormat="1"/>
+    <row r="314" s="7" customFormat="1"/>
+    <row r="315" s="7" customFormat="1"/>
+    <row r="316" s="7" customFormat="1"/>
+    <row r="317" s="7" customFormat="1"/>
+    <row r="318" s="7" customFormat="1"/>
+    <row r="319" s="7" customFormat="1"/>
+    <row r="320" s="7" customFormat="1"/>
+    <row r="321" s="7" customFormat="1"/>
+    <row r="322" s="7" customFormat="1"/>
+    <row r="323" s="7" customFormat="1"/>
+    <row r="324" s="7" customFormat="1"/>
+    <row r="325" s="7" customFormat="1"/>
+    <row r="326" s="7" customFormat="1"/>
+    <row r="327" s="7" customFormat="1"/>
+    <row r="328" s="7" customFormat="1"/>
+    <row r="329" s="7" customFormat="1"/>
+    <row r="330" s="7" customFormat="1"/>
+    <row r="331" s="7" customFormat="1"/>
+    <row r="332" s="7" customFormat="1"/>
+    <row r="333" s="7" customFormat="1"/>
+    <row r="334" s="7" customFormat="1"/>
+    <row r="335" s="7" customFormat="1"/>
+    <row r="336" s="7" customFormat="1"/>
+    <row r="337" s="7" customFormat="1"/>
+    <row r="338" s="7" customFormat="1"/>
+    <row r="339" s="7" customFormat="1"/>
+    <row r="340" s="7" customFormat="1"/>
+    <row r="341" s="7" customFormat="1"/>
+    <row r="342" s="7" customFormat="1"/>
+    <row r="343" s="7" customFormat="1"/>
+    <row r="344" s="7" customFormat="1"/>
+    <row r="345" s="7" customFormat="1"/>
+    <row r="346" s="7" customFormat="1"/>
+    <row r="347" s="7" customFormat="1"/>
+    <row r="348" s="7" customFormat="1"/>
+    <row r="349" s="7" customFormat="1"/>
+    <row r="350" s="7" customFormat="1"/>
+    <row r="351" s="7" customFormat="1"/>
+    <row r="352" s="7" customFormat="1"/>
+    <row r="353" s="7" customFormat="1"/>
+    <row r="354" s="7" customFormat="1"/>
+    <row r="355" s="7" customFormat="1"/>
+    <row r="356" s="7" customFormat="1"/>
+    <row r="357" s="7" customFormat="1"/>
+    <row r="358" s="7" customFormat="1"/>
+    <row r="359" s="7" customFormat="1"/>
+    <row r="360" s="7" customFormat="1"/>
+    <row r="361" s="7" customFormat="1"/>
+    <row r="362" s="7" customFormat="1"/>
+    <row r="363" s="7" customFormat="1"/>
+    <row r="364" s="7" customFormat="1"/>
+    <row r="365" s="7" customFormat="1"/>
+    <row r="366" s="7" customFormat="1"/>
+    <row r="367" s="7" customFormat="1"/>
+    <row r="368" s="7" customFormat="1"/>
+    <row r="369" s="7" customFormat="1"/>
+    <row r="370" s="7" customFormat="1"/>
+    <row r="371" s="7" customFormat="1"/>
+    <row r="372" s="7" customFormat="1"/>
+    <row r="373" s="7" customFormat="1"/>
+    <row r="374" s="7" customFormat="1"/>
+    <row r="375" s="7" customFormat="1"/>
+    <row r="376" s="7" customFormat="1"/>
+    <row r="377" s="7" customFormat="1"/>
+    <row r="378" s="7" customFormat="1"/>
+    <row r="379" s="7" customFormat="1"/>
+    <row r="380" s="7" customFormat="1"/>
+    <row r="381" s="7" customFormat="1"/>
+    <row r="382" s="7" customFormat="1"/>
+    <row r="383" s="7" customFormat="1"/>
+    <row r="384" s="7" customFormat="1"/>
+    <row r="385" s="7" customFormat="1"/>
+    <row r="386" s="7" customFormat="1"/>
+    <row r="387" s="7" customFormat="1"/>
+    <row r="388" s="7" customFormat="1"/>
+    <row r="389" s="7" customFormat="1"/>
+    <row r="390" s="7" customFormat="1"/>
+    <row r="391" s="7" customFormat="1"/>
+    <row r="392" s="7" customFormat="1"/>
+    <row r="393" s="7" customFormat="1"/>
+    <row r="394" s="7" customFormat="1"/>
+    <row r="395" s="7" customFormat="1"/>
+    <row r="396" s="7" customFormat="1"/>
+    <row r="397" s="7" customFormat="1"/>
+    <row r="398" s="7" customFormat="1"/>
+    <row r="399" s="7" customFormat="1"/>
+    <row r="400" s="7" customFormat="1"/>
+    <row r="401" s="7" customFormat="1"/>
+    <row r="402" s="7" customFormat="1"/>
+    <row r="403" s="7" customFormat="1"/>
+    <row r="404" s="7" customFormat="1"/>
+    <row r="405" s="7" customFormat="1"/>
+    <row r="406" s="7" customFormat="1"/>
+    <row r="407" s="7" customFormat="1"/>
+    <row r="408" s="7" customFormat="1"/>
+    <row r="409" s="7" customFormat="1"/>
+    <row r="410" s="7" customFormat="1"/>
+    <row r="411" s="7" customFormat="1"/>
+    <row r="412" s="7" customFormat="1"/>
+    <row r="413" s="7" customFormat="1"/>
+    <row r="414" s="7" customFormat="1"/>
+    <row r="415" s="7" customFormat="1"/>
+    <row r="416" s="7" customFormat="1"/>
+    <row r="417" s="7" customFormat="1"/>
+    <row r="418" s="7" customFormat="1"/>
+    <row r="419" s="7" customFormat="1"/>
+    <row r="420" s="7" customFormat="1"/>
+    <row r="421" s="7" customFormat="1"/>
+    <row r="422" s="7" customFormat="1"/>
+    <row r="423" s="7" customFormat="1"/>
+    <row r="424" s="7" customFormat="1"/>
+    <row r="425" s="7" customFormat="1"/>
+    <row r="426" s="7" customFormat="1"/>
+    <row r="427" s="7" customFormat="1"/>
+    <row r="428" s="7" customFormat="1"/>
+    <row r="429" s="7" customFormat="1"/>
+    <row r="430" s="7" customFormat="1"/>
+    <row r="431" s="7" customFormat="1"/>
+    <row r="432" s="7" customFormat="1"/>
+    <row r="433" s="7" customFormat="1"/>
+    <row r="434" s="7" customFormat="1"/>
+    <row r="435" s="7" customFormat="1"/>
+    <row r="436" s="7" customFormat="1"/>
+    <row r="437" s="7" customFormat="1"/>
+    <row r="438" s="7" customFormat="1"/>
+    <row r="439" s="7" customFormat="1"/>
+    <row r="440" s="7" customFormat="1"/>
+    <row r="441" s="7" customFormat="1"/>
+    <row r="442" s="7" customFormat="1" spans="3:8">
       <c r="C442" s="11"/>
-      <c r="D442" s="7"/>
-      <c r="E442" s="7"/>
-      <c r="F442" s="7"/>
-      <c r="G442" s="7"/>
-      <c r="H442" s="7"/>
+      <c r="D442" s="8"/>
+      <c r="E442" s="8"/>
+      <c r="F442" s="8"/>
+      <c r="G442" s="8"/>
+      <c r="H442" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2045,8 +2045,8 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -2057,143 +2057,143 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:8">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" ht="14.25" spans="1:8">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" ht="14.25" spans="1:8">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:8">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:8">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="8" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="1" ht="14.25" spans="3:8">
-      <c r="C6" s="9">
+    <row r="6" s="6" customFormat="1" ht="14.25" spans="3:8">
+      <c r="C6" s="10">
         <v>20201</v>
       </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
         <v>202</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="9">
-        <v>20304</v>
-      </c>
-    </row>
-    <row r="7" s="6" customFormat="1" ht="14.25" spans="3:8">
-      <c r="C7" s="9">
+      <c r="H6" s="10">
+        <v>20704</v>
+      </c>
+    </row>
+    <row r="7" s="7" customFormat="1" ht="14.25" spans="3:8">
+      <c r="C7" s="10">
         <v>20202</v>
       </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
         <v>202</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" ht="14.25" spans="3:7">
-      <c r="C8" s="9">
+      <c r="C8" s="10">
         <v>20203</v>
       </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10">
         <v>202</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2209,8 +2209,8 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="44">
   <si>
     <t>Id</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Gate1</t>
+  </si>
+  <si>
+    <t>Gate2</t>
   </si>
   <si>
     <t>Queue</t>
@@ -1189,10 +1192,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O442"/>
+  <dimension ref="A3:O443"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1298,7 +1301,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="10">
-        <v>20725</v>
+        <v>20325</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -1325,7 +1328,7 @@
         <v>17</v>
       </c>
       <c r="H8" s="8">
-        <v>20726</v>
+        <v>20326</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -1335,34 +1338,41 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="3:8">
+    <row r="9" s="6" customFormat="1" spans="3:15">
       <c r="C9" s="13">
         <v>103</v>
       </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="10">
-        <v>20727</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7">
+        <v>20327</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="3:8">
       <c r="C10" s="13">
         <v>104</v>
       </c>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -1370,6 +1380,9 @@
       </c>
       <c r="G10" s="8" t="s">
         <v>19</v>
+      </c>
+      <c r="H10" s="8">
+        <v>20328</v>
       </c>
     </row>
     <row r="11" spans="3:7">
@@ -1393,7 +1406,7 @@
       <c r="C12" s="13">
         <v>106</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="10">
         <v>1</v>
       </c>
       <c r="E12" s="10">
@@ -1410,10 +1423,10 @@
       <c r="C13" s="13">
         <v>107</v>
       </c>
-      <c r="D13" s="10">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -1430,7 +1443,7 @@
       <c r="D14" s="10">
         <v>1</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <v>1</v>
       </c>
       <c r="F14" s="8" t="s">
@@ -1444,7 +1457,7 @@
       <c r="C15" s="13">
         <v>109</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="10">
         <v>1</v>
       </c>
       <c r="E15" s="10">
@@ -1461,7 +1474,7 @@
       <c r="C16" s="13">
         <v>110</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>1</v>
       </c>
       <c r="E16" s="10">
@@ -1481,7 +1494,7 @@
       <c r="D17" s="10">
         <v>1</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="10">
         <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
@@ -1495,10 +1508,10 @@
       <c r="C18" s="13">
         <v>112</v>
       </c>
-      <c r="D18" s="8">
-        <v>1</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
         <v>1</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -1512,7 +1525,7 @@
       <c r="C19" s="13">
         <v>113</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="8">
         <v>1</v>
       </c>
       <c r="E19" s="10">
@@ -1529,31 +1542,31 @@
       <c r="C20" s="13">
         <v>114</v>
       </c>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10">
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>29</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="3:7">
       <c r="C21" s="13">
         <v>115</v>
       </c>
-      <c r="D21" s="10">
-        <v>1</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
         <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>31</v>
@@ -1563,7 +1576,7 @@
       <c r="C22" s="13">
         <v>116</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="10">
         <v>1</v>
       </c>
       <c r="E22" s="10">
@@ -1580,10 +1593,10 @@
       <c r="C23" s="13">
         <v>117</v>
       </c>
-      <c r="D23" s="10">
-        <v>1</v>
-      </c>
-      <c r="E23" s="8">
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10">
         <v>1</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -1593,13 +1606,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="3:8">
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+    <row r="24" spans="3:7">
+      <c r="C24" s="13">
+        <v>118</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" spans="3:8">
       <c r="C25" s="7"/>
@@ -1609,7 +1631,14 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" s="7" customFormat="1"/>
+    <row r="26" spans="3:8">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
     <row r="27" s="7" customFormat="1"/>
     <row r="28" s="7" customFormat="1"/>
     <row r="29" s="7" customFormat="1"/>
@@ -1634,8 +1663,8 @@
     <row r="48" s="7" customFormat="1"/>
     <row r="49" s="7" customFormat="1"/>
     <row r="50" s="7" customFormat="1"/>
-    <row r="51" s="7" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="52" s="7" customFormat="1"/>
+    <row r="51" s="7" customFormat="1"/>
+    <row r="52" s="7" customFormat="1" ht="13.5" customHeight="1"/>
     <row r="53" s="7" customFormat="1"/>
     <row r="54" s="7" customFormat="1"/>
     <row r="55" s="7" customFormat="1"/>
@@ -2025,13 +2054,14 @@
     <row r="439" s="7" customFormat="1"/>
     <row r="440" s="7" customFormat="1"/>
     <row r="441" s="7" customFormat="1"/>
-    <row r="442" s="7" customFormat="1" spans="3:8">
-      <c r="C442" s="11"/>
-      <c r="D442" s="8"/>
-      <c r="E442" s="8"/>
-      <c r="F442" s="8"/>
-      <c r="G442" s="8"/>
-      <c r="H442" s="8"/>
+    <row r="442" s="7" customFormat="1"/>
+    <row r="443" s="7" customFormat="1" spans="3:8">
+      <c r="C443" s="11"/>
+      <c r="D443" s="8"/>
+      <c r="E443" s="8"/>
+      <c r="F443" s="8"/>
+      <c r="G443" s="8"/>
+      <c r="H443" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2046,7 +2076,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -2150,16 +2180,16 @@
         <v>1</v>
       </c>
       <c r="E6" s="10">
-        <v>202</v>
+        <v>1000</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="10">
-        <v>20704</v>
+        <v>20304</v>
       </c>
     </row>
     <row r="7" s="7" customFormat="1" ht="14.25" spans="3:8">
@@ -2170,13 +2200,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="10">
-        <v>202</v>
+        <v>1000</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="10"/>
     </row>
@@ -2188,13 +2218,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="10">
-        <v>202</v>
+        <v>1000</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2209,8 +2239,8 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2318,10 +2348,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" s="5">
         <v>30300</v>
@@ -2340,10 +2370,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="5">
         <v>30301</v>
@@ -2362,10 +2392,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H8" s="5">
         <v>30302</v>
@@ -2384,10 +2414,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9" s="5">
         <v>30303</v>
@@ -2406,10 +2436,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" s="5">
         <v>30304</v>

--- a/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -1195,7 +1195,7 @@
   <dimension ref="A3:O443"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H10"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1301,7 +1301,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="10">
-        <v>20325</v>
+        <v>30325</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -1328,7 +1328,7 @@
         <v>17</v>
       </c>
       <c r="H8" s="8">
-        <v>20326</v>
+        <v>30326</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -1355,7 +1355,7 @@
         <v>18</v>
       </c>
       <c r="H9" s="10">
-        <v>20327</v>
+        <v>30327</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -1382,7 +1382,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="8">
-        <v>20328</v>
+        <v>30328</v>
       </c>
     </row>
     <row r="11" spans="3:7">
@@ -2076,7 +2076,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -2189,7 +2189,7 @@
         <v>35</v>
       </c>
       <c r="H6" s="10">
-        <v>20304</v>
+        <v>30310</v>
       </c>
     </row>
     <row r="7" s="7" customFormat="1" ht="14.25" spans="3:8">

--- a/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -76,67 +76,67 @@
     <t>#1区封测区</t>
   </si>
   <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>Gate1</t>
+  </si>
+  <si>
+    <t>Gate2</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>DBCache</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>EMail</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>PaiMai</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>FubenCenter</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Map101</t>
+  </si>
+  <si>
+    <t>JiaYuan</t>
+  </si>
+  <si>
+    <t>Popularize</t>
+  </si>
+  <si>
+    <t>Solo</t>
+  </si>
+  <si>
+    <t>LoginCenter</t>
+  </si>
+  <si>
     <t>Realm</t>
-  </si>
-  <si>
-    <t>Gate</t>
-  </si>
-  <si>
-    <t>Gate1</t>
-  </si>
-  <si>
-    <t>Gate2</t>
-  </si>
-  <si>
-    <t>Queue</t>
-  </si>
-  <si>
-    <t>DBCache</t>
-  </si>
-  <si>
-    <t>Chat</t>
-  </si>
-  <si>
-    <t>EMail</t>
-  </si>
-  <si>
-    <t>Activity</t>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>PaiMai</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Friend</t>
-  </si>
-  <si>
-    <t>Union</t>
-  </si>
-  <si>
-    <t>FubenCenter</t>
-  </si>
-  <si>
-    <t>Map</t>
-  </si>
-  <si>
-    <t>Map101</t>
-  </si>
-  <si>
-    <t>JiaYuan</t>
-  </si>
-  <si>
-    <t>Popularize</t>
-  </si>
-  <si>
-    <t>Solo</t>
-  </si>
-  <si>
-    <t>LoginCenter</t>
   </si>
   <si>
     <t>Location</t>
@@ -1195,7 +1195,7 @@
   <dimension ref="A3:O443"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1294,13 +1294,13 @@
       <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="10">
+      <c r="G7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8">
         <v>30325</v>
       </c>
       <c r="I7" s="7"/>
@@ -1322,12 +1322,12 @@
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="10">
         <v>30326</v>
       </c>
       <c r="I8" s="7"/>
@@ -1342,19 +1342,19 @@
       <c r="C9" s="13">
         <v>103</v>
       </c>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="8">
         <v>30327</v>
       </c>
       <c r="I9" s="7"/>
@@ -1365,14 +1365,14 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="3:8">
+    <row r="10" spans="3:7">
       <c r="C10" s="13">
         <v>104</v>
       </c>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -1380,9 +1380,6 @@
       </c>
       <c r="G10" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="H10" s="8">
-        <v>30328</v>
       </c>
     </row>
     <row r="11" spans="3:7">
@@ -1406,7 +1403,7 @@
       <c r="C12" s="13">
         <v>106</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <v>1</v>
       </c>
       <c r="E12" s="10">
@@ -1423,10 +1420,10 @@
       <c r="C13" s="13">
         <v>107</v>
       </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -1443,7 +1440,7 @@
       <c r="D14" s="10">
         <v>1</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="10">
         <v>1</v>
       </c>
       <c r="F14" s="8" t="s">
@@ -1457,7 +1454,7 @@
       <c r="C15" s="13">
         <v>109</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <v>1</v>
       </c>
       <c r="E15" s="10">
@@ -1474,7 +1471,7 @@
       <c r="C16" s="13">
         <v>110</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="10">
         <v>1</v>
       </c>
       <c r="E16" s="10">
@@ -1494,7 +1491,7 @@
       <c r="D17" s="10">
         <v>1</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="8">
         <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
@@ -1508,10 +1505,10 @@
       <c r="C18" s="13">
         <v>112</v>
       </c>
-      <c r="D18" s="10">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10">
         <v>1</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -1525,7 +1522,7 @@
       <c r="C19" s="13">
         <v>113</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="10">
         <v>1</v>
       </c>
       <c r="E19" s="10">
@@ -1542,31 +1539,31 @@
       <c r="C20" s="13">
         <v>114</v>
       </c>
-      <c r="D20" s="10">
-        <v>1</v>
-      </c>
-      <c r="E20" s="10">
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>29</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="3:7">
       <c r="C21" s="13">
         <v>115</v>
       </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
+      <c r="D21" s="10">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10">
         <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>31</v>
@@ -1576,7 +1573,7 @@
       <c r="C22" s="13">
         <v>116</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <v>1</v>
       </c>
       <c r="E22" s="10">
@@ -1593,10 +1590,10 @@
       <c r="C23" s="13">
         <v>117</v>
       </c>
-      <c r="D23" s="8">
-        <v>1</v>
-      </c>
-      <c r="E23" s="10">
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
         <v>1</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -1606,22 +1603,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="3:7">
-      <c r="C24" s="13">
-        <v>118</v>
-      </c>
-      <c r="D24" s="10">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8">
-        <v>1</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>34</v>
-      </c>
+    <row r="24" spans="3:8">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="3:8">
       <c r="C25" s="7"/>
@@ -2054,7 +2042,14 @@
     <row r="439" s="7" customFormat="1"/>
     <row r="440" s="7" customFormat="1"/>
     <row r="441" s="7" customFormat="1"/>
-    <row r="442" s="7" customFormat="1"/>
+    <row r="442" s="7" customFormat="1" spans="3:8">
+      <c r="C442" s="11"/>
+      <c r="D442" s="8"/>
+      <c r="E442" s="8"/>
+      <c r="F442" s="8"/>
+      <c r="G442" s="8"/>
+      <c r="H442" s="8"/>
+    </row>
     <row r="443" s="7" customFormat="1" spans="3:8">
       <c r="C443" s="11"/>
       <c r="D443" s="8"/>
@@ -2073,13 +2068,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="5" max="5" width="10.25" customWidth="1"/>
     <col min="6" max="6" width="15.75" customWidth="1"/>
@@ -2183,16 +2178,16 @@
         <v>1000</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="10">
         <v>30310</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="1" ht="14.25" spans="3:8">
+    <row r="7" s="6" customFormat="1" ht="14.25" spans="3:8">
       <c r="C7" s="10">
         <v>20202</v>
       </c>
@@ -2202,15 +2197,17 @@
       <c r="E7" s="10">
         <v>1000</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" ht="14.25" spans="3:7">
+      <c r="F7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="10">
+        <v>30311</v>
+      </c>
+    </row>
+    <row r="8" s="7" customFormat="1" ht="14.25" spans="3:8">
       <c r="C8" s="10">
         <v>20203</v>
       </c>
@@ -2220,10 +2217,28 @@
       <c r="E8" s="10">
         <v>1000</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="14.25" spans="3:7">
+      <c r="C9" s="10">
+        <v>20204</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -73,7 +73,7 @@
     <t>#20004-20100</t>
   </si>
   <si>
-    <t>#1区封测区</t>
+    <t>#封测一区</t>
   </si>
   <si>
     <t>Gate</t>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>Solo</t>
+  </si>
+  <si>
+    <t>#封测二区</t>
+  </si>
+  <si>
+    <t>#封测三区</t>
   </si>
   <si>
     <t>LoginCenter</t>
@@ -1194,8 +1200,8 @@
   <sheetPr/>
   <dimension ref="A3:O443"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1611,55 +1617,645 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="3:8">
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="3:8">
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" s="7" customFormat="1"/>
-    <row r="28" s="7" customFormat="1"/>
-    <row r="29" s="7" customFormat="1"/>
-    <row r="30" s="7" customFormat="1"/>
-    <row r="31" s="7" customFormat="1"/>
-    <row r="32" s="7" customFormat="1"/>
-    <row r="33" s="7" customFormat="1"/>
-    <row r="34" s="7" customFormat="1"/>
-    <row r="35" s="7" customFormat="1"/>
-    <row r="36" s="7" customFormat="1"/>
-    <row r="37" s="7" customFormat="1"/>
-    <row r="38" s="7" customFormat="1"/>
-    <row r="39" s="7" customFormat="1"/>
-    <row r="40" s="7" customFormat="1"/>
-    <row r="41" s="7" customFormat="1"/>
+    <row r="25" spans="1:8">
+      <c r="A25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="13">
+        <v>201</v>
+      </c>
+      <c r="D25" s="10">
+        <v>2</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="8">
+        <v>20335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="13">
+        <v>202</v>
+      </c>
+      <c r="D26" s="10">
+        <v>2</v>
+      </c>
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="10">
+        <v>20336</v>
+      </c>
+    </row>
+    <row r="27" s="7" customFormat="1" spans="1:8">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="13">
+        <v>203</v>
+      </c>
+      <c r="D27" s="10">
+        <v>2</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="8">
+        <v>20337</v>
+      </c>
+    </row>
+    <row r="28" s="7" customFormat="1" spans="3:8">
+      <c r="C28" s="13">
+        <v>204</v>
+      </c>
+      <c r="D28" s="10">
+        <v>2</v>
+      </c>
+      <c r="E28" s="10">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" s="7" customFormat="1" spans="3:8">
+      <c r="C29" s="13">
+        <v>205</v>
+      </c>
+      <c r="D29" s="10">
+        <v>2</v>
+      </c>
+      <c r="E29" s="10">
+        <v>1</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" s="7" customFormat="1" spans="3:8">
+      <c r="C30" s="13">
+        <v>206</v>
+      </c>
+      <c r="D30" s="10">
+        <v>2</v>
+      </c>
+      <c r="E30" s="10">
+        <v>1</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" s="7" customFormat="1" spans="3:8">
+      <c r="C31" s="13">
+        <v>207</v>
+      </c>
+      <c r="D31" s="10">
+        <v>2</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" s="7" customFormat="1" spans="3:8">
+      <c r="C32" s="13">
+        <v>208</v>
+      </c>
+      <c r="D32" s="10">
+        <v>2</v>
+      </c>
+      <c r="E32" s="10">
+        <v>1</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" s="7" customFormat="1" spans="3:8">
+      <c r="C33" s="13">
+        <v>209</v>
+      </c>
+      <c r="D33" s="10">
+        <v>2</v>
+      </c>
+      <c r="E33" s="10">
+        <v>1</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" s="7" customFormat="1" spans="3:8">
+      <c r="C34" s="13">
+        <v>210</v>
+      </c>
+      <c r="D34" s="10">
+        <v>2</v>
+      </c>
+      <c r="E34" s="10">
+        <v>1</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" s="7" customFormat="1" spans="3:8">
+      <c r="C35" s="13">
+        <v>211</v>
+      </c>
+      <c r="D35" s="10">
+        <v>2</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" s="7" customFormat="1" spans="3:8">
+      <c r="C36" s="13">
+        <v>212</v>
+      </c>
+      <c r="D36" s="10">
+        <v>2</v>
+      </c>
+      <c r="E36" s="10">
+        <v>1</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" s="7" customFormat="1" spans="3:8">
+      <c r="C37" s="13">
+        <v>213</v>
+      </c>
+      <c r="D37" s="10">
+        <v>2</v>
+      </c>
+      <c r="E37" s="10">
+        <v>1</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" s="7" customFormat="1" spans="3:8">
+      <c r="C38" s="13">
+        <v>214</v>
+      </c>
+      <c r="D38" s="10">
+        <v>2</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" s="7" customFormat="1" spans="3:8">
+      <c r="C39" s="13">
+        <v>215</v>
+      </c>
+      <c r="D39" s="10">
+        <v>2</v>
+      </c>
+      <c r="E39" s="10">
+        <v>1</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" s="7" customFormat="1" spans="3:8">
+      <c r="C40" s="13">
+        <v>216</v>
+      </c>
+      <c r="D40" s="10">
+        <v>2</v>
+      </c>
+      <c r="E40" s="10">
+        <v>1</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" s="7" customFormat="1" spans="3:8">
+      <c r="C41" s="13">
+        <v>217</v>
+      </c>
+      <c r="D41" s="10">
+        <v>2</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="8"/>
+    </row>
     <row r="42" s="7" customFormat="1"/>
-    <row r="43" s="7" customFormat="1"/>
-    <row r="44" s="7" customFormat="1"/>
-    <row r="45" s="7" customFormat="1"/>
-    <row r="46" s="7" customFormat="1"/>
-    <row r="47" s="7" customFormat="1"/>
-    <row r="48" s="7" customFormat="1"/>
-    <row r="49" s="7" customFormat="1"/>
-    <row r="50" s="7" customFormat="1"/>
-    <row r="51" s="7" customFormat="1"/>
-    <row r="52" s="7" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="53" s="7" customFormat="1"/>
-    <row r="54" s="7" customFormat="1"/>
-    <row r="55" s="7" customFormat="1"/>
-    <row r="56" s="7" customFormat="1"/>
-    <row r="57" s="7" customFormat="1"/>
-    <row r="58" s="7" customFormat="1"/>
-    <row r="59" s="7" customFormat="1"/>
+    <row r="43" s="7" customFormat="1" spans="1:8">
+      <c r="A43" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="13">
+        <v>301</v>
+      </c>
+      <c r="D43" s="10">
+        <v>3</v>
+      </c>
+      <c r="E43" s="10">
+        <v>1</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="8">
+        <v>20345</v>
+      </c>
+    </row>
+    <row r="44" s="7" customFormat="1" spans="1:8">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="13">
+        <v>302</v>
+      </c>
+      <c r="D44" s="10">
+        <v>3</v>
+      </c>
+      <c r="E44" s="10">
+        <v>1</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="10">
+        <v>20346</v>
+      </c>
+    </row>
+    <row r="45" s="7" customFormat="1" spans="1:8">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="13">
+        <v>303</v>
+      </c>
+      <c r="D45" s="10">
+        <v>3</v>
+      </c>
+      <c r="E45" s="8">
+        <v>1</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="8">
+        <v>20347</v>
+      </c>
+    </row>
+    <row r="46" s="7" customFormat="1" spans="3:8">
+      <c r="C46" s="13">
+        <v>304</v>
+      </c>
+      <c r="D46" s="10">
+        <v>3</v>
+      </c>
+      <c r="E46" s="10">
+        <v>1</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" s="7" customFormat="1" spans="3:8">
+      <c r="C47" s="13">
+        <v>305</v>
+      </c>
+      <c r="D47" s="10">
+        <v>3</v>
+      </c>
+      <c r="E47" s="10">
+        <v>1</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" s="7" customFormat="1" spans="3:8">
+      <c r="C48" s="13">
+        <v>306</v>
+      </c>
+      <c r="D48" s="10">
+        <v>3</v>
+      </c>
+      <c r="E48" s="10">
+        <v>1</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" s="7" customFormat="1" spans="3:8">
+      <c r="C49" s="13">
+        <v>307</v>
+      </c>
+      <c r="D49" s="10">
+        <v>3</v>
+      </c>
+      <c r="E49" s="8">
+        <v>1</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" s="7" customFormat="1" spans="3:8">
+      <c r="C50" s="13">
+        <v>308</v>
+      </c>
+      <c r="D50" s="10">
+        <v>3</v>
+      </c>
+      <c r="E50" s="10">
+        <v>1</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" s="7" customFormat="1" spans="3:8">
+      <c r="C51" s="13">
+        <v>309</v>
+      </c>
+      <c r="D51" s="10">
+        <v>3</v>
+      </c>
+      <c r="E51" s="10">
+        <v>1</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" s="7" customFormat="1" ht="13.5" customHeight="1" spans="3:8">
+      <c r="C52" s="13">
+        <v>310</v>
+      </c>
+      <c r="D52" s="10">
+        <v>3</v>
+      </c>
+      <c r="E52" s="10">
+        <v>1</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" s="7" customFormat="1" spans="3:8">
+      <c r="C53" s="13">
+        <v>311</v>
+      </c>
+      <c r="D53" s="10">
+        <v>3</v>
+      </c>
+      <c r="E53" s="8">
+        <v>1</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" s="7" customFormat="1" spans="3:8">
+      <c r="C54" s="13">
+        <v>312</v>
+      </c>
+      <c r="D54" s="10">
+        <v>3</v>
+      </c>
+      <c r="E54" s="10">
+        <v>1</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" s="7" customFormat="1" spans="3:8">
+      <c r="C55" s="13">
+        <v>313</v>
+      </c>
+      <c r="D55" s="10">
+        <v>3</v>
+      </c>
+      <c r="E55" s="10">
+        <v>1</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" s="7" customFormat="1" spans="3:8">
+      <c r="C56" s="13">
+        <v>314</v>
+      </c>
+      <c r="D56" s="10">
+        <v>3</v>
+      </c>
+      <c r="E56" s="8">
+        <v>1</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" s="7" customFormat="1" spans="3:8">
+      <c r="C57" s="13">
+        <v>315</v>
+      </c>
+      <c r="D57" s="10">
+        <v>3</v>
+      </c>
+      <c r="E57" s="10">
+        <v>1</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" s="7" customFormat="1" spans="3:8">
+      <c r="C58" s="13">
+        <v>316</v>
+      </c>
+      <c r="D58" s="10">
+        <v>3</v>
+      </c>
+      <c r="E58" s="10">
+        <v>1</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" s="7" customFormat="1" spans="3:8">
+      <c r="C59" s="13">
+        <v>317</v>
+      </c>
+      <c r="D59" s="10">
+        <v>3</v>
+      </c>
+      <c r="E59" s="8">
+        <v>1</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" s="8"/>
+    </row>
     <row r="60" s="7" customFormat="1"/>
     <row r="61" s="7" customFormat="1"/>
     <row r="62" s="7" customFormat="1"/>
@@ -2178,10 +2774,10 @@
         <v>1000</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6" s="10">
         <v>30310</v>
@@ -2198,10 +2794,10 @@
         <v>1000</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H7" s="10">
         <v>30311</v>
@@ -2218,10 +2814,10 @@
         <v>1000</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -2236,10 +2832,10 @@
         <v>1000</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2363,10 +2959,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H6" s="5">
         <v>30300</v>
@@ -2385,10 +2981,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H7" s="5">
         <v>30301</v>
@@ -2407,10 +3003,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="5">
         <v>30302</v>
@@ -2429,10 +3025,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H9" s="5">
         <v>30303</v>
@@ -2451,10 +3047,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H10" s="5">
         <v>30304</v>

--- a/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
     <sheet name="中心区" sheetId="3" r:id="rId2"/>
-    <sheet name="Router" sheetId="4" r:id="rId3"/>
+    <sheet name="Robot" sheetId="5" r:id="rId3"/>
+    <sheet name="Router" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -149,6 +150,9 @@
   </si>
   <si>
     <t>ReCharge</t>
+  </si>
+  <si>
+    <t>RobotManager</t>
   </si>
   <si>
     <t>RouterManager</t>
@@ -1200,7 +1204,7 @@
   <sheetPr/>
   <dimension ref="A3:O443"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C43" sqref="C43:D59"/>
     </sheetView>
   </sheetViews>
@@ -2667,7 +2671,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2765,7 +2769,7 @@
     </row>
     <row r="6" s="6" customFormat="1" ht="14.25" spans="3:8">
       <c r="C6" s="10">
-        <v>20201</v>
+        <v>1000201</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
@@ -2785,7 +2789,7 @@
     </row>
     <row r="7" s="6" customFormat="1" ht="14.25" spans="3:8">
       <c r="C7" s="10">
-        <v>20202</v>
+        <v>1000202</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
@@ -2805,7 +2809,7 @@
     </row>
     <row r="8" s="7" customFormat="1" ht="14.25" spans="3:8">
       <c r="C8" s="10">
-        <v>20203</v>
+        <v>1000203</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
@@ -2823,7 +2827,7 @@
     </row>
     <row r="9" ht="14.25" spans="3:7">
       <c r="C9" s="10">
-        <v>20204</v>
+        <v>1000204</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
@@ -2850,8 +2854,175 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:8">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:8">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:8">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:8">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5">
+        <v>1000301</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:8">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:8">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:8">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2950,7 +3121,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5">
-        <v>20400</v>
+        <v>1000400</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -2959,10 +3130,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H6" s="5">
         <v>30300</v>
@@ -2972,7 +3143,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5">
-        <v>20401</v>
+        <v>1000401</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -2981,10 +3152,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="5">
         <v>30301</v>
@@ -2994,7 +3165,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5">
-        <v>20402</v>
+        <v>1000402</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -3003,10 +3174,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="5">
         <v>30302</v>
@@ -3016,7 +3187,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5">
-        <v>20403</v>
+        <v>1000403</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -3025,10 +3196,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" s="5">
         <v>30303</v>
@@ -3038,7 +3209,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5">
-        <v>20404</v>
+        <v>1000404</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -3047,10 +3218,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" s="5">
         <v>30304</v>

--- a/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="49">
   <si>
     <t>Id</t>
   </si>
@@ -116,22 +116,28 @@
     <t>Union</t>
   </si>
   <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Map101</t>
+  </si>
+  <si>
+    <t>JiaYuan</t>
+  </si>
+  <si>
+    <t>Popularize</t>
+  </si>
+  <si>
+    <t>Solo</t>
+  </si>
+  <si>
     <t>FubenCenter</t>
   </si>
   <si>
-    <t>Map</t>
-  </si>
-  <si>
-    <t>Map101</t>
-  </si>
-  <si>
-    <t>JiaYuan</t>
-  </si>
-  <si>
-    <t>Popularize</t>
-  </si>
-  <si>
-    <t>Solo</t>
+    <t>FubenCenter1</t>
+  </si>
+  <si>
+    <t>FubenCenter2</t>
   </si>
   <si>
     <t>#封测二区</t>
@@ -1202,10 +1208,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O443"/>
+  <dimension ref="A3:O445"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:D59"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1532,31 +1538,31 @@
       <c r="C19" s="13">
         <v>113</v>
       </c>
-      <c r="D19" s="10">
-        <v>1</v>
-      </c>
-      <c r="E19" s="10">
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="3:7">
       <c r="C20" s="13">
         <v>114</v>
       </c>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10">
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>30</v>
@@ -1566,7 +1572,7 @@
       <c r="C21" s="13">
         <v>115</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="8">
         <v>1</v>
       </c>
       <c r="E21" s="10">
@@ -1583,10 +1589,10 @@
       <c r="C22" s="13">
         <v>116</v>
       </c>
-      <c r="D22" s="8">
-        <v>1</v>
-      </c>
-      <c r="E22" s="10">
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8">
         <v>1</v>
       </c>
       <c r="F22" s="8" t="s">
@@ -1603,52 +1609,44 @@
       <c r="D23" s="10">
         <v>1</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="10">
         <v>1</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>33</v>
       </c>
       <c r="G23" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="13">
+        <v>118</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="3:8">
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="13">
+      <c r="G24" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="13"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="13">
         <v>201</v>
-      </c>
-      <c r="D25" s="10">
-        <v>2</v>
-      </c>
-      <c r="E25" s="10">
-        <v>1</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="8">
-        <v>20335</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="13">
-        <v>202</v>
       </c>
       <c r="D26" s="10">
         <v>2</v>
@@ -1660,55 +1658,59 @@
         <v>15</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="10">
-        <v>20336</v>
-      </c>
-    </row>
-    <row r="27" s="7" customFormat="1" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="H26" s="8">
+        <v>20335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="13">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D27" s="10">
         <v>2</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="10">
         <v>1</v>
       </c>
       <c r="F27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="10">
+        <v>20336</v>
+      </c>
+    </row>
+    <row r="28" s="7" customFormat="1" spans="1:8">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="13">
+        <v>203</v>
+      </c>
+      <c r="D28" s="8">
+        <v>2</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G28" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H28" s="8">
         <v>20337</v>
       </c>
-    </row>
-    <row r="28" s="7" customFormat="1" spans="3:8">
-      <c r="C28" s="13">
-        <v>204</v>
-      </c>
-      <c r="D28" s="10">
-        <v>2</v>
-      </c>
-      <c r="E28" s="10">
-        <v>1</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="8"/>
     </row>
     <row r="29" s="7" customFormat="1" spans="3:8">
       <c r="C29" s="13">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D29" s="10">
         <v>2</v>
@@ -1717,16 +1719,16 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H29" s="8"/>
     </row>
     <row r="30" s="7" customFormat="1" spans="3:8">
       <c r="C30" s="13">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D30" s="10">
         <v>2</v>
@@ -1735,52 +1737,52 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H30" s="8"/>
     </row>
     <row r="31" s="7" customFormat="1" spans="3:8">
       <c r="C31" s="13">
-        <v>207</v>
-      </c>
-      <c r="D31" s="10">
+        <v>206</v>
+      </c>
+      <c r="D31" s="8">
         <v>2</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="10">
         <v>1</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H31" s="8"/>
     </row>
     <row r="32" s="7" customFormat="1" spans="3:8">
       <c r="C32" s="13">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D32" s="10">
         <v>2</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="8">
         <v>1</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H32" s="8"/>
     </row>
     <row r="33" s="7" customFormat="1" spans="3:8">
       <c r="C33" s="13">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D33" s="10">
         <v>2</v>
@@ -1789,88 +1791,88 @@
         <v>1</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H33" s="8"/>
     </row>
     <row r="34" s="7" customFormat="1" spans="3:8">
       <c r="C34" s="13">
-        <v>210</v>
-      </c>
-      <c r="D34" s="10">
+        <v>209</v>
+      </c>
+      <c r="D34" s="8">
         <v>2</v>
       </c>
       <c r="E34" s="10">
         <v>1</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H34" s="8"/>
     </row>
     <row r="35" s="7" customFormat="1" spans="3:8">
       <c r="C35" s="13">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D35" s="10">
         <v>2</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="10">
         <v>1</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H35" s="8"/>
     </row>
     <row r="36" s="7" customFormat="1" spans="3:8">
       <c r="C36" s="13">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D36" s="10">
         <v>2</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="8">
         <v>1</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H36" s="8"/>
     </row>
     <row r="37" s="7" customFormat="1" spans="3:8">
       <c r="C37" s="13">
-        <v>213</v>
-      </c>
-      <c r="D37" s="10">
+        <v>212</v>
+      </c>
+      <c r="D37" s="8">
         <v>2</v>
       </c>
       <c r="E37" s="10">
         <v>1</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H37" s="8"/>
     </row>
     <row r="38" s="7" customFormat="1" spans="3:8">
       <c r="C38" s="13">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D38" s="10">
         <v>2</v>
@@ -1879,16 +1881,16 @@
         <v>1</v>
       </c>
       <c r="F38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="H38" s="8"/>
     </row>
     <row r="39" s="7" customFormat="1" spans="3:8">
       <c r="C39" s="13">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D39" s="10">
         <v>2</v>
@@ -1897,34 +1899,34 @@
         <v>1</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H39" s="8"/>
     </row>
     <row r="40" s="7" customFormat="1" spans="3:8">
       <c r="C40" s="13">
-        <v>216</v>
-      </c>
-      <c r="D40" s="10">
+        <v>215</v>
+      </c>
+      <c r="D40" s="8">
         <v>2</v>
       </c>
       <c r="E40" s="10">
         <v>1</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H40" s="8"/>
     </row>
     <row r="41" s="7" customFormat="1" spans="3:8">
       <c r="C41" s="13">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D41" s="10">
         <v>2</v>
@@ -1933,84 +1935,83 @@
         <v>1</v>
       </c>
       <c r="F41" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" s="7" customFormat="1" spans="3:8">
+      <c r="C42" s="13">
+        <v>217</v>
+      </c>
+      <c r="D42" s="10">
+        <v>2</v>
+      </c>
+      <c r="E42" s="10">
+        <v>1</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G42" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" s="7" customFormat="1" spans="3:7">
+      <c r="C43" s="13">
+        <v>218</v>
+      </c>
+      <c r="D43" s="8">
+        <v>2</v>
+      </c>
+      <c r="E43" s="10">
+        <v>1</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" s="7" customFormat="1"/>
-    <row r="43" s="7" customFormat="1" spans="1:8">
-      <c r="A43" s="6" t="s">
+      <c r="G43" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="13">
+    </row>
+    <row r="44" s="7" customFormat="1" spans="3:7">
+      <c r="C44" s="13"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" s="7" customFormat="1" spans="1:8">
+      <c r="A45" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="13">
         <v>301</v>
-      </c>
-      <c r="D43" s="10">
-        <v>3</v>
-      </c>
-      <c r="E43" s="10">
-        <v>1</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="8">
-        <v>20345</v>
-      </c>
-    </row>
-    <row r="44" s="7" customFormat="1" spans="1:8">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="13">
-        <v>302</v>
-      </c>
-      <c r="D44" s="10">
-        <v>3</v>
-      </c>
-      <c r="E44" s="10">
-        <v>1</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="10">
-        <v>20346</v>
-      </c>
-    </row>
-    <row r="45" s="7" customFormat="1" spans="1:8">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="13">
-        <v>303</v>
       </c>
       <c r="D45" s="10">
         <v>3</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="10">
         <v>1</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H45" s="8">
-        <v>20347</v>
-      </c>
-    </row>
-    <row r="46" s="7" customFormat="1" spans="3:8">
+        <v>20345</v>
+      </c>
+    </row>
+    <row r="46" s="7" customFormat="1" spans="1:8">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
       <c r="C46" s="13">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D46" s="10">
         <v>3</v>
@@ -2019,34 +2020,40 @@
         <v>1</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" s="7" customFormat="1" spans="3:8">
+        <v>17</v>
+      </c>
+      <c r="H46" s="10">
+        <v>20346</v>
+      </c>
+    </row>
+    <row r="47" s="7" customFormat="1" spans="1:8">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
       <c r="C47" s="13">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D47" s="10">
         <v>3</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="8">
         <v>1</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="H47" s="8">
+        <v>20347</v>
+      </c>
     </row>
     <row r="48" s="7" customFormat="1" spans="3:8">
       <c r="C48" s="13">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D48" s="10">
         <v>3</v>
@@ -2055,34 +2062,34 @@
         <v>1</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H48" s="8"/>
     </row>
     <row r="49" s="7" customFormat="1" spans="3:8">
       <c r="C49" s="13">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D49" s="10">
         <v>3</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="10">
         <v>1</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H49" s="8"/>
     </row>
     <row r="50" s="7" customFormat="1" spans="3:8">
       <c r="C50" s="13">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D50" s="10">
         <v>3</v>
@@ -2091,34 +2098,34 @@
         <v>1</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H50" s="8"/>
     </row>
     <row r="51" s="7" customFormat="1" spans="3:8">
       <c r="C51" s="13">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D51" s="10">
         <v>3</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="8">
         <v>1</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" s="7" customFormat="1" ht="13.5" customHeight="1" spans="3:8">
+    <row r="52" s="7" customFormat="1" spans="3:8">
       <c r="C52" s="13">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D52" s="10">
         <v>3</v>
@@ -2127,34 +2134,34 @@
         <v>1</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H52" s="8"/>
     </row>
     <row r="53" s="7" customFormat="1" spans="3:8">
       <c r="C53" s="13">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D53" s="10">
         <v>3</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="10">
         <v>1</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" s="7" customFormat="1" spans="3:8">
+    <row r="54" s="7" customFormat="1" ht="13.5" customHeight="1" spans="3:8">
       <c r="C54" s="13">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D54" s="10">
         <v>3</v>
@@ -2163,70 +2170,70 @@
         <v>1</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H54" s="8"/>
     </row>
     <row r="55" s="7" customFormat="1" spans="3:8">
       <c r="C55" s="13">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D55" s="10">
         <v>3</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="8">
         <v>1</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H55" s="8"/>
     </row>
     <row r="56" s="7" customFormat="1" spans="3:8">
       <c r="C56" s="13">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D56" s="10">
         <v>3</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56" s="10">
         <v>1</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H56" s="8"/>
     </row>
     <row r="57" s="7" customFormat="1" spans="3:8">
       <c r="C57" s="13">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D57" s="10">
         <v>3</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="8">
         <v>1</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H57" s="8"/>
     </row>
     <row r="58" s="7" customFormat="1" spans="3:8">
       <c r="C58" s="13">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D58" s="10">
         <v>3</v>
@@ -2235,34 +2242,84 @@
         <v>1</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H58" s="8"/>
     </row>
     <row r="59" s="7" customFormat="1" spans="3:8">
       <c r="C59" s="13">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D59" s="10">
         <v>3</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E59" s="10">
         <v>1</v>
       </c>
       <c r="F59" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" s="7" customFormat="1" spans="3:8">
+      <c r="C60" s="13">
+        <v>316</v>
+      </c>
+      <c r="D60" s="10">
+        <v>3</v>
+      </c>
+      <c r="E60" s="8">
+        <v>1</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" s="7" customFormat="1" spans="3:8">
+      <c r="C61" s="13">
+        <v>317</v>
+      </c>
+      <c r="D61" s="10">
+        <v>3</v>
+      </c>
+      <c r="E61" s="10">
+        <v>1</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G61" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" s="7" customFormat="1" spans="3:7">
+      <c r="C62" s="13">
+        <v>318</v>
+      </c>
+      <c r="D62" s="10">
+        <v>3</v>
+      </c>
+      <c r="E62" s="10">
+        <v>1</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" s="7" customFormat="1"/>
-    <row r="61" s="7" customFormat="1"/>
-    <row r="62" s="7" customFormat="1"/>
+      <c r="G62" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="63" s="7" customFormat="1"/>
     <row r="64" s="7" customFormat="1"/>
     <row r="65" s="7" customFormat="1"/>
@@ -2642,21 +2699,23 @@
     <row r="439" s="7" customFormat="1"/>
     <row r="440" s="7" customFormat="1"/>
     <row r="441" s="7" customFormat="1"/>
-    <row r="442" s="7" customFormat="1" spans="3:8">
-      <c r="C442" s="11"/>
-      <c r="D442" s="8"/>
-      <c r="E442" s="8"/>
-      <c r="F442" s="8"/>
-      <c r="G442" s="8"/>
-      <c r="H442" s="8"/>
-    </row>
-    <row r="443" s="7" customFormat="1" spans="3:8">
-      <c r="C443" s="11"/>
-      <c r="D443" s="8"/>
-      <c r="E443" s="8"/>
-      <c r="F443" s="8"/>
-      <c r="G443" s="8"/>
-      <c r="H443" s="8"/>
+    <row r="442" s="7" customFormat="1"/>
+    <row r="443" s="7" customFormat="1"/>
+    <row r="444" s="7" customFormat="1" spans="3:8">
+      <c r="C444" s="11"/>
+      <c r="D444" s="8"/>
+      <c r="E444" s="8"/>
+      <c r="F444" s="8"/>
+      <c r="G444" s="8"/>
+      <c r="H444" s="8"/>
+    </row>
+    <row r="445" s="7" customFormat="1" spans="3:8">
+      <c r="C445" s="11"/>
+      <c r="D445" s="8"/>
+      <c r="E445" s="8"/>
+      <c r="F445" s="8"/>
+      <c r="G445" s="8"/>
+      <c r="H445" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2778,10 +2837,10 @@
         <v>1000</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H6" s="10">
         <v>30310</v>
@@ -2798,10 +2857,10 @@
         <v>1000</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H7" s="10">
         <v>30311</v>
@@ -2818,10 +2877,10 @@
         <v>1000</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -2836,10 +2895,10 @@
         <v>1000</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2854,7 +2913,7 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -2963,10 +3022,10 @@
         <v>1001</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -3130,10 +3189,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H6" s="5">
         <v>30300</v>
@@ -3152,10 +3211,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H7" s="5">
         <v>30301</v>
@@ -3174,10 +3233,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H8" s="5">
         <v>30302</v>
@@ -3196,10 +3255,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H9" s="5">
         <v>30303</v>
@@ -3218,10 +3277,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H10" s="5">
         <v>30304</v>

--- a/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="48">
   <si>
     <t>Id</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>FubenCenter1</t>
-  </si>
-  <si>
-    <t>FubenCenter2</t>
   </si>
   <si>
     <t>#封测二区</t>
@@ -1208,10 +1205,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O445"/>
+  <dimension ref="A3:O442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1619,34 +1616,39 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="3:7">
-      <c r="C24" s="13">
-        <v>118</v>
-      </c>
-      <c r="D24" s="10">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10">
-        <v>1</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="8" t="s">
+    <row r="24" spans="3:5">
+      <c r="C24" s="13"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="13"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="C25" s="13">
+        <v>201</v>
+      </c>
+      <c r="D25" s="10">
+        <v>2</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="8">
+        <v>20335</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="13">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D26" s="10">
         <v>2</v>
@@ -1658,59 +1660,55 @@
         <v>15</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="8">
-        <v>20335</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="H26" s="10">
+        <v>20336</v>
+      </c>
+    </row>
+    <row r="27" s="7" customFormat="1" spans="1:8">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="13">
-        <v>202</v>
-      </c>
-      <c r="D27" s="10">
+        <v>203</v>
+      </c>
+      <c r="D27" s="8">
         <v>2</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="8">
         <v>1</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="10">
-        <v>20336</v>
-      </c>
-    </row>
-    <row r="28" s="7" customFormat="1" spans="1:8">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="H27" s="8">
+        <v>20337</v>
+      </c>
+    </row>
+    <row r="28" s="7" customFormat="1" spans="3:8">
       <c r="C28" s="13">
-        <v>203</v>
-      </c>
-      <c r="D28" s="8">
+        <v>204</v>
+      </c>
+      <c r="D28" s="10">
         <v>2</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="10">
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="8">
-        <v>20337</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" s="7" customFormat="1" spans="3:8">
       <c r="C29" s="13">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D29" s="10">
         <v>2</v>
@@ -1719,299 +1717,306 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H29" s="8"/>
     </row>
     <row r="30" s="7" customFormat="1" spans="3:8">
       <c r="C30" s="13">
-        <v>205</v>
-      </c>
-      <c r="D30" s="10">
+        <v>206</v>
+      </c>
+      <c r="D30" s="8">
         <v>2</v>
       </c>
       <c r="E30" s="10">
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H30" s="8"/>
     </row>
     <row r="31" s="7" customFormat="1" spans="3:8">
       <c r="C31" s="13">
-        <v>206</v>
-      </c>
-      <c r="D31" s="8">
+        <v>207</v>
+      </c>
+      <c r="D31" s="10">
         <v>2</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="8">
         <v>1</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H31" s="8"/>
     </row>
     <row r="32" s="7" customFormat="1" spans="3:8">
       <c r="C32" s="13">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D32" s="10">
         <v>2</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="10">
         <v>1</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H32" s="8"/>
     </row>
     <row r="33" s="7" customFormat="1" spans="3:8">
       <c r="C33" s="13">
-        <v>208</v>
-      </c>
-      <c r="D33" s="10">
+        <v>209</v>
+      </c>
+      <c r="D33" s="8">
         <v>2</v>
       </c>
       <c r="E33" s="10">
         <v>1</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H33" s="8"/>
     </row>
     <row r="34" s="7" customFormat="1" spans="3:8">
       <c r="C34" s="13">
-        <v>209</v>
-      </c>
-      <c r="D34" s="8">
+        <v>210</v>
+      </c>
+      <c r="D34" s="10">
         <v>2</v>
       </c>
       <c r="E34" s="10">
         <v>1</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H34" s="8"/>
     </row>
     <row r="35" s="7" customFormat="1" spans="3:8">
       <c r="C35" s="13">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D35" s="10">
         <v>2</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="8">
         <v>1</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H35" s="8"/>
     </row>
     <row r="36" s="7" customFormat="1" spans="3:8">
       <c r="C36" s="13">
-        <v>211</v>
-      </c>
-      <c r="D36" s="10">
+        <v>212</v>
+      </c>
+      <c r="D36" s="8">
         <v>2</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="10">
         <v>1</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H36" s="8"/>
     </row>
     <row r="37" s="7" customFormat="1" spans="3:8">
       <c r="C37" s="13">
-        <v>212</v>
-      </c>
-      <c r="D37" s="8">
+        <v>213</v>
+      </c>
+      <c r="D37" s="10">
         <v>2</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="8">
         <v>1</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H37" s="8"/>
     </row>
     <row r="38" s="7" customFormat="1" spans="3:8">
       <c r="C38" s="13">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D38" s="10">
         <v>2</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="10">
         <v>1</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H38" s="8"/>
     </row>
     <row r="39" s="7" customFormat="1" spans="3:8">
       <c r="C39" s="13">
-        <v>214</v>
-      </c>
-      <c r="D39" s="10">
+        <v>215</v>
+      </c>
+      <c r="D39" s="8">
         <v>2</v>
       </c>
       <c r="E39" s="10">
         <v>1</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H39" s="8"/>
     </row>
     <row r="40" s="7" customFormat="1" spans="3:8">
       <c r="C40" s="13">
-        <v>215</v>
-      </c>
-      <c r="D40" s="8">
+        <v>216</v>
+      </c>
+      <c r="D40" s="10">
         <v>2</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="8">
         <v>1</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H40" s="8"/>
     </row>
     <row r="41" s="7" customFormat="1" spans="3:8">
       <c r="C41" s="13">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D41" s="10">
         <v>2</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="10">
         <v>1</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" s="7" customFormat="1" spans="3:8">
-      <c r="C42" s="13">
-        <v>217</v>
-      </c>
-      <c r="D42" s="10">
-        <v>2</v>
-      </c>
-      <c r="E42" s="10">
-        <v>1</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" s="7" customFormat="1" spans="3:7">
+    <row r="42" s="7" customFormat="1" spans="3:7">
+      <c r="C42" s="13"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" s="7" customFormat="1" spans="1:8">
+      <c r="A43" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="C43" s="13">
-        <v>218</v>
-      </c>
-      <c r="D43" s="8">
-        <v>2</v>
+        <v>301</v>
+      </c>
+      <c r="D43" s="10">
+        <v>3</v>
       </c>
       <c r="E43" s="10">
         <v>1</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" s="7" customFormat="1" spans="3:7">
-      <c r="C44" s="13"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="H43" s="8">
+        <v>20345</v>
+      </c>
+    </row>
+    <row r="44" s="7" customFormat="1" spans="1:8">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="13">
+        <v>302</v>
+      </c>
+      <c r="D44" s="10">
+        <v>3</v>
+      </c>
+      <c r="E44" s="10">
+        <v>1</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="10">
+        <v>20346</v>
+      </c>
     </row>
     <row r="45" s="7" customFormat="1" spans="1:8">
-      <c r="A45" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
       <c r="C45" s="13">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D45" s="10">
         <v>3</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="8">
         <v>1</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H45" s="8">
-        <v>20345</v>
-      </c>
-    </row>
-    <row r="46" s="7" customFormat="1" spans="1:8">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
+        <v>20347</v>
+      </c>
+    </row>
+    <row r="46" s="7" customFormat="1" spans="3:8">
       <c r="C46" s="13">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D46" s="10">
         <v>3</v>
@@ -2020,40 +2025,34 @@
         <v>1</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="10">
-        <v>20346</v>
-      </c>
-    </row>
-    <row r="47" s="7" customFormat="1" spans="1:8">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" s="7" customFormat="1" spans="3:8">
       <c r="C47" s="13">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D47" s="10">
         <v>3</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="10">
         <v>1</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" s="8">
-        <v>20347</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H47" s="8"/>
     </row>
     <row r="48" s="7" customFormat="1" spans="3:8">
       <c r="C48" s="13">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D48" s="10">
         <v>3</v>
@@ -2062,34 +2061,34 @@
         <v>1</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H48" s="8"/>
     </row>
     <row r="49" s="7" customFormat="1" spans="3:8">
       <c r="C49" s="13">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D49" s="10">
         <v>3</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="8">
         <v>1</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H49" s="8"/>
     </row>
     <row r="50" s="7" customFormat="1" spans="3:8">
       <c r="C50" s="13">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D50" s="10">
         <v>3</v>
@@ -2098,34 +2097,34 @@
         <v>1</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H50" s="8"/>
     </row>
     <row r="51" s="7" customFormat="1" spans="3:8">
       <c r="C51" s="13">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D51" s="10">
         <v>3</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="10">
         <v>1</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" s="7" customFormat="1" spans="3:8">
+    <row r="52" s="7" customFormat="1" ht="13.5" customHeight="1" spans="3:8">
       <c r="C52" s="13">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D52" s="10">
         <v>3</v>
@@ -2134,34 +2133,34 @@
         <v>1</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H52" s="8"/>
     </row>
     <row r="53" s="7" customFormat="1" spans="3:8">
       <c r="C53" s="13">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D53" s="10">
         <v>3</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="8">
         <v>1</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" s="7" customFormat="1" ht="13.5" customHeight="1" spans="3:8">
+    <row r="54" s="7" customFormat="1" spans="3:8">
       <c r="C54" s="13">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D54" s="10">
         <v>3</v>
@@ -2170,16 +2169,16 @@
         <v>1</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H54" s="8"/>
     </row>
     <row r="55" s="7" customFormat="1" spans="3:8">
       <c r="C55" s="13">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D55" s="10">
         <v>3</v>
@@ -2188,16 +2187,16 @@
         <v>1</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H55" s="8"/>
     </row>
     <row r="56" s="7" customFormat="1" spans="3:8">
       <c r="C56" s="13">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D56" s="10">
         <v>3</v>
@@ -2206,52 +2205,52 @@
         <v>1</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H56" s="8"/>
     </row>
     <row r="57" s="7" customFormat="1" spans="3:8">
       <c r="C57" s="13">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D57" s="10">
         <v>3</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57" s="10">
         <v>1</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H57" s="8"/>
     </row>
     <row r="58" s="7" customFormat="1" spans="3:8">
       <c r="C58" s="13">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D58" s="10">
         <v>3</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="8">
         <v>1</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H58" s="8"/>
     </row>
     <row r="59" s="7" customFormat="1" spans="3:8">
       <c r="C59" s="13">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D59" s="10">
         <v>3</v>
@@ -2260,66 +2259,16 @@
         <v>1</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H59" s="8"/>
     </row>
-    <row r="60" s="7" customFormat="1" spans="3:8">
-      <c r="C60" s="13">
-        <v>316</v>
-      </c>
-      <c r="D60" s="10">
-        <v>3</v>
-      </c>
-      <c r="E60" s="8">
-        <v>1</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" s="8"/>
-    </row>
-    <row r="61" s="7" customFormat="1" spans="3:8">
-      <c r="C61" s="13">
-        <v>317</v>
-      </c>
-      <c r="D61" s="10">
-        <v>3</v>
-      </c>
-      <c r="E61" s="10">
-        <v>1</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H61" s="8"/>
-    </row>
-    <row r="62" s="7" customFormat="1" spans="3:7">
-      <c r="C62" s="13">
-        <v>318</v>
-      </c>
-      <c r="D62" s="10">
-        <v>3</v>
-      </c>
-      <c r="E62" s="10">
-        <v>1</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
+    <row r="60" s="7" customFormat="1"/>
+    <row r="61" s="7" customFormat="1"/>
+    <row r="62" s="7" customFormat="1"/>
     <row r="63" s="7" customFormat="1"/>
     <row r="64" s="7" customFormat="1"/>
     <row r="65" s="7" customFormat="1"/>
@@ -2698,24 +2647,21 @@
     <row r="438" s="7" customFormat="1"/>
     <row r="439" s="7" customFormat="1"/>
     <row r="440" s="7" customFormat="1"/>
-    <row r="441" s="7" customFormat="1"/>
-    <row r="442" s="7" customFormat="1"/>
-    <row r="443" s="7" customFormat="1"/>
-    <row r="444" s="7" customFormat="1" spans="3:8">
-      <c r="C444" s="11"/>
-      <c r="D444" s="8"/>
-      <c r="E444" s="8"/>
-      <c r="F444" s="8"/>
-      <c r="G444" s="8"/>
-      <c r="H444" s="8"/>
-    </row>
-    <row r="445" s="7" customFormat="1" spans="3:8">
-      <c r="C445" s="11"/>
-      <c r="D445" s="8"/>
-      <c r="E445" s="8"/>
-      <c r="F445" s="8"/>
-      <c r="G445" s="8"/>
-      <c r="H445" s="8"/>
+    <row r="441" s="7" customFormat="1" spans="3:8">
+      <c r="C441" s="11"/>
+      <c r="D441" s="8"/>
+      <c r="E441" s="8"/>
+      <c r="F441" s="8"/>
+      <c r="G441" s="8"/>
+      <c r="H441" s="8"/>
+    </row>
+    <row r="442" s="7" customFormat="1" spans="3:8">
+      <c r="C442" s="11"/>
+      <c r="D442" s="8"/>
+      <c r="E442" s="8"/>
+      <c r="F442" s="8"/>
+      <c r="G442" s="8"/>
+      <c r="H442" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2837,10 +2783,10 @@
         <v>1000</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="10">
         <v>30310</v>
@@ -2857,10 +2803,10 @@
         <v>1000</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="10">
         <v>30311</v>
@@ -2877,10 +2823,10 @@
         <v>1000</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -2895,10 +2841,10 @@
         <v>1000</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3022,10 +2968,10 @@
         <v>1001</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -3189,10 +3135,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="5">
         <v>30300</v>
@@ -3211,10 +3157,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="H7" s="5">
         <v>30301</v>
@@ -3233,10 +3179,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="5">
         <v>30302</v>
@@ -3255,10 +3201,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="5">
         <v>30303</v>
@@ -3277,10 +3223,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="5">
         <v>30304</v>

--- a/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="49">
   <si>
     <t>Id</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>FubenCenter1</t>
+  </si>
+  <si>
+    <t>FubenCenter2</t>
   </si>
   <si>
     <t>#封测二区</t>
@@ -1205,10 +1208,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O442"/>
+  <dimension ref="A3:O445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1616,39 +1619,34 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
-      <c r="C24" s="13"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="6" t="s">
+    <row r="24" spans="3:7">
+      <c r="C24" s="13">
+        <v>118</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="13">
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="13"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="13">
         <v>201</v>
-      </c>
-      <c r="D25" s="10">
-        <v>2</v>
-      </c>
-      <c r="E25" s="10">
-        <v>1</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="8">
-        <v>20335</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="13">
-        <v>202</v>
       </c>
       <c r="D26" s="10">
         <v>2</v>
@@ -1660,55 +1658,59 @@
         <v>15</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="10">
-        <v>20336</v>
-      </c>
-    </row>
-    <row r="27" s="7" customFormat="1" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="H26" s="8">
+        <v>20335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="13">
+        <v>202</v>
+      </c>
+      <c r="D27" s="10">
+        <v>2</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="10">
+        <v>20336</v>
+      </c>
+    </row>
+    <row r="28" s="7" customFormat="1" spans="1:8">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="13">
         <v>203</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D28" s="8">
         <v>2</v>
       </c>
-      <c r="E27" s="8">
-        <v>1</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G28" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H28" s="8">
         <v>20337</v>
       </c>
-    </row>
-    <row r="28" s="7" customFormat="1" spans="3:8">
-      <c r="C28" s="13">
-        <v>204</v>
-      </c>
-      <c r="D28" s="10">
-        <v>2</v>
-      </c>
-      <c r="E28" s="10">
-        <v>1</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="8"/>
     </row>
     <row r="29" s="7" customFormat="1" spans="3:8">
       <c r="C29" s="13">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D29" s="10">
         <v>2</v>
@@ -1717,306 +1719,299 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H29" s="8"/>
     </row>
     <row r="30" s="7" customFormat="1" spans="3:8">
       <c r="C30" s="13">
-        <v>206</v>
-      </c>
-      <c r="D30" s="8">
+        <v>205</v>
+      </c>
+      <c r="D30" s="10">
         <v>2</v>
       </c>
       <c r="E30" s="10">
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H30" s="8"/>
     </row>
     <row r="31" s="7" customFormat="1" spans="3:8">
       <c r="C31" s="13">
-        <v>207</v>
-      </c>
-      <c r="D31" s="10">
+        <v>206</v>
+      </c>
+      <c r="D31" s="8">
         <v>2</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="10">
         <v>1</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H31" s="8"/>
     </row>
     <row r="32" s="7" customFormat="1" spans="3:8">
       <c r="C32" s="13">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D32" s="10">
         <v>2</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="8">
         <v>1</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H32" s="8"/>
     </row>
     <row r="33" s="7" customFormat="1" spans="3:8">
       <c r="C33" s="13">
-        <v>209</v>
-      </c>
-      <c r="D33" s="8">
+        <v>208</v>
+      </c>
+      <c r="D33" s="10">
         <v>2</v>
       </c>
       <c r="E33" s="10">
         <v>1</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H33" s="8"/>
     </row>
     <row r="34" s="7" customFormat="1" spans="3:8">
       <c r="C34" s="13">
-        <v>210</v>
-      </c>
-      <c r="D34" s="10">
+        <v>209</v>
+      </c>
+      <c r="D34" s="8">
         <v>2</v>
       </c>
       <c r="E34" s="10">
         <v>1</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H34" s="8"/>
     </row>
     <row r="35" s="7" customFormat="1" spans="3:8">
       <c r="C35" s="13">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D35" s="10">
         <v>2</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="10">
         <v>1</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H35" s="8"/>
     </row>
     <row r="36" s="7" customFormat="1" spans="3:8">
       <c r="C36" s="13">
-        <v>212</v>
-      </c>
-      <c r="D36" s="8">
+        <v>211</v>
+      </c>
+      <c r="D36" s="10">
         <v>2</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="8">
         <v>1</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H36" s="8"/>
     </row>
     <row r="37" s="7" customFormat="1" spans="3:8">
       <c r="C37" s="13">
-        <v>213</v>
-      </c>
-      <c r="D37" s="10">
+        <v>212</v>
+      </c>
+      <c r="D37" s="8">
         <v>2</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="10">
         <v>1</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H37" s="8"/>
     </row>
     <row r="38" s="7" customFormat="1" spans="3:8">
       <c r="C38" s="13">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D38" s="10">
         <v>2</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="8">
         <v>1</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H38" s="8"/>
     </row>
     <row r="39" s="7" customFormat="1" spans="3:8">
       <c r="C39" s="13">
-        <v>215</v>
-      </c>
-      <c r="D39" s="8">
+        <v>214</v>
+      </c>
+      <c r="D39" s="10">
         <v>2</v>
       </c>
       <c r="E39" s="10">
         <v>1</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H39" s="8"/>
     </row>
     <row r="40" s="7" customFormat="1" spans="3:8">
       <c r="C40" s="13">
-        <v>216</v>
-      </c>
-      <c r="D40" s="10">
+        <v>215</v>
+      </c>
+      <c r="D40" s="8">
         <v>2</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="10">
         <v>1</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H40" s="8"/>
     </row>
     <row r="41" s="7" customFormat="1" spans="3:8">
       <c r="C41" s="13">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D41" s="10">
         <v>2</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="8">
         <v>1</v>
       </c>
       <c r="F41" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" s="7" customFormat="1" spans="3:8">
+      <c r="C42" s="13">
+        <v>217</v>
+      </c>
+      <c r="D42" s="10">
+        <v>2</v>
+      </c>
+      <c r="E42" s="10">
+        <v>1</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G42" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" s="7" customFormat="1" spans="3:7">
-      <c r="C42" s="13"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" s="7" customFormat="1" spans="1:8">
-      <c r="A43" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" s="7" customFormat="1" spans="3:7">
       <c r="C43" s="13">
+        <v>218</v>
+      </c>
+      <c r="D43" s="8">
+        <v>2</v>
+      </c>
+      <c r="E43" s="10">
+        <v>1</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" s="7" customFormat="1" spans="3:7">
+      <c r="C44" s="13"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" s="7" customFormat="1" spans="1:8">
+      <c r="A45" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="13">
         <v>301</v>
-      </c>
-      <c r="D43" s="10">
-        <v>3</v>
-      </c>
-      <c r="E43" s="10">
-        <v>1</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="8">
-        <v>20345</v>
-      </c>
-    </row>
-    <row r="44" s="7" customFormat="1" spans="1:8">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="13">
-        <v>302</v>
-      </c>
-      <c r="D44" s="10">
-        <v>3</v>
-      </c>
-      <c r="E44" s="10">
-        <v>1</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="10">
-        <v>20346</v>
-      </c>
-    </row>
-    <row r="45" s="7" customFormat="1" spans="1:8">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="13">
-        <v>303</v>
       </c>
       <c r="D45" s="10">
         <v>3</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="10">
         <v>1</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H45" s="8">
-        <v>20347</v>
-      </c>
-    </row>
-    <row r="46" s="7" customFormat="1" spans="3:8">
+        <v>20345</v>
+      </c>
+    </row>
+    <row r="46" s="7" customFormat="1" spans="1:8">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
       <c r="C46" s="13">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D46" s="10">
         <v>3</v>
@@ -2025,34 +2020,40 @@
         <v>1</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" s="7" customFormat="1" spans="3:8">
+        <v>17</v>
+      </c>
+      <c r="H46" s="10">
+        <v>20346</v>
+      </c>
+    </row>
+    <row r="47" s="7" customFormat="1" spans="1:8">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
       <c r="C47" s="13">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D47" s="10">
         <v>3</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="8">
         <v>1</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="H47" s="8">
+        <v>20347</v>
+      </c>
     </row>
     <row r="48" s="7" customFormat="1" spans="3:8">
       <c r="C48" s="13">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D48" s="10">
         <v>3</v>
@@ -2061,34 +2062,34 @@
         <v>1</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H48" s="8"/>
     </row>
     <row r="49" s="7" customFormat="1" spans="3:8">
       <c r="C49" s="13">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D49" s="10">
         <v>3</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="10">
         <v>1</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H49" s="8"/>
     </row>
     <row r="50" s="7" customFormat="1" spans="3:8">
       <c r="C50" s="13">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D50" s="10">
         <v>3</v>
@@ -2097,34 +2098,34 @@
         <v>1</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H50" s="8"/>
     </row>
     <row r="51" s="7" customFormat="1" spans="3:8">
       <c r="C51" s="13">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D51" s="10">
         <v>3</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="8">
         <v>1</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" s="7" customFormat="1" ht="13.5" customHeight="1" spans="3:8">
+    <row r="52" s="7" customFormat="1" spans="3:8">
       <c r="C52" s="13">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D52" s="10">
         <v>3</v>
@@ -2133,34 +2134,34 @@
         <v>1</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H52" s="8"/>
     </row>
     <row r="53" s="7" customFormat="1" spans="3:8">
       <c r="C53" s="13">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D53" s="10">
         <v>3</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="10">
         <v>1</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" s="7" customFormat="1" spans="3:8">
+    <row r="54" s="7" customFormat="1" ht="13.5" customHeight="1" spans="3:8">
       <c r="C54" s="13">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D54" s="10">
         <v>3</v>
@@ -2169,16 +2170,16 @@
         <v>1</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H54" s="8"/>
     </row>
     <row r="55" s="7" customFormat="1" spans="3:8">
       <c r="C55" s="13">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D55" s="10">
         <v>3</v>
@@ -2187,16 +2188,16 @@
         <v>1</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H55" s="8"/>
     </row>
     <row r="56" s="7" customFormat="1" spans="3:8">
       <c r="C56" s="13">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D56" s="10">
         <v>3</v>
@@ -2205,52 +2206,52 @@
         <v>1</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H56" s="8"/>
     </row>
     <row r="57" s="7" customFormat="1" spans="3:8">
       <c r="C57" s="13">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D57" s="10">
         <v>3</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="8">
         <v>1</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H57" s="8"/>
     </row>
     <row r="58" s="7" customFormat="1" spans="3:8">
       <c r="C58" s="13">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D58" s="10">
         <v>3</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E58" s="10">
         <v>1</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H58" s="8"/>
     </row>
     <row r="59" s="7" customFormat="1" spans="3:8">
       <c r="C59" s="13">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D59" s="10">
         <v>3</v>
@@ -2259,16 +2260,66 @@
         <v>1</v>
       </c>
       <c r="F59" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" s="7" customFormat="1" spans="3:8">
+      <c r="C60" s="13">
+        <v>316</v>
+      </c>
+      <c r="D60" s="10">
+        <v>3</v>
+      </c>
+      <c r="E60" s="8">
+        <v>1</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" s="7" customFormat="1" spans="3:8">
+      <c r="C61" s="13">
+        <v>317</v>
+      </c>
+      <c r="D61" s="10">
+        <v>3</v>
+      </c>
+      <c r="E61" s="10">
+        <v>1</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G61" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" s="7" customFormat="1"/>
-    <row r="61" s="7" customFormat="1"/>
-    <row r="62" s="7" customFormat="1"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" s="7" customFormat="1" spans="3:7">
+      <c r="C62" s="13">
+        <v>318</v>
+      </c>
+      <c r="D62" s="10">
+        <v>3</v>
+      </c>
+      <c r="E62" s="10">
+        <v>1</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="63" s="7" customFormat="1"/>
     <row r="64" s="7" customFormat="1"/>
     <row r="65" s="7" customFormat="1"/>
@@ -2647,21 +2698,24 @@
     <row r="438" s="7" customFormat="1"/>
     <row r="439" s="7" customFormat="1"/>
     <row r="440" s="7" customFormat="1"/>
-    <row r="441" s="7" customFormat="1" spans="3:8">
-      <c r="C441" s="11"/>
-      <c r="D441" s="8"/>
-      <c r="E441" s="8"/>
-      <c r="F441" s="8"/>
-      <c r="G441" s="8"/>
-      <c r="H441" s="8"/>
-    </row>
-    <row r="442" s="7" customFormat="1" spans="3:8">
-      <c r="C442" s="11"/>
-      <c r="D442" s="8"/>
-      <c r="E442" s="8"/>
-      <c r="F442" s="8"/>
-      <c r="G442" s="8"/>
-      <c r="H442" s="8"/>
+    <row r="441" s="7" customFormat="1"/>
+    <row r="442" s="7" customFormat="1"/>
+    <row r="443" s="7" customFormat="1"/>
+    <row r="444" s="7" customFormat="1" spans="3:8">
+      <c r="C444" s="11"/>
+      <c r="D444" s="8"/>
+      <c r="E444" s="8"/>
+      <c r="F444" s="8"/>
+      <c r="G444" s="8"/>
+      <c r="H444" s="8"/>
+    </row>
+    <row r="445" s="7" customFormat="1" spans="3:8">
+      <c r="C445" s="11"/>
+      <c r="D445" s="8"/>
+      <c r="E445" s="8"/>
+      <c r="F445" s="8"/>
+      <c r="G445" s="8"/>
+      <c r="H445" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2783,10 +2837,10 @@
         <v>1000</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" s="10">
         <v>30310</v>
@@ -2803,10 +2857,10 @@
         <v>1000</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="10">
         <v>30311</v>
@@ -2823,10 +2877,10 @@
         <v>1000</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -2841,10 +2895,10 @@
         <v>1000</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2968,10 +3022,10 @@
         <v>1001</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -3026,8 +3080,8 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3132,13 +3186,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>3</v>
+        <v>1002</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" s="5">
         <v>30300</v>
@@ -3154,13 +3208,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>3</v>
+        <v>1002</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" s="5">
         <v>30301</v>
@@ -3176,13 +3230,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>3</v>
+        <v>1002</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="5">
         <v>30302</v>
@@ -3198,13 +3252,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>3</v>
+        <v>1002</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" s="5">
         <v>30303</v>
@@ -3220,13 +3274,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="5">
-        <v>3</v>
+        <v>1002</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" s="5">
         <v>30304</v>

--- a/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -3081,7 +3081,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3195,7 +3195,7 @@
         <v>43</v>
       </c>
       <c r="H6" s="5">
-        <v>30300</v>
+        <v>40300</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:8">
@@ -3217,7 +3217,7 @@
         <v>45</v>
       </c>
       <c r="H7" s="5">
-        <v>30301</v>
+        <v>40301</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:8">
@@ -3239,7 +3239,7 @@
         <v>46</v>
       </c>
       <c r="H8" s="5">
-        <v>30302</v>
+        <v>40302</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:8">
@@ -3261,7 +3261,7 @@
         <v>47</v>
       </c>
       <c r="H9" s="5">
-        <v>30303</v>
+        <v>40303</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:8">
@@ -3283,7 +3283,7 @@
         <v>48</v>
       </c>
       <c r="H10" s="5">
-        <v>30304</v>
+        <v>40304</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -3081,7 +3081,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3195,7 +3195,7 @@
         <v>43</v>
       </c>
       <c r="H6" s="5">
-        <v>40300</v>
+        <v>30300</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:8">
@@ -3217,7 +3217,7 @@
         <v>45</v>
       </c>
       <c r="H7" s="5">
-        <v>40301</v>
+        <v>30301</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:8">
@@ -3239,7 +3239,7 @@
         <v>46</v>
       </c>
       <c r="H8" s="5">
-        <v>40302</v>
+        <v>30302</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:8">
@@ -3261,7 +3261,7 @@
         <v>47</v>
       </c>
       <c r="H9" s="5">
-        <v>40303</v>
+        <v>30303</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:8">
@@ -3283,7 +3283,7 @@
         <v>48</v>
       </c>
       <c r="H10" s="5">
-        <v>40304</v>
+        <v>30304</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -1210,8 +1210,8 @@
   <sheetPr/>
   <dimension ref="A3:O445"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3080,7 +3080,7 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>

--- a/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -132,12 +132,6 @@
   </si>
   <si>
     <t>FubenCenter</t>
-  </si>
-  <si>
-    <t>FubenCenter1</t>
-  </si>
-  <si>
-    <t>FubenCenter2</t>
   </si>
   <si>
     <t>#封测二区</t>
@@ -1208,10 +1202,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O445"/>
+  <dimension ref="A3:O442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1616,37 +1610,42 @@
         <v>33</v>
       </c>
       <c r="G23" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" s="13"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="3:7">
-      <c r="C24" s="13">
-        <v>118</v>
-      </c>
-      <c r="D24" s="10">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10">
-        <v>1</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="13"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="C25" s="13">
+        <v>201</v>
+      </c>
+      <c r="D25" s="10">
+        <v>2</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="8">
+        <v>20335</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="13">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D26" s="10">
         <v>2</v>
@@ -1658,59 +1657,55 @@
         <v>15</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="8">
-        <v>20335</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="H26" s="10">
+        <v>20336</v>
+      </c>
+    </row>
+    <row r="27" s="7" customFormat="1" spans="1:8">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="13">
-        <v>202</v>
-      </c>
-      <c r="D27" s="10">
+        <v>203</v>
+      </c>
+      <c r="D27" s="8">
         <v>2</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="8">
         <v>1</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="10">
-        <v>20336</v>
-      </c>
-    </row>
-    <row r="28" s="7" customFormat="1" spans="1:8">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="H27" s="8">
+        <v>20337</v>
+      </c>
+    </row>
+    <row r="28" s="7" customFormat="1" spans="3:8">
       <c r="C28" s="13">
-        <v>203</v>
-      </c>
-      <c r="D28" s="8">
+        <v>204</v>
+      </c>
+      <c r="D28" s="10">
         <v>2</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="10">
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="8">
-        <v>20337</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" s="7" customFormat="1" spans="3:8">
       <c r="C29" s="13">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D29" s="10">
         <v>2</v>
@@ -1719,299 +1714,306 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H29" s="8"/>
     </row>
     <row r="30" s="7" customFormat="1" spans="3:8">
       <c r="C30" s="13">
-        <v>205</v>
-      </c>
-      <c r="D30" s="10">
+        <v>206</v>
+      </c>
+      <c r="D30" s="8">
         <v>2</v>
       </c>
       <c r="E30" s="10">
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H30" s="8"/>
     </row>
     <row r="31" s="7" customFormat="1" spans="3:8">
       <c r="C31" s="13">
-        <v>206</v>
-      </c>
-      <c r="D31" s="8">
+        <v>207</v>
+      </c>
+      <c r="D31" s="10">
         <v>2</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="8">
         <v>1</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H31" s="8"/>
     </row>
     <row r="32" s="7" customFormat="1" spans="3:8">
       <c r="C32" s="13">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D32" s="10">
         <v>2</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="10">
         <v>1</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H32" s="8"/>
     </row>
     <row r="33" s="7" customFormat="1" spans="3:8">
       <c r="C33" s="13">
-        <v>208</v>
-      </c>
-      <c r="D33" s="10">
+        <v>209</v>
+      </c>
+      <c r="D33" s="8">
         <v>2</v>
       </c>
       <c r="E33" s="10">
         <v>1</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H33" s="8"/>
     </row>
     <row r="34" s="7" customFormat="1" spans="3:8">
       <c r="C34" s="13">
-        <v>209</v>
-      </c>
-      <c r="D34" s="8">
+        <v>210</v>
+      </c>
+      <c r="D34" s="10">
         <v>2</v>
       </c>
       <c r="E34" s="10">
         <v>1</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H34" s="8"/>
     </row>
     <row r="35" s="7" customFormat="1" spans="3:8">
       <c r="C35" s="13">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D35" s="10">
         <v>2</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="8">
         <v>1</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H35" s="8"/>
     </row>
     <row r="36" s="7" customFormat="1" spans="3:8">
       <c r="C36" s="13">
-        <v>211</v>
-      </c>
-      <c r="D36" s="10">
+        <v>212</v>
+      </c>
+      <c r="D36" s="8">
         <v>2</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="10">
         <v>1</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H36" s="8"/>
     </row>
     <row r="37" s="7" customFormat="1" spans="3:8">
       <c r="C37" s="13">
-        <v>212</v>
-      </c>
-      <c r="D37" s="8">
+        <v>213</v>
+      </c>
+      <c r="D37" s="10">
         <v>2</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="8">
         <v>1</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H37" s="8"/>
     </row>
     <row r="38" s="7" customFormat="1" spans="3:8">
       <c r="C38" s="13">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D38" s="10">
         <v>2</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="10">
         <v>1</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H38" s="8"/>
     </row>
     <row r="39" s="7" customFormat="1" spans="3:8">
       <c r="C39" s="13">
-        <v>214</v>
-      </c>
-      <c r="D39" s="10">
+        <v>215</v>
+      </c>
+      <c r="D39" s="8">
         <v>2</v>
       </c>
       <c r="E39" s="10">
         <v>1</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H39" s="8"/>
     </row>
     <row r="40" s="7" customFormat="1" spans="3:8">
       <c r="C40" s="13">
-        <v>215</v>
-      </c>
-      <c r="D40" s="8">
+        <v>216</v>
+      </c>
+      <c r="D40" s="10">
         <v>2</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="8">
         <v>1</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H40" s="8"/>
     </row>
     <row r="41" s="7" customFormat="1" spans="3:8">
       <c r="C41" s="13">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D41" s="10">
         <v>2</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="10">
         <v>1</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" s="7" customFormat="1" spans="3:8">
-      <c r="C42" s="13">
-        <v>217</v>
-      </c>
-      <c r="D42" s="10">
-        <v>2</v>
-      </c>
-      <c r="E42" s="10">
-        <v>1</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" s="7" customFormat="1" spans="3:7">
+    <row r="42" s="7" customFormat="1" spans="3:7">
+      <c r="C42" s="13"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" s="7" customFormat="1" spans="1:8">
+      <c r="A43" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="C43" s="13">
-        <v>218</v>
-      </c>
-      <c r="D43" s="8">
-        <v>2</v>
+        <v>301</v>
+      </c>
+      <c r="D43" s="10">
+        <v>3</v>
       </c>
       <c r="E43" s="10">
         <v>1</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" s="7" customFormat="1" spans="3:7">
-      <c r="C44" s="13"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="H43" s="8">
+        <v>20345</v>
+      </c>
+    </row>
+    <row r="44" s="7" customFormat="1" spans="1:8">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="13">
+        <v>302</v>
+      </c>
+      <c r="D44" s="10">
+        <v>3</v>
+      </c>
+      <c r="E44" s="10">
+        <v>1</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="10">
+        <v>20346</v>
+      </c>
     </row>
     <row r="45" s="7" customFormat="1" spans="1:8">
-      <c r="A45" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
       <c r="C45" s="13">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D45" s="10">
         <v>3</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="8">
         <v>1</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H45" s="8">
-        <v>20345</v>
-      </c>
-    </row>
-    <row r="46" s="7" customFormat="1" spans="1:8">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
+        <v>20347</v>
+      </c>
+    </row>
+    <row r="46" s="7" customFormat="1" spans="3:8">
       <c r="C46" s="13">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D46" s="10">
         <v>3</v>
@@ -2020,40 +2022,34 @@
         <v>1</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="10">
-        <v>20346</v>
-      </c>
-    </row>
-    <row r="47" s="7" customFormat="1" spans="1:8">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" s="7" customFormat="1" spans="3:8">
       <c r="C47" s="13">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D47" s="10">
         <v>3</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="10">
         <v>1</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" s="8">
-        <v>20347</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H47" s="8"/>
     </row>
     <row r="48" s="7" customFormat="1" spans="3:8">
       <c r="C48" s="13">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D48" s="10">
         <v>3</v>
@@ -2062,34 +2058,34 @@
         <v>1</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H48" s="8"/>
     </row>
     <row r="49" s="7" customFormat="1" spans="3:8">
       <c r="C49" s="13">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D49" s="10">
         <v>3</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="8">
         <v>1</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H49" s="8"/>
     </row>
     <row r="50" s="7" customFormat="1" spans="3:8">
       <c r="C50" s="13">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D50" s="10">
         <v>3</v>
@@ -2098,34 +2094,34 @@
         <v>1</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H50" s="8"/>
     </row>
     <row r="51" s="7" customFormat="1" spans="3:8">
       <c r="C51" s="13">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D51" s="10">
         <v>3</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="10">
         <v>1</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" s="7" customFormat="1" spans="3:8">
+    <row r="52" s="7" customFormat="1" ht="13.5" customHeight="1" spans="3:8">
       <c r="C52" s="13">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D52" s="10">
         <v>3</v>
@@ -2134,34 +2130,34 @@
         <v>1</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H52" s="8"/>
     </row>
     <row r="53" s="7" customFormat="1" spans="3:8">
       <c r="C53" s="13">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D53" s="10">
         <v>3</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="8">
         <v>1</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" s="7" customFormat="1" ht="13.5" customHeight="1" spans="3:8">
+    <row r="54" s="7" customFormat="1" spans="3:8">
       <c r="C54" s="13">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D54" s="10">
         <v>3</v>
@@ -2170,16 +2166,16 @@
         <v>1</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H54" s="8"/>
     </row>
     <row r="55" s="7" customFormat="1" spans="3:8">
       <c r="C55" s="13">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D55" s="10">
         <v>3</v>
@@ -2188,16 +2184,16 @@
         <v>1</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H55" s="8"/>
     </row>
     <row r="56" s="7" customFormat="1" spans="3:8">
       <c r="C56" s="13">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D56" s="10">
         <v>3</v>
@@ -2206,52 +2202,52 @@
         <v>1</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H56" s="8"/>
     </row>
     <row r="57" s="7" customFormat="1" spans="3:8">
       <c r="C57" s="13">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D57" s="10">
         <v>3</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57" s="10">
         <v>1</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H57" s="8"/>
     </row>
     <row r="58" s="7" customFormat="1" spans="3:8">
       <c r="C58" s="13">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D58" s="10">
         <v>3</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="8">
         <v>1</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H58" s="8"/>
     </row>
     <row r="59" s="7" customFormat="1" spans="3:8">
       <c r="C59" s="13">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D59" s="10">
         <v>3</v>
@@ -2260,66 +2256,16 @@
         <v>1</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H59" s="8"/>
     </row>
-    <row r="60" s="7" customFormat="1" spans="3:8">
-      <c r="C60" s="13">
-        <v>316</v>
-      </c>
-      <c r="D60" s="10">
-        <v>3</v>
-      </c>
-      <c r="E60" s="8">
-        <v>1</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" s="8"/>
-    </row>
-    <row r="61" s="7" customFormat="1" spans="3:8">
-      <c r="C61" s="13">
-        <v>317</v>
-      </c>
-      <c r="D61" s="10">
-        <v>3</v>
-      </c>
-      <c r="E61" s="10">
-        <v>1</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H61" s="8"/>
-    </row>
-    <row r="62" s="7" customFormat="1" spans="3:7">
-      <c r="C62" s="13">
-        <v>318</v>
-      </c>
-      <c r="D62" s="10">
-        <v>3</v>
-      </c>
-      <c r="E62" s="10">
-        <v>1</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
+    <row r="60" s="7" customFormat="1"/>
+    <row r="61" s="7" customFormat="1"/>
+    <row r="62" s="7" customFormat="1"/>
     <row r="63" s="7" customFormat="1"/>
     <row r="64" s="7" customFormat="1"/>
     <row r="65" s="7" customFormat="1"/>
@@ -2698,24 +2644,21 @@
     <row r="438" s="7" customFormat="1"/>
     <row r="439" s="7" customFormat="1"/>
     <row r="440" s="7" customFormat="1"/>
-    <row r="441" s="7" customFormat="1"/>
-    <row r="442" s="7" customFormat="1"/>
-    <row r="443" s="7" customFormat="1"/>
-    <row r="444" s="7" customFormat="1" spans="3:8">
-      <c r="C444" s="11"/>
-      <c r="D444" s="8"/>
-      <c r="E444" s="8"/>
-      <c r="F444" s="8"/>
-      <c r="G444" s="8"/>
-      <c r="H444" s="8"/>
-    </row>
-    <row r="445" s="7" customFormat="1" spans="3:8">
-      <c r="C445" s="11"/>
-      <c r="D445" s="8"/>
-      <c r="E445" s="8"/>
-      <c r="F445" s="8"/>
-      <c r="G445" s="8"/>
-      <c r="H445" s="8"/>
+    <row r="441" s="7" customFormat="1" spans="3:8">
+      <c r="C441" s="11"/>
+      <c r="D441" s="8"/>
+      <c r="E441" s="8"/>
+      <c r="F441" s="8"/>
+      <c r="G441" s="8"/>
+      <c r="H441" s="8"/>
+    </row>
+    <row r="442" s="7" customFormat="1" spans="3:8">
+      <c r="C442" s="11"/>
+      <c r="D442" s="8"/>
+      <c r="E442" s="8"/>
+      <c r="F442" s="8"/>
+      <c r="G442" s="8"/>
+      <c r="H442" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2837,10 +2780,10 @@
         <v>1000</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H6" s="10">
         <v>30310</v>
@@ -2857,10 +2800,10 @@
         <v>1000</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H7" s="10">
         <v>30311</v>
@@ -2877,10 +2820,10 @@
         <v>1000</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -2895,10 +2838,10 @@
         <v>1000</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3022,10 +2965,10 @@
         <v>1001</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -3189,10 +3132,10 @@
         <v>1002</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H6" s="5">
         <v>30300</v>
@@ -3211,10 +3154,10 @@
         <v>1002</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H7" s="5">
         <v>30301</v>
@@ -3233,10 +3176,10 @@
         <v>1002</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="H8" s="5">
         <v>30302</v>
@@ -3255,10 +3198,10 @@
         <v>1002</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H9" s="5">
         <v>30303</v>
@@ -3277,10 +3220,10 @@
         <v>1002</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10" s="5">
         <v>30304</v>

--- a/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="48">
   <si>
     <t>Id</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>FubenCenter</t>
+  </si>
+  <si>
+    <t>PetMatch</t>
   </si>
   <si>
     <t>#封测二区</t>
@@ -1202,10 +1205,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O442"/>
+  <dimension ref="A3:O444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A43" sqref="$A43:$XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1613,39 +1616,34 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
-      <c r="C24" s="13"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="6" t="s">
+    <row r="24" spans="3:7">
+      <c r="C24" s="13">
+        <v>118</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="13">
+      <c r="G24" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="13"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="13">
         <v>201</v>
-      </c>
-      <c r="D25" s="10">
-        <v>2</v>
-      </c>
-      <c r="E25" s="10">
-        <v>1</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="8">
-        <v>20335</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="13">
-        <v>202</v>
       </c>
       <c r="D26" s="10">
         <v>2</v>
@@ -1657,55 +1655,59 @@
         <v>15</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="10">
-        <v>20336</v>
-      </c>
-    </row>
-    <row r="27" s="7" customFormat="1" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="H26" s="8">
+        <v>20335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="13">
+        <v>202</v>
+      </c>
+      <c r="D27" s="10">
+        <v>2</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="10">
+        <v>20336</v>
+      </c>
+    </row>
+    <row r="28" s="7" customFormat="1" spans="1:8">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="13">
         <v>203</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D28" s="8">
         <v>2</v>
       </c>
-      <c r="E27" s="8">
-        <v>1</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G28" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H28" s="8">
         <v>20337</v>
       </c>
-    </row>
-    <row r="28" s="7" customFormat="1" spans="3:8">
-      <c r="C28" s="13">
-        <v>204</v>
-      </c>
-      <c r="D28" s="10">
-        <v>2</v>
-      </c>
-      <c r="E28" s="10">
-        <v>1</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="8"/>
     </row>
     <row r="29" s="7" customFormat="1" spans="3:8">
       <c r="C29" s="13">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D29" s="10">
         <v>2</v>
@@ -1714,306 +1716,300 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H29" s="8"/>
     </row>
     <row r="30" s="7" customFormat="1" spans="3:8">
       <c r="C30" s="13">
-        <v>206</v>
-      </c>
-      <c r="D30" s="8">
+        <v>205</v>
+      </c>
+      <c r="D30" s="10">
         <v>2</v>
       </c>
       <c r="E30" s="10">
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H30" s="8"/>
     </row>
     <row r="31" s="7" customFormat="1" spans="3:8">
       <c r="C31" s="13">
-        <v>207</v>
-      </c>
-      <c r="D31" s="10">
+        <v>206</v>
+      </c>
+      <c r="D31" s="8">
         <v>2</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="10">
         <v>1</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H31" s="8"/>
     </row>
     <row r="32" s="7" customFormat="1" spans="3:8">
       <c r="C32" s="13">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D32" s="10">
         <v>2</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="8">
         <v>1</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H32" s="8"/>
     </row>
     <row r="33" s="7" customFormat="1" spans="3:8">
       <c r="C33" s="13">
-        <v>209</v>
-      </c>
-      <c r="D33" s="8">
+        <v>208</v>
+      </c>
+      <c r="D33" s="10">
         <v>2</v>
       </c>
       <c r="E33" s="10">
         <v>1</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H33" s="8"/>
     </row>
     <row r="34" s="7" customFormat="1" spans="3:8">
       <c r="C34" s="13">
-        <v>210</v>
-      </c>
-      <c r="D34" s="10">
+        <v>209</v>
+      </c>
+      <c r="D34" s="8">
         <v>2</v>
       </c>
       <c r="E34" s="10">
         <v>1</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H34" s="8"/>
     </row>
     <row r="35" s="7" customFormat="1" spans="3:8">
       <c r="C35" s="13">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D35" s="10">
         <v>2</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="10">
         <v>1</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H35" s="8"/>
     </row>
     <row r="36" s="7" customFormat="1" spans="3:8">
       <c r="C36" s="13">
-        <v>212</v>
-      </c>
-      <c r="D36" s="8">
+        <v>211</v>
+      </c>
+      <c r="D36" s="10">
         <v>2</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="8">
         <v>1</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H36" s="8"/>
     </row>
     <row r="37" s="7" customFormat="1" spans="3:8">
       <c r="C37" s="13">
-        <v>213</v>
-      </c>
-      <c r="D37" s="10">
+        <v>212</v>
+      </c>
+      <c r="D37" s="8">
         <v>2</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="10">
         <v>1</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H37" s="8"/>
     </row>
     <row r="38" s="7" customFormat="1" spans="3:8">
       <c r="C38" s="13">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D38" s="10">
         <v>2</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="8">
         <v>1</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H38" s="8"/>
     </row>
     <row r="39" s="7" customFormat="1" spans="3:8">
       <c r="C39" s="13">
-        <v>215</v>
-      </c>
-      <c r="D39" s="8">
+        <v>214</v>
+      </c>
+      <c r="D39" s="10">
         <v>2</v>
       </c>
       <c r="E39" s="10">
         <v>1</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H39" s="8"/>
     </row>
     <row r="40" s="7" customFormat="1" spans="3:8">
       <c r="C40" s="13">
-        <v>216</v>
-      </c>
-      <c r="D40" s="10">
+        <v>215</v>
+      </c>
+      <c r="D40" s="8">
         <v>2</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="10">
         <v>1</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H40" s="8"/>
     </row>
     <row r="41" s="7" customFormat="1" spans="3:8">
       <c r="C41" s="13">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D41" s="10">
         <v>2</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="8">
         <v>1</v>
       </c>
       <c r="F41" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" s="7" customFormat="1" spans="3:8">
+      <c r="C42" s="13">
+        <v>217</v>
+      </c>
+      <c r="D42" s="10">
+        <v>2</v>
+      </c>
+      <c r="E42" s="10">
+        <v>1</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G42" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" s="7" customFormat="1" spans="3:7">
-      <c r="C42" s="13"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" s="7" customFormat="1" spans="1:8">
-      <c r="A43" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" s="7" customFormat="1" spans="3:8">
       <c r="C43" s="13">
+        <v>218</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1</v>
+      </c>
+      <c r="E43" s="10">
+        <v>1</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" s="7" customFormat="1" spans="3:7">
+      <c r="C44" s="13"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" s="7" customFormat="1" spans="1:8">
+      <c r="A45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="13">
         <v>301</v>
-      </c>
-      <c r="D43" s="10">
-        <v>3</v>
-      </c>
-      <c r="E43" s="10">
-        <v>1</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="8">
-        <v>20345</v>
-      </c>
-    </row>
-    <row r="44" s="7" customFormat="1" spans="1:8">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="13">
-        <v>302</v>
-      </c>
-      <c r="D44" s="10">
-        <v>3</v>
-      </c>
-      <c r="E44" s="10">
-        <v>1</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="10">
-        <v>20346</v>
-      </c>
-    </row>
-    <row r="45" s="7" customFormat="1" spans="1:8">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="13">
-        <v>303</v>
       </c>
       <c r="D45" s="10">
         <v>3</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="10">
         <v>1</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H45" s="8">
-        <v>20347</v>
-      </c>
-    </row>
-    <row r="46" s="7" customFormat="1" spans="3:8">
+        <v>20345</v>
+      </c>
+    </row>
+    <row r="46" s="7" customFormat="1" spans="1:8">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
       <c r="C46" s="13">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D46" s="10">
         <v>3</v>
@@ -2022,34 +2018,40 @@
         <v>1</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" s="7" customFormat="1" spans="3:8">
+        <v>17</v>
+      </c>
+      <c r="H46" s="10">
+        <v>20346</v>
+      </c>
+    </row>
+    <row r="47" s="7" customFormat="1" spans="1:8">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
       <c r="C47" s="13">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D47" s="10">
         <v>3</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="8">
         <v>1</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="H47" s="8">
+        <v>20347</v>
+      </c>
     </row>
     <row r="48" s="7" customFormat="1" spans="3:8">
       <c r="C48" s="13">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D48" s="10">
         <v>3</v>
@@ -2058,34 +2060,34 @@
         <v>1</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H48" s="8"/>
     </row>
     <row r="49" s="7" customFormat="1" spans="3:8">
       <c r="C49" s="13">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D49" s="10">
         <v>3</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="10">
         <v>1</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H49" s="8"/>
     </row>
     <row r="50" s="7" customFormat="1" spans="3:8">
       <c r="C50" s="13">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D50" s="10">
         <v>3</v>
@@ -2094,34 +2096,34 @@
         <v>1</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H50" s="8"/>
     </row>
     <row r="51" s="7" customFormat="1" spans="3:8">
       <c r="C51" s="13">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D51" s="10">
         <v>3</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="8">
         <v>1</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" s="7" customFormat="1" ht="13.5" customHeight="1" spans="3:8">
+    <row r="52" s="7" customFormat="1" spans="3:8">
       <c r="C52" s="13">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D52" s="10">
         <v>3</v>
@@ -2130,34 +2132,34 @@
         <v>1</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H52" s="8"/>
     </row>
     <row r="53" s="7" customFormat="1" spans="3:8">
       <c r="C53" s="13">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D53" s="10">
         <v>3</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="10">
         <v>1</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" s="7" customFormat="1" spans="3:8">
+    <row r="54" s="7" customFormat="1" ht="13.5" customHeight="1" spans="3:8">
       <c r="C54" s="13">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D54" s="10">
         <v>3</v>
@@ -2166,16 +2168,16 @@
         <v>1</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H54" s="8"/>
     </row>
     <row r="55" s="7" customFormat="1" spans="3:8">
       <c r="C55" s="13">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D55" s="10">
         <v>3</v>
@@ -2184,16 +2186,16 @@
         <v>1</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H55" s="8"/>
     </row>
     <row r="56" s="7" customFormat="1" spans="3:8">
       <c r="C56" s="13">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D56" s="10">
         <v>3</v>
@@ -2202,52 +2204,52 @@
         <v>1</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H56" s="8"/>
     </row>
     <row r="57" s="7" customFormat="1" spans="3:8">
       <c r="C57" s="13">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D57" s="10">
         <v>3</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="8">
         <v>1</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H57" s="8"/>
     </row>
     <row r="58" s="7" customFormat="1" spans="3:8">
       <c r="C58" s="13">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D58" s="10">
         <v>3</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E58" s="10">
         <v>1</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H58" s="8"/>
     </row>
     <row r="59" s="7" customFormat="1" spans="3:8">
       <c r="C59" s="13">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D59" s="10">
         <v>3</v>
@@ -2256,16 +2258,66 @@
         <v>1</v>
       </c>
       <c r="F59" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" s="7" customFormat="1" spans="3:8">
+      <c r="C60" s="13">
+        <v>316</v>
+      </c>
+      <c r="D60" s="10">
+        <v>3</v>
+      </c>
+      <c r="E60" s="8">
+        <v>1</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" s="7" customFormat="1" spans="3:8">
+      <c r="C61" s="13">
+        <v>317</v>
+      </c>
+      <c r="D61" s="10">
+        <v>3</v>
+      </c>
+      <c r="E61" s="10">
+        <v>1</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G61" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" s="7" customFormat="1"/>
-    <row r="61" s="7" customFormat="1"/>
-    <row r="62" s="7" customFormat="1"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" s="7" customFormat="1" spans="3:7">
+      <c r="C62" s="13">
+        <v>318</v>
+      </c>
+      <c r="D62" s="8">
+        <v>1</v>
+      </c>
+      <c r="E62" s="10">
+        <v>1</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="63" s="7" customFormat="1"/>
     <row r="64" s="7" customFormat="1"/>
     <row r="65" s="7" customFormat="1"/>
@@ -2644,21 +2696,23 @@
     <row r="438" s="7" customFormat="1"/>
     <row r="439" s="7" customFormat="1"/>
     <row r="440" s="7" customFormat="1"/>
-    <row r="441" s="7" customFormat="1" spans="3:8">
-      <c r="C441" s="11"/>
-      <c r="D441" s="8"/>
-      <c r="E441" s="8"/>
-      <c r="F441" s="8"/>
-      <c r="G441" s="8"/>
-      <c r="H441" s="8"/>
-    </row>
-    <row r="442" s="7" customFormat="1" spans="3:8">
-      <c r="C442" s="11"/>
-      <c r="D442" s="8"/>
-      <c r="E442" s="8"/>
-      <c r="F442" s="8"/>
-      <c r="G442" s="8"/>
-      <c r="H442" s="8"/>
+    <row r="441" s="7" customFormat="1"/>
+    <row r="442" s="7" customFormat="1"/>
+    <row r="443" s="7" customFormat="1" spans="3:8">
+      <c r="C443" s="11"/>
+      <c r="D443" s="8"/>
+      <c r="E443" s="8"/>
+      <c r="F443" s="8"/>
+      <c r="G443" s="8"/>
+      <c r="H443" s="8"/>
+    </row>
+    <row r="444" s="7" customFormat="1" spans="3:8">
+      <c r="C444" s="11"/>
+      <c r="D444" s="8"/>
+      <c r="E444" s="8"/>
+      <c r="F444" s="8"/>
+      <c r="G444" s="8"/>
+      <c r="H444" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2780,10 +2834,10 @@
         <v>1000</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6" s="10">
         <v>30310</v>
@@ -2800,10 +2854,10 @@
         <v>1000</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="10">
         <v>30311</v>
@@ -2820,10 +2874,10 @@
         <v>1000</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -2838,10 +2892,10 @@
         <v>1000</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2965,10 +3019,10 @@
         <v>1001</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -3132,10 +3186,10 @@
         <v>1002</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6" s="5">
         <v>30300</v>
@@ -3154,10 +3208,10 @@
         <v>1002</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" s="5">
         <v>30301</v>
@@ -3176,10 +3230,10 @@
         <v>1002</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" s="5">
         <v>30302</v>
@@ -3198,10 +3252,10 @@
         <v>1002</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" s="5">
         <v>30303</v>
@@ -3220,10 +3274,10 @@
         <v>1002</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" s="5">
         <v>30304</v>

--- a/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="50">
   <si>
     <t>Id</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>FubenCenter</t>
+  </si>
+  <si>
+    <t>FubenCenter1</t>
+  </si>
+  <si>
+    <t>FubenCenter2</t>
   </si>
   <si>
     <t>PetMatch</t>
@@ -1205,10 +1211,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O444"/>
+  <dimension ref="A3:O447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A43" sqref="$A43:$XFD43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1613,59 +1619,54 @@
         <v>33</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="3:7">
       <c r="C24" s="13">
         <v>118</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="10">
         <v>1</v>
       </c>
       <c r="E24" s="10">
         <v>1</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="13"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="13">
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" s="13">
+        <v>119</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26" s="13"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="13">
         <v>201</v>
-      </c>
-      <c r="D26" s="10">
-        <v>2</v>
-      </c>
-      <c r="E26" s="10">
-        <v>1</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="8">
-        <v>20335</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="13">
-        <v>202</v>
       </c>
       <c r="D27" s="10">
         <v>2</v>
@@ -1677,55 +1678,59 @@
         <v>15</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="10">
-        <v>20336</v>
-      </c>
-    </row>
-    <row r="28" s="7" customFormat="1" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="H27" s="8">
+        <v>20335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="13">
+        <v>202</v>
+      </c>
+      <c r="D28" s="10">
+        <v>2</v>
+      </c>
+      <c r="E28" s="10">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="10">
+        <v>20336</v>
+      </c>
+    </row>
+    <row r="29" s="7" customFormat="1" spans="1:8">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="13">
         <v>203</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D29" s="8">
         <v>2</v>
       </c>
-      <c r="E28" s="8">
-        <v>1</v>
-      </c>
-      <c r="F28" s="8" t="s">
+      <c r="E29" s="8">
+        <v>1</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H29" s="8">
         <v>20337</v>
       </c>
-    </row>
-    <row r="29" s="7" customFormat="1" spans="3:8">
-      <c r="C29" s="13">
-        <v>204</v>
-      </c>
-      <c r="D29" s="10">
-        <v>2</v>
-      </c>
-      <c r="E29" s="10">
-        <v>1</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="8"/>
     </row>
     <row r="30" s="7" customFormat="1" spans="3:8">
       <c r="C30" s="13">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D30" s="10">
         <v>2</v>
@@ -1734,241 +1739,241 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H30" s="8"/>
     </row>
     <row r="31" s="7" customFormat="1" spans="3:8">
       <c r="C31" s="13">
-        <v>206</v>
-      </c>
-      <c r="D31" s="8">
+        <v>205</v>
+      </c>
+      <c r="D31" s="10">
         <v>2</v>
       </c>
       <c r="E31" s="10">
         <v>1</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H31" s="8"/>
     </row>
     <row r="32" s="7" customFormat="1" spans="3:8">
       <c r="C32" s="13">
-        <v>207</v>
-      </c>
-      <c r="D32" s="10">
+        <v>206</v>
+      </c>
+      <c r="D32" s="8">
         <v>2</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="10">
         <v>1</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H32" s="8"/>
     </row>
     <row r="33" s="7" customFormat="1" spans="3:8">
       <c r="C33" s="13">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D33" s="10">
         <v>2</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="8">
         <v>1</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H33" s="8"/>
     </row>
     <row r="34" s="7" customFormat="1" spans="3:8">
       <c r="C34" s="13">
-        <v>209</v>
-      </c>
-      <c r="D34" s="8">
+        <v>208</v>
+      </c>
+      <c r="D34" s="10">
         <v>2</v>
       </c>
       <c r="E34" s="10">
         <v>1</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H34" s="8"/>
     </row>
     <row r="35" s="7" customFormat="1" spans="3:8">
       <c r="C35" s="13">
-        <v>210</v>
-      </c>
-      <c r="D35" s="10">
+        <v>209</v>
+      </c>
+      <c r="D35" s="8">
         <v>2</v>
       </c>
       <c r="E35" s="10">
         <v>1</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H35" s="8"/>
     </row>
     <row r="36" s="7" customFormat="1" spans="3:8">
       <c r="C36" s="13">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D36" s="10">
         <v>2</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="10">
         <v>1</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H36" s="8"/>
     </row>
     <row r="37" s="7" customFormat="1" spans="3:8">
       <c r="C37" s="13">
-        <v>212</v>
-      </c>
-      <c r="D37" s="8">
+        <v>211</v>
+      </c>
+      <c r="D37" s="10">
         <v>2</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="8">
         <v>1</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H37" s="8"/>
     </row>
     <row r="38" s="7" customFormat="1" spans="3:8">
       <c r="C38" s="13">
-        <v>213</v>
-      </c>
-      <c r="D38" s="10">
+        <v>212</v>
+      </c>
+      <c r="D38" s="8">
         <v>2</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="10">
         <v>1</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H38" s="8"/>
     </row>
     <row r="39" s="7" customFormat="1" spans="3:8">
       <c r="C39" s="13">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D39" s="10">
         <v>2</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="8">
         <v>1</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H39" s="8"/>
     </row>
     <row r="40" s="7" customFormat="1" spans="3:8">
       <c r="C40" s="13">
-        <v>215</v>
-      </c>
-      <c r="D40" s="8">
+        <v>214</v>
+      </c>
+      <c r="D40" s="10">
         <v>2</v>
       </c>
       <c r="E40" s="10">
         <v>1</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H40" s="8"/>
     </row>
     <row r="41" s="7" customFormat="1" spans="3:8">
       <c r="C41" s="13">
-        <v>216</v>
-      </c>
-      <c r="D41" s="10">
+        <v>215</v>
+      </c>
+      <c r="D41" s="8">
         <v>2</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="10">
         <v>1</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H41" s="8"/>
     </row>
     <row r="42" s="7" customFormat="1" spans="3:8">
       <c r="C42" s="13">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D42" s="10">
         <v>2</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="8">
         <v>1</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H42" s="8"/>
     </row>
     <row r="43" s="7" customFormat="1" spans="3:8">
       <c r="C43" s="13">
-        <v>218</v>
-      </c>
-      <c r="D43" s="8">
-        <v>1</v>
+        <v>217</v>
+      </c>
+      <c r="D43" s="10">
+        <v>2</v>
       </c>
       <c r="E43" s="10">
         <v>1</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>34</v>
@@ -1976,82 +1981,74 @@
       <c r="H43" s="8"/>
     </row>
     <row r="44" s="7" customFormat="1" spans="3:7">
-      <c r="C44" s="13"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" s="7" customFormat="1" spans="1:8">
-      <c r="A45" s="6" t="s">
+      <c r="C44" s="13">
+        <v>218</v>
+      </c>
+      <c r="D44" s="8">
+        <v>2</v>
+      </c>
+      <c r="E44" s="10">
+        <v>1</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" s="7" customFormat="1" spans="3:7">
+      <c r="C45" s="13">
+        <v>219</v>
+      </c>
+      <c r="D45" s="10">
+        <v>2</v>
+      </c>
+      <c r="E45" s="10">
+        <v>1</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="13">
+      <c r="G45" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" s="7" customFormat="1" spans="3:7">
+      <c r="C46" s="13"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" s="7" customFormat="1" spans="1:8">
+      <c r="A47" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="13">
         <v>301</v>
-      </c>
-      <c r="D45" s="10">
-        <v>3</v>
-      </c>
-      <c r="E45" s="10">
-        <v>1</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="8">
-        <v>20345</v>
-      </c>
-    </row>
-    <row r="46" s="7" customFormat="1" spans="1:8">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="13">
-        <v>302</v>
-      </c>
-      <c r="D46" s="10">
-        <v>3</v>
-      </c>
-      <c r="E46" s="10">
-        <v>1</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="10">
-        <v>20346</v>
-      </c>
-    </row>
-    <row r="47" s="7" customFormat="1" spans="1:8">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="13">
-        <v>303</v>
       </c>
       <c r="D47" s="10">
         <v>3</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="10">
         <v>1</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H47" s="8">
-        <v>20347</v>
-      </c>
-    </row>
-    <row r="48" s="7" customFormat="1" spans="3:8">
+        <v>20345</v>
+      </c>
+    </row>
+    <row r="48" s="7" customFormat="1" spans="1:8">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
       <c r="C48" s="13">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D48" s="10">
         <v>3</v>
@@ -2060,34 +2057,40 @@
         <v>1</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" s="7" customFormat="1" spans="3:8">
+        <v>17</v>
+      </c>
+      <c r="H48" s="10">
+        <v>20346</v>
+      </c>
+    </row>
+    <row r="49" s="7" customFormat="1" spans="1:8">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
       <c r="C49" s="13">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D49" s="10">
         <v>3</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="8">
         <v>1</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H49" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="H49" s="8">
+        <v>20347</v>
+      </c>
     </row>
     <row r="50" s="7" customFormat="1" spans="3:8">
       <c r="C50" s="13">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D50" s="10">
         <v>3</v>
@@ -2096,34 +2099,34 @@
         <v>1</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H50" s="8"/>
     </row>
     <row r="51" s="7" customFormat="1" spans="3:8">
       <c r="C51" s="13">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D51" s="10">
         <v>3</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="10">
         <v>1</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H51" s="8"/>
     </row>
     <row r="52" s="7" customFormat="1" spans="3:8">
       <c r="C52" s="13">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D52" s="10">
         <v>3</v>
@@ -2132,34 +2135,34 @@
         <v>1</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H52" s="8"/>
     </row>
     <row r="53" s="7" customFormat="1" spans="3:8">
       <c r="C53" s="13">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D53" s="10">
         <v>3</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="8">
         <v>1</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" s="7" customFormat="1" ht="13.5" customHeight="1" spans="3:8">
+    <row r="54" s="7" customFormat="1" spans="3:8">
       <c r="C54" s="13">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D54" s="10">
         <v>3</v>
@@ -2168,34 +2171,34 @@
         <v>1</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H54" s="8"/>
     </row>
     <row r="55" s="7" customFormat="1" spans="3:8">
       <c r="C55" s="13">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D55" s="10">
         <v>3</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="10">
         <v>1</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H55" s="8"/>
     </row>
-    <row r="56" s="7" customFormat="1" spans="3:8">
+    <row r="56" s="7" customFormat="1" ht="13.5" customHeight="1" spans="3:8">
       <c r="C56" s="13">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D56" s="10">
         <v>3</v>
@@ -2204,16 +2207,16 @@
         <v>1</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H56" s="8"/>
     </row>
     <row r="57" s="7" customFormat="1" spans="3:8">
       <c r="C57" s="13">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D57" s="10">
         <v>3</v>
@@ -2222,16 +2225,16 @@
         <v>1</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H57" s="8"/>
     </row>
     <row r="58" s="7" customFormat="1" spans="3:8">
       <c r="C58" s="13">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D58" s="10">
         <v>3</v>
@@ -2240,52 +2243,52 @@
         <v>1</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H58" s="8"/>
     </row>
     <row r="59" s="7" customFormat="1" spans="3:8">
       <c r="C59" s="13">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D59" s="10">
         <v>3</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="8">
         <v>1</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H59" s="8"/>
     </row>
     <row r="60" s="7" customFormat="1" spans="3:8">
       <c r="C60" s="13">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D60" s="10">
         <v>3</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E60" s="10">
         <v>1</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H60" s="8"/>
     </row>
     <row r="61" s="7" customFormat="1" spans="3:8">
       <c r="C61" s="13">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D61" s="10">
         <v>3</v>
@@ -2294,33 +2297,83 @@
         <v>1</v>
       </c>
       <c r="F61" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" s="7" customFormat="1" spans="3:8">
+      <c r="C62" s="13">
+        <v>316</v>
+      </c>
+      <c r="D62" s="10">
+        <v>3</v>
+      </c>
+      <c r="E62" s="8">
+        <v>1</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" s="7" customFormat="1" spans="3:8">
+      <c r="C63" s="13">
+        <v>317</v>
+      </c>
+      <c r="D63" s="10">
+        <v>3</v>
+      </c>
+      <c r="E63" s="10">
+        <v>1</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G63" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" s="7" customFormat="1" spans="3:7">
+      <c r="C64" s="13">
+        <v>318</v>
+      </c>
+      <c r="D64" s="10">
+        <v>3</v>
+      </c>
+      <c r="E64" s="10">
+        <v>1</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H61" s="8"/>
-    </row>
-    <row r="62" s="7" customFormat="1" spans="3:7">
-      <c r="C62" s="13">
-        <v>318</v>
-      </c>
-      <c r="D62" s="8">
-        <v>1</v>
-      </c>
-      <c r="E62" s="10">
-        <v>1</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" s="7" customFormat="1"/>
-    <row r="64" s="7" customFormat="1"/>
-    <row r="65" s="7" customFormat="1"/>
+      <c r="G64" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" s="7" customFormat="1" spans="3:7">
+      <c r="C65" s="13">
+        <v>319</v>
+      </c>
+      <c r="D65" s="10">
+        <v>3</v>
+      </c>
+      <c r="E65" s="10">
+        <v>1</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="66" s="7" customFormat="1"/>
     <row r="67" s="7" customFormat="1"/>
     <row r="68" s="7" customFormat="1"/>
@@ -2698,21 +2751,24 @@
     <row r="440" s="7" customFormat="1"/>
     <row r="441" s="7" customFormat="1"/>
     <row r="442" s="7" customFormat="1"/>
-    <row r="443" s="7" customFormat="1" spans="3:8">
-      <c r="C443" s="11"/>
-      <c r="D443" s="8"/>
-      <c r="E443" s="8"/>
-      <c r="F443" s="8"/>
-      <c r="G443" s="8"/>
-      <c r="H443" s="8"/>
-    </row>
-    <row r="444" s="7" customFormat="1" spans="3:8">
-      <c r="C444" s="11"/>
-      <c r="D444" s="8"/>
-      <c r="E444" s="8"/>
-      <c r="F444" s="8"/>
-      <c r="G444" s="8"/>
-      <c r="H444" s="8"/>
+    <row r="443" s="7" customFormat="1"/>
+    <row r="444" s="7" customFormat="1"/>
+    <row r="445" s="7" customFormat="1"/>
+    <row r="446" s="7" customFormat="1" spans="3:8">
+      <c r="C446" s="11"/>
+      <c r="D446" s="8"/>
+      <c r="E446" s="8"/>
+      <c r="F446" s="8"/>
+      <c r="G446" s="8"/>
+      <c r="H446" s="8"/>
+    </row>
+    <row r="447" s="7" customFormat="1" spans="3:8">
+      <c r="C447" s="11"/>
+      <c r="D447" s="8"/>
+      <c r="E447" s="8"/>
+      <c r="F447" s="8"/>
+      <c r="G447" s="8"/>
+      <c r="H447" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2834,10 +2890,10 @@
         <v>1000</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H6" s="10">
         <v>30310</v>
@@ -2854,10 +2910,10 @@
         <v>1000</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7" s="10">
         <v>30311</v>
@@ -2874,10 +2930,10 @@
         <v>1000</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -2892,10 +2948,10 @@
         <v>1000</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3019,10 +3075,10 @@
         <v>1001</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -3186,10 +3242,10 @@
         <v>1002</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H6" s="5">
         <v>30300</v>
@@ -3208,10 +3264,10 @@
         <v>1002</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H7" s="5">
         <v>30301</v>
@@ -3230,10 +3286,10 @@
         <v>1002</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H8" s="5">
         <v>30302</v>
@@ -3252,10 +3308,10 @@
         <v>1002</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H9" s="5">
         <v>30303</v>
@@ -3274,10 +3330,10 @@
         <v>1002</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H10" s="5">
         <v>30304</v>

--- a/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="51">
   <si>
     <t>Id</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>#封测三区</t>
+  </si>
+  <si>
+    <t>#版号区</t>
   </si>
   <si>
     <t>LoginCenter</t>
@@ -1213,8 +1216,8 @@
   <sheetPr/>
   <dimension ref="A3:O447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2375,25 +2378,359 @@
       </c>
     </row>
     <row r="66" s="7" customFormat="1"/>
-    <row r="67" s="7" customFormat="1"/>
-    <row r="68" s="7" customFormat="1"/>
-    <row r="69" s="7" customFormat="1"/>
-    <row r="70" s="7" customFormat="1"/>
-    <row r="71" s="7" customFormat="1"/>
-    <row r="72" s="7" customFormat="1"/>
-    <row r="73" s="7" customFormat="1"/>
-    <row r="74" s="7" customFormat="1"/>
-    <row r="75" s="7" customFormat="1"/>
-    <row r="76" s="7" customFormat="1"/>
-    <row r="77" s="7" customFormat="1"/>
-    <row r="78" s="7" customFormat="1"/>
-    <row r="79" s="7" customFormat="1"/>
-    <row r="80" s="7" customFormat="1"/>
-    <row r="81" s="7" customFormat="1"/>
-    <row r="82" s="7" customFormat="1"/>
-    <row r="83" s="7" customFormat="1"/>
-    <row r="84" s="7" customFormat="1"/>
-    <row r="85" s="7" customFormat="1"/>
+    <row r="67" s="7" customFormat="1" spans="1:8">
+      <c r="A67" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="13">
+        <v>101101</v>
+      </c>
+      <c r="D67" s="10">
+        <v>1011</v>
+      </c>
+      <c r="E67" s="10">
+        <v>1</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" s="8">
+        <v>20355</v>
+      </c>
+    </row>
+    <row r="68" s="7" customFormat="1" spans="1:8">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="13">
+        <v>101102</v>
+      </c>
+      <c r="D68" s="10">
+        <v>1011</v>
+      </c>
+      <c r="E68" s="10">
+        <v>1</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" s="10">
+        <v>20356</v>
+      </c>
+    </row>
+    <row r="69" s="7" customFormat="1" spans="1:8">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="13">
+        <v>101103</v>
+      </c>
+      <c r="D69" s="10">
+        <v>1011</v>
+      </c>
+      <c r="E69" s="8">
+        <v>1</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="8">
+        <v>20357</v>
+      </c>
+    </row>
+    <row r="70" s="7" customFormat="1" spans="3:8">
+      <c r="C70" s="13">
+        <v>101104</v>
+      </c>
+      <c r="D70" s="10">
+        <v>1011</v>
+      </c>
+      <c r="E70" s="10">
+        <v>1</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="8"/>
+    </row>
+    <row r="71" s="7" customFormat="1" spans="3:8">
+      <c r="C71" s="13">
+        <v>101105</v>
+      </c>
+      <c r="D71" s="10">
+        <v>1011</v>
+      </c>
+      <c r="E71" s="10">
+        <v>1</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="8"/>
+    </row>
+    <row r="72" s="7" customFormat="1" spans="3:8">
+      <c r="C72" s="13">
+        <v>101106</v>
+      </c>
+      <c r="D72" s="10">
+        <v>1011</v>
+      </c>
+      <c r="E72" s="10">
+        <v>1</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" s="8"/>
+    </row>
+    <row r="73" s="7" customFormat="1" spans="3:8">
+      <c r="C73" s="13">
+        <v>101107</v>
+      </c>
+      <c r="D73" s="10">
+        <v>1011</v>
+      </c>
+      <c r="E73" s="8">
+        <v>1</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" s="8"/>
+    </row>
+    <row r="74" s="7" customFormat="1" spans="3:8">
+      <c r="C74" s="13">
+        <v>101108</v>
+      </c>
+      <c r="D74" s="10">
+        <v>1011</v>
+      </c>
+      <c r="E74" s="10">
+        <v>1</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H74" s="8"/>
+    </row>
+    <row r="75" s="7" customFormat="1" spans="3:8">
+      <c r="C75" s="13">
+        <v>101109</v>
+      </c>
+      <c r="D75" s="10">
+        <v>1011</v>
+      </c>
+      <c r="E75" s="10">
+        <v>1</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" s="8"/>
+    </row>
+    <row r="76" s="7" customFormat="1" spans="3:8">
+      <c r="C76" s="13">
+        <v>101110</v>
+      </c>
+      <c r="D76" s="10">
+        <v>1011</v>
+      </c>
+      <c r="E76" s="10">
+        <v>1</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H76" s="8"/>
+    </row>
+    <row r="77" s="7" customFormat="1" spans="3:8">
+      <c r="C77" s="13">
+        <v>101111</v>
+      </c>
+      <c r="D77" s="10">
+        <v>1011</v>
+      </c>
+      <c r="E77" s="8">
+        <v>1</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77" s="8"/>
+    </row>
+    <row r="78" s="7" customFormat="1" spans="3:8">
+      <c r="C78" s="13">
+        <v>101112</v>
+      </c>
+      <c r="D78" s="10">
+        <v>1011</v>
+      </c>
+      <c r="E78" s="10">
+        <v>1</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" s="8"/>
+    </row>
+    <row r="79" s="7" customFormat="1" spans="3:8">
+      <c r="C79" s="13">
+        <v>101113</v>
+      </c>
+      <c r="D79" s="10">
+        <v>1011</v>
+      </c>
+      <c r="E79" s="8">
+        <v>1</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" s="8"/>
+    </row>
+    <row r="80" s="7" customFormat="1" spans="3:8">
+      <c r="C80" s="13">
+        <v>101114</v>
+      </c>
+      <c r="D80" s="10">
+        <v>1011</v>
+      </c>
+      <c r="E80" s="10">
+        <v>1</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H80" s="8"/>
+    </row>
+    <row r="81" s="7" customFormat="1" spans="3:8">
+      <c r="C81" s="13">
+        <v>101115</v>
+      </c>
+      <c r="D81" s="10">
+        <v>1011</v>
+      </c>
+      <c r="E81" s="10">
+        <v>1</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H81" s="8"/>
+    </row>
+    <row r="82" s="7" customFormat="1" spans="3:8">
+      <c r="C82" s="13">
+        <v>101116</v>
+      </c>
+      <c r="D82" s="10">
+        <v>1011</v>
+      </c>
+      <c r="E82" s="8">
+        <v>1</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H82" s="8"/>
+    </row>
+    <row r="83" s="7" customFormat="1" spans="3:8">
+      <c r="C83" s="13">
+        <v>101117</v>
+      </c>
+      <c r="D83" s="10">
+        <v>1011</v>
+      </c>
+      <c r="E83" s="10">
+        <v>1</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H83" s="8"/>
+    </row>
+    <row r="84" s="7" customFormat="1" spans="3:7">
+      <c r="C84" s="13">
+        <v>101118</v>
+      </c>
+      <c r="D84" s="10">
+        <v>1011</v>
+      </c>
+      <c r="E84" s="10">
+        <v>1</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" s="7" customFormat="1" spans="3:7">
+      <c r="C85" s="13">
+        <v>101119</v>
+      </c>
+      <c r="D85" s="10">
+        <v>1011</v>
+      </c>
+      <c r="E85" s="10">
+        <v>1</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="86" s="7" customFormat="1"/>
     <row r="87" s="7" customFormat="1"/>
     <row r="88" s="7" customFormat="1"/>
@@ -2890,10 +3227,10 @@
         <v>1000</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6" s="10">
         <v>30310</v>
@@ -2910,10 +3247,10 @@
         <v>1000</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" s="10">
         <v>30311</v>
@@ -2930,10 +3267,10 @@
         <v>1000</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -2948,10 +3285,10 @@
         <v>1000</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3075,10 +3412,10 @@
         <v>1001</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -3242,10 +3579,10 @@
         <v>1002</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" s="5">
         <v>30300</v>
@@ -3264,10 +3601,10 @@
         <v>1002</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" s="5">
         <v>30301</v>
@@ -3286,10 +3623,10 @@
         <v>1002</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" s="5">
         <v>30302</v>
@@ -3308,10 +3645,10 @@
         <v>1002</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="5">
         <v>30303</v>
@@ -3330,10 +3667,10 @@
         <v>1002</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H10" s="5">
         <v>30304</v>
